--- a/Excel/Grupo 6 07-11-24.xlsx
+++ b/Excel/Grupo 6 07-11-24.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estructura-de-datos-2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estructura-de-datos-2\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77390DB-BE22-4B73-9861-C1CD64BF9698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468FBA90-B189-4878-BFB8-270C106639FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATRIZ MODELO" sheetId="3" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="691" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="626">
   <si>
     <t>ID</t>
   </si>
@@ -1785,9 +1785,6 @@
     <t>RF-1</t>
   </si>
   <si>
-    <t>RF1</t>
-  </si>
-  <si>
     <t>DESCRIPCIÓN</t>
   </si>
   <si>
@@ -1806,9 +1803,6 @@
     <t>1.8</t>
   </si>
   <si>
-    <t>RF-2</t>
-  </si>
-  <si>
     <t>2.4</t>
   </si>
   <si>
@@ -1830,91 +1824,259 @@
     <t>UNIDAD: ING-SIST</t>
   </si>
   <si>
-    <t>Gestión de Productos Ópticos y Almacenes</t>
-  </si>
-  <si>
-    <t>DEBE PERMITIR el registro de productos ópticos</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir la creación de registros detallados para cada producto óptico en inventario. Este registro debe incluir información como marca, modelo, tipo de lente (monofocal, bifocal, progresiva), prescripción de lente, color, y tratamiento de lente (antirreflectante, fotocromático), entre otros atributos relevantes.</t>
-  </si>
-  <si>
-    <t>DEBE PERMITIR categorizar productos por tipo</t>
-  </si>
-  <si>
-    <t>El sistema debe incluir la capacidad de clasificar productos ópticos en diferentes categorías (anteojos, lentes de contacto, accesorios, etc.), facilitando su organización en el inventario.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DEBE PERMITIR la edición de información de productos </t>
-  </si>
-  <si>
-    <t>El sistema debe permitir la modificación de los detalles de un producto existente, como precio, descripción, y disponibilidad, asegurando que estos cambios se registren con fecha y hora para mantener un historial actualizado.</t>
-  </si>
-  <si>
-    <t>DEBE PERMITIR la eliminación de productos obsoletos</t>
-  </si>
-  <si>
-    <t>El sistema debe proporcionar una opción para eliminar productos que ya no están disponibles o han sido descontinuados, manteniendo un historial de productos eliminados con fines de auditoría o recuperación futura.</t>
-  </si>
-  <si>
-    <t>DEBE PERMITIR generar reportes de inventario</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El sistema debe generar informes automáticos o bajo demanda sobre el estado del inventario, incluyendo información sobre productos disponibles, productos más vendidos y productos de rotación lenta.	</t>
-  </si>
-  <si>
-    <t>DEBE PERMITIR registrar la ubicación física en almacenes</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir registrar la ubicación física del producto en almacenes para facilitar su localización, garantizando acceso rápido y eficiente.</t>
-  </si>
-  <si>
-    <t>DEBE PERMITIR el control mínimo de productos</t>
-  </si>
-  <si>
-    <t>El sistema debe alertar cuando el inventario de un producto cae por debajo de un nivel mínimo predefinido, ayudando a evitar el desabastecimiento.</t>
-  </si>
-  <si>
     <t>Gestión de Proveedores</t>
   </si>
   <si>
-    <t>DEBE PERMITIR el registro de proveedores</t>
-  </si>
-  <si>
-    <t>El sistema debe permitir registrar nuevos proveedores, incluyendo información completa como nombre, dirección, teléfono, productos ofertados, plazos de pago y entrega, para garantizar un acceso rápido a la información.</t>
-  </si>
-  <si>
-    <t>DEBE PERMITIR la actualización de la información de proveedores</t>
-  </si>
-  <si>
-    <t>La plataforma debe permitir cambios en los datos de los proveedores, como productos ofrecidos o direcciones de contacto, asegurando que cualquier modificación se refleje inmediatamente en el sistema.</t>
-  </si>
-  <si>
-    <t>DEBE PERMITIR la gestión del historial de órdenes a proveedores</t>
-  </si>
-  <si>
-    <t>El sistema debe mantener un registro detallado de todas las órdenes realizadas a cada proveedor, incluyendo la fecha, productos solicitados, cantidad, costo y fecha de entrega. Este historial debe estar disponible para facilitar futuras decisiones de compra.</t>
-  </si>
-  <si>
-    <t>DEBE PERMITIR la generación de reportes de proveedores</t>
-  </si>
-  <si>
-    <t>El sistema debe generar informes que muestren el rendimiento y la confiabilidad de cada proveedor, facilitando la evaluación de la relación con cada proveedor a lo largo del tiempo.</t>
-  </si>
-  <si>
-    <t>Implementar un sistema de gestion de opticas y almacenes paea tener el todo con respecto al inventario al dia.</t>
-  </si>
-  <si>
     <t>GRUPO 6 ADMINISTRACION DE ALMACENES TOKIO</t>
   </si>
   <si>
-    <t>Debe permitir que el usuario (empleado, encargado) pueda realizar la actualizacion, modificación,etc del inventario en los productos</t>
-  </si>
-  <si>
     <t>Un sistema que permita al usuario cuantos productos debe de pedir para no tener un exceso o escasez.</t>
   </si>
   <si>
     <t>Diseñar un Sistema de Información para administrar todos los proveedores y asi no tener alteraciones en los pedidos</t>
+  </si>
+  <si>
+    <t>RF-001</t>
+  </si>
+  <si>
+    <t>RF-002</t>
+  </si>
+  <si>
+    <t>RF-003</t>
+  </si>
+  <si>
+    <t>RF-004</t>
+  </si>
+  <si>
+    <t>RF-005</t>
+  </si>
+  <si>
+    <t>DEBE PERMITIR el registro de nuevos productos.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir el registro automatizado de productos nuevos, asociándolos con información clave como proveedor, cantidad recibida, precio de costo y fecha de recepción. Esto garantizará una trazabilidad precisa y reducirá errores en el inventario.</t>
+  </si>
+  <si>
+    <t>Gestión de Productos y Almacenes</t>
+  </si>
+  <si>
+    <t>DEBE REGISTRAR las entradas y salidas de productos.</t>
+  </si>
+  <si>
+    <t>El sistema debe registrar en tiempo real los movimientos de productos, incluyendo entradas por recepción de proveedores y salidas hacia las sucursales. Cada transacción debe incluir datos como cantidad, fecha y destino. Esto permitirá un control preciso del inventario.</t>
+  </si>
+  <si>
+    <t>DEBE GENERAR auditorías automatizadas.</t>
+  </si>
+  <si>
+    <t>El sistema debe generar informes automáticos que comparen las existencias físicas con los registros digitales del inventario. Esto identificará discrepancias y garantizará la exactitud de los datos, facilitando auditorías periódicas.</t>
+  </si>
+  <si>
+    <t>DEBE PERMITIR la generación de reportes de inventario.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir generar reportes detallados del inventario, filtrados por local, proveedor, categoría de producto o estado del inventario. Estos reportes deben ser exportables en formatos como PDF y Excel para facilitar su análisis.</t>
+  </si>
+  <si>
+    <t>Entradas y salidas de productos.</t>
+  </si>
+  <si>
+    <t>Logistica interna</t>
+  </si>
+  <si>
+    <t>Reportes de inventario.</t>
+  </si>
+  <si>
+    <t>DEBE PERMITIR la captura de datos básicos del producto.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir la entrada de información básica como nombre del producto, categoría, proveedor, y cantidad inicial. Esto garantizará que cada producto esté correctamente identificado.</t>
+  </si>
+  <si>
+    <t>DEBE PERMITIR registrar información avanzada del producto.</t>
+  </si>
+  <si>
+    <t>El sistema debe incluir campos para detalles adicionales como fecha de fabricación, fecha de caducidad, especificaciones técnicas o código de barras, facilitando la identificación y organización del inventario.</t>
+  </si>
+  <si>
+    <t>DEBE PERMITIR vincular productos con proveedores.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir asociar cada producto registrado con un proveedor específico para garantizar la trazabilidad del suministro.</t>
+  </si>
+  <si>
+    <t>DEBE GENERAR un número de identificación único para cada producto.</t>
+  </si>
+  <si>
+    <t>El sistema debe asignar automáticamente un ID único para cada producto registrado, facilitando búsquedas y consultas rápidas en el inventario.</t>
+  </si>
+  <si>
+    <t>DEBE ALERTAR sobre productos duplicados.</t>
+  </si>
+  <si>
+    <t>El sistema debe verificar que no existan productos duplicados antes de completar el registro, reduciendo errores en el inventario.</t>
+  </si>
+  <si>
+    <t>DEBE PERMITIR registrar la ubicación de almacenamiento inicial.</t>
+  </si>
+  <si>
+    <t>El sistema debe incluir un campo para definir el lugar de almacenamiento inicial de los productos, como un almacén específico o una sección determinada.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DEBE OFRECER opciones de importación de datos.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir la importación masiva de datos de productos desde archivos Excel o CSV para agilizar el registro inicial en caso de grandes volúmenes de inventario.</t>
+  </si>
+  <si>
+    <t>DEBE INTEGRARSE con el módulo de auditorías.</t>
+  </si>
+  <si>
+    <t>El sistema debe registrar automáticamente los productos nuevos en el módulo de auditorías para que estas transacciones puedan ser verificadas posteriormente.</t>
+  </si>
+  <si>
+    <t>DEBE PERMITIR el registro de nuevos proveedores.</t>
+  </si>
+  <si>
+    <t>El sistema debe incluir un módulo para registrar proveedores con información clave como nombre, dirección, contacto, condiciones de entrega y productos suministrados.</t>
+  </si>
+  <si>
+    <t>DEBE PERMITIR la actualización de la información de proveedores.</t>
+  </si>
+  <si>
+    <t>El sistema debe proporcionar una opción para modificar datos existentes de los proveedores, asegurando que toda la información esté actualizada para una gestión eficiente.</t>
+  </si>
+  <si>
+    <t>DEBE GENERAR reportes sobre el historial de órdenes con cada proveedor.</t>
+  </si>
+  <si>
+    <t>El sistema debe incluir un registro histórico de todas las órdenes realizadas a cada proveedor, incluyendo fechas, costos y productos solicitados, para facilitar decisiones de compra.</t>
+  </si>
+  <si>
+    <t>DEBE PERMITIR evaluar el rendimiento de los proveedores.</t>
+  </si>
+  <si>
+    <t>El sistema debe ofrecer métricas que analicen la confiabilidad y puntualidad de los proveedores basándose en entregas anteriores, para optimizar futuras relaciones comerciales.</t>
+  </si>
+  <si>
+    <t>DEBE PERMITIR gestionar pedidos automáticamente según el inventario.</t>
+  </si>
+  <si>
+    <t>El sistema debe integrar algoritmos que calculen las necesidades de reabastecimiento y generen automáticamente pedidos a los proveedores, evitando faltantes o exceso de productos.</t>
+  </si>
+  <si>
+    <t>DEBE PERMITIR enviar notificaciones automáticas a proveedores.</t>
+  </si>
+  <si>
+    <t>El sistema debe contar con una función que envíe notificaciones a los proveedores confirmando pedidos, cambios o cancelaciones, para garantizar una comunicación eficiente.</t>
+  </si>
+  <si>
+    <t>DEBE INTEGRARSE con el módulo de inventarios para sincronización en tiempo real.</t>
+  </si>
+  <si>
+    <t>El sistema debe estar vinculado con el módulo de inventarios, de manera que las actualizaciones en los pedidos o en el estado de inventario se reflejen inmediatamente en el sistema de proveedores.</t>
+  </si>
+  <si>
+    <t>DEBE REGISTRAR las entradas de productos recibidos de proveedores.</t>
+  </si>
+  <si>
+    <t>El sistema debe capturar automáticamente la información de cada entrada de productos, incluyendo el proveedor, cantidad recibida, fecha de recepción y detalles adicionales como lote y ubicación en el almacén.</t>
+  </si>
+  <si>
+    <t>DEBE REGISTRAR las salidas de productos hacia sucursales.</t>
+  </si>
+  <si>
+    <t>El sistema debe registrar todas las transacciones de salida de productos desde el almacén central hacia las sucursales, especificando cantidades enviadas, fecha y destino.</t>
+  </si>
+  <si>
+    <t>DEBE PERMITIR rastrear el historial de movimientos de productos.</t>
+  </si>
+  <si>
+    <t>El sistema debe incluir una funcionalidad para consultar el historial completo de entradas y salidas de un producto específico, permitiendo identificar fechas, cantidades y ubicaciones relacionadas.</t>
+  </si>
+  <si>
+    <t>DEBE PERMITIR registrar devoluciones de productos.</t>
+  </si>
+  <si>
+    <t>El sistema debe ser capaz de registrar devoluciones de productos tanto desde proveedores como desde sucursales, especificando las razones de la devolución y ajustando automáticamente el inventario.</t>
+  </si>
+  <si>
+    <t>DEBE GENERAR notificaciones automáticas para movimientos excepcionales.</t>
+  </si>
+  <si>
+    <t>El sistema debe enviar alertas automáticas cuando se detecten movimientos no programados o que superen ciertos umbrales predefinidos, garantizando un monitoreo constante.</t>
+  </si>
+  <si>
+    <t>DEBE GENERAR reportes de movimiento de inventario.</t>
+  </si>
+  <si>
+    <t>El sistema debe generar reportes detallados y gráficos que muestren las tendencias de entradas y salidas de productos, permitiendo una mejor planificación del inventario.</t>
+  </si>
+  <si>
+    <t>DEBE INTEGRARSE con el módulo de auditoría de inventario.</t>
+  </si>
+  <si>
+    <t>El sistema debe estar vinculado al módulo de auditoría para garantizar que todos los movimientos de productos registrados puedan ser comparados con las existencias físicas durante auditorías programadas.</t>
+  </si>
+  <si>
+    <t>DEBE GENERAR informes de discrepancias entre inventario físico y digital.</t>
+  </si>
+  <si>
+    <t>DEBE PERMITIR la programación de auditorías automáticas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DEBE PERMITIR visualizar los resultados de auditorías en tiempo real.</t>
+  </si>
+  <si>
+    <t>DEBE GENERAR recomendaciones basadas en las auditorías.</t>
+  </si>
+  <si>
+    <t>El sistema debe proporcionar un reporte detallado que resuma todas las diferencias detectadas entre las existencias físicas y los registros digitales, indicando posibles causas y ubicaciones específicas.</t>
+  </si>
+  <si>
+    <t>El sistema debe incluir una funcionalidad para programar auditorías en intervalos específicos, ejecutándose automáticamente y notificando a los administradores con los resultados.</t>
+  </si>
+  <si>
+    <t>Los administradores deben poder consultar en tiempo real los resultados de auditorías en curso, incluyendo indicadores visuales de discrepancias críticas o recurrentes.</t>
+  </si>
+  <si>
+    <t>El sistema debe incluir un módulo que sugiera acciones correctivas basadas en las discrepancias detectadas, como ajustes de inventario, cambios en procesos o capacitaciones para el personal.</t>
+  </si>
+  <si>
+    <t>DEBE GENERAR un historial de auditorías.</t>
+  </si>
+  <si>
+    <t>El sistema debe almacenar los resultados de todas las auditorías realizadas, permitiendo acceder a informes históricos para identificar patrones o tendencias a lo largo del tiempo.</t>
+  </si>
+  <si>
+    <t>DEBE PERMITIR filtrar los reportes por local.</t>
+  </si>
+  <si>
+    <t>DEBE PERMITIR filtrar los reportes por proveedor.</t>
+  </si>
+  <si>
+    <t>DEBE PERMITIR filtrar los reportes por categoría de producto.</t>
+  </si>
+  <si>
+    <t>DEBE INCLUIR indicadores gráficos en los reportes.</t>
+  </si>
+  <si>
+    <t>El sistema debe incluir una funcionalidad que permita generar reportes específicos para cada sucursal o local, detallando la disponibilidad y movimiento de productos.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir generar reportes que agrupen y analicen los productos suministrados por cada proveedor, incluyendo datos como frecuencia de entrega y volumen suministrado.</t>
+  </si>
+  <si>
+    <t>El sistema debe ofrecer la opción de generar reportes específicos para diferentes categorías de productos, como lentes de contacto, gafas de sol, accesorios, etc., permitiendo un análisis detallado.</t>
+  </si>
+  <si>
+    <t>El sistema debe permitir a los usuarios exportar los reportes generados en formatos PDF y Excel para facilitar su análisis, distribución y almacenamiento.</t>
+  </si>
+  <si>
+    <t>El sistema debe integrar gráficos e indicadores visuales en los reportes, como barras, líneas o tortas, para representar tendencias de inventario y facilitar la interpretación de datos.</t>
+  </si>
+  <si>
+    <t>DEBE EXPORTAR reportes en formatos PDF.</t>
   </si>
 </sst>
 </file>
@@ -2029,7 +2191,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2168,6 +2330,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="49">
     <border>
@@ -2781,7 +2949,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="259">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
@@ -3017,9 +3185,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -3032,18 +3197,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="23" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3098,8 +3257,68 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -3119,75 +3338,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3200,6 +3350,294 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="18" fontId="15" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3209,33 +3647,6 @@
     <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3272,278 +3683,79 @@
     <xf numFmtId="0" fontId="1" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="21" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3616,9 +3828,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>6394</xdr:colOff>
+      <xdr:colOff>4489</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>296333</xdr:rowOff>
+      <xdr:rowOff>300143</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4007,8 +4219,8 @@
   </sheetPr>
   <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:E25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4016,8 +4228,8 @@
     <col min="1" max="1" width="2.140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" style="38" customWidth="1"/>
-    <col min="4" max="4" width="54.7109375" style="101" customWidth="1"/>
-    <col min="5" max="5" width="67" style="39" customWidth="1"/>
+    <col min="4" max="4" width="54.7109375" style="98" customWidth="1"/>
+    <col min="5" max="5" width="76.140625" style="39" customWidth="1"/>
     <col min="6" max="6" width="6.7109375" style="27" customWidth="1"/>
     <col min="7" max="7" width="32.5703125" style="4" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="15" style="3" hidden="1" customWidth="1"/>
@@ -4030,15 +4242,15 @@
     <row r="1" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="127"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="108"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
@@ -4047,18 +4259,18 @@
     </row>
     <row r="3" spans="1:16" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
-      <c r="B3" s="128"/>
-      <c r="C3" s="136" t="s">
-        <v>540</v>
-      </c>
-      <c r="D3" s="137"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="96"/>
+      <c r="B3" s="109"/>
+      <c r="C3" s="117" t="s">
+        <v>538</v>
+      </c>
+      <c r="D3" s="118"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="93"/>
       <c r="I3" s="49"/>
       <c r="J3" s="64" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="L3" s="7"/>
       <c r="M3" s="7"/>
@@ -4068,15 +4280,15 @@
     </row>
     <row r="4" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="138" t="s">
-        <v>541</v>
-      </c>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="98"/>
+      <c r="B4" s="110"/>
+      <c r="C4" s="119" t="s">
+        <v>539</v>
+      </c>
+      <c r="D4" s="120"/>
+      <c r="E4" s="120"/>
+      <c r="F4" s="120"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="95"/>
       <c r="I4" s="50"/>
       <c r="J4" s="65" t="s">
         <v>13</v>
@@ -4089,12 +4301,12 @@
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5"/>
-      <c r="B5" s="130"/>
-      <c r="D5" s="101" t="s">
-        <v>568</v>
-      </c>
-      <c r="G5" s="99"/>
-      <c r="H5" s="100"/>
+      <c r="B5" s="111"/>
+      <c r="D5" s="98" t="s">
+        <v>542</v>
+      </c>
+      <c r="G5" s="96"/>
+      <c r="H5" s="97"/>
       <c r="I5" s="51"/>
       <c r="J5" s="65" t="s">
         <v>14</v>
@@ -4106,28 +4318,28 @@
       <c r="P5"/>
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="131"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
       <c r="G6" s="9"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="132"/>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="133" t="s">
+      <c r="B7" s="113"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="135"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="116"/>
     </row>
     <row r="8" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="57" t="s">
@@ -4136,11 +4348,11 @@
       <c r="C8" s="58" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="102" t="s">
+      <c r="D8" s="99" t="s">
         <v>2</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>32</v>
@@ -4158,18 +4370,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B9" s="117" t="s">
-        <v>543</v>
-      </c>
-      <c r="C9" s="90" t="s">
-        <v>528</v>
-      </c>
-      <c r="D9" s="103" t="s">
-        <v>567</v>
-      </c>
-      <c r="E9" s="108" t="s">
-        <v>569</v>
+    <row r="9" spans="1:16" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="121" t="s">
+        <v>552</v>
+      </c>
+      <c r="C9" s="88" t="s">
+        <v>545</v>
+      </c>
+      <c r="D9" s="100" t="s">
+        <v>550</v>
+      </c>
+      <c r="E9" s="105" t="s">
+        <v>551</v>
       </c>
       <c r="F9" s="82" t="s">
         <v>35</v>
@@ -4181,18 +4393,18 @@
       <c r="I9" s="47"/>
       <c r="J9" s="60"/>
     </row>
-    <row r="10" spans="1:16" ht="63.75" x14ac:dyDescent="0.2">
-      <c r="B10" s="118"/>
+    <row r="10" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B10" s="122"/>
       <c r="C10" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="43" t="s">
-        <v>544</v>
+      <c r="D10" s="262" t="s">
+        <v>562</v>
       </c>
       <c r="E10" s="54" t="s">
-        <v>545</v>
-      </c>
-      <c r="F10" s="83" t="s">
+        <v>563</v>
+      </c>
+      <c r="F10" s="82" t="s">
         <v>35</v>
       </c>
       <c r="G10" s="63"/>
@@ -4200,37 +4412,37 @@
       <c r="I10" s="1"/>
       <c r="J10" s="48"/>
     </row>
-    <row r="11" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B11" s="118"/>
+    <row r="11" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="122"/>
       <c r="C11" s="73" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="88" t="s">
-        <v>546</v>
-      </c>
-      <c r="E11" s="54" t="s">
-        <v>547</v>
-      </c>
-      <c r="F11" s="68" t="s">
-        <v>35</v>
+      <c r="D11" s="28" t="s">
+        <v>564</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>565</v>
+      </c>
+      <c r="F11" s="84" t="s">
+        <v>40</v>
       </c>
       <c r="G11" s="21"/>
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
       <c r="J11" s="23"/>
     </row>
-    <row r="12" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="118"/>
+    <row r="12" spans="1:16" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="122"/>
       <c r="C12" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>548</v>
-      </c>
-      <c r="E12" s="41" t="s">
-        <v>549</v>
-      </c>
-      <c r="F12" s="68" t="s">
+      <c r="D12" s="43" t="s">
+        <v>566</v>
+      </c>
+      <c r="E12" s="54" t="s">
+        <v>567</v>
+      </c>
+      <c r="F12" s="82" t="s">
         <v>35</v>
       </c>
       <c r="G12" s="22"/>
@@ -4238,18 +4450,18 @@
       <c r="I12" s="22"/>
       <c r="J12" s="23"/>
     </row>
-    <row r="13" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B13" s="118"/>
+    <row r="13" spans="1:16" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="122"/>
       <c r="C13" s="74" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D13" s="43" t="s">
-        <v>550</v>
+        <v>568</v>
       </c>
       <c r="E13" s="54" t="s">
-        <v>551</v>
-      </c>
-      <c r="F13" s="69" t="s">
+        <v>569</v>
+      </c>
+      <c r="F13" s="82" t="s">
         <v>35</v>
       </c>
       <c r="G13" s="22"/>
@@ -4257,18 +4469,18 @@
       <c r="I13" s="22"/>
       <c r="J13" s="23"/>
     </row>
-    <row r="14" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B14" s="118"/>
+    <row r="14" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="122"/>
       <c r="C14" s="74" t="s">
-        <v>531</v>
-      </c>
-      <c r="D14" s="43" t="s">
-        <v>552</v>
+        <v>530</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>570</v>
       </c>
       <c r="E14" s="54" t="s">
-        <v>553</v>
-      </c>
-      <c r="F14" s="83" t="s">
+        <v>571</v>
+      </c>
+      <c r="F14" s="82" t="s">
         <v>35</v>
       </c>
       <c r="G14" s="22"/>
@@ -4276,125 +4488,135 @@
       <c r="I14" s="22"/>
       <c r="J14" s="23"/>
     </row>
-    <row r="15" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="118"/>
+    <row r="15" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="122"/>
       <c r="C15" s="74" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D15" s="42" t="s">
-        <v>554</v>
-      </c>
-      <c r="E15" s="54" t="s">
-        <v>555</v>
-      </c>
-      <c r="F15" s="83" t="s">
-        <v>35</v>
-      </c>
-      <c r="G15" s="84"/>
+        <v>572</v>
+      </c>
+      <c r="E15" s="45" t="s">
+        <v>573</v>
+      </c>
+      <c r="F15" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="G15" s="83"/>
       <c r="H15" s="22"/>
       <c r="I15" s="22"/>
       <c r="J15" s="23"/>
     </row>
-    <row r="16" spans="1:16" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="118"/>
+    <row r="16" spans="1:16" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="122"/>
       <c r="C16" s="74" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="D16" s="42" t="s">
-        <v>556</v>
+        <v>574</v>
       </c>
       <c r="E16" s="45" t="s">
-        <v>557</v>
-      </c>
-      <c r="F16" s="83"/>
-      <c r="G16" s="84"/>
+        <v>575</v>
+      </c>
+      <c r="F16" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G16" s="83"/>
       <c r="H16" s="22"/>
       <c r="I16" s="22"/>
       <c r="J16" s="23"/>
     </row>
-    <row r="17" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B17" s="119"/>
+    <row r="17" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="123"/>
       <c r="C17" s="74" t="s">
-        <v>534</v>
-      </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="84"/>
+        <v>533</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>576</v>
+      </c>
+      <c r="E17" s="45" t="s">
+        <v>577</v>
+      </c>
+      <c r="F17" s="82" t="s">
+        <v>35</v>
+      </c>
+      <c r="G17" s="83"/>
       <c r="H17" s="22"/>
       <c r="I17" s="22"/>
       <c r="J17" s="23"/>
     </row>
-    <row r="18" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B18" s="120" t="s">
-        <v>558</v>
-      </c>
-      <c r="C18" s="89" t="s">
-        <v>535</v>
-      </c>
-      <c r="D18" s="104" t="s">
-        <v>571</v>
-      </c>
-      <c r="E18" s="109" t="s">
-        <v>570</v>
-      </c>
-      <c r="F18" s="83"/>
-      <c r="G18" s="84"/>
+    <row r="18" spans="2:10" ht="40.5" x14ac:dyDescent="0.2">
+      <c r="B18" s="124" t="s">
+        <v>541</v>
+      </c>
+      <c r="C18" s="87" t="s">
+        <v>546</v>
+      </c>
+      <c r="D18" s="101" t="s">
+        <v>544</v>
+      </c>
+      <c r="E18" s="106" t="s">
+        <v>543</v>
+      </c>
+      <c r="F18" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="83"/>
       <c r="H18" s="22"/>
       <c r="I18" s="22"/>
       <c r="J18" s="23"/>
     </row>
-    <row r="19" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B19" s="121"/>
+    <row r="19" spans="2:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="125"/>
       <c r="C19" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="D19" s="54" t="s">
-        <v>559</v>
+      <c r="D19" s="42" t="s">
+        <v>578</v>
       </c>
       <c r="E19" s="45" t="s">
-        <v>560</v>
-      </c>
-      <c r="F19" s="85" t="s">
+        <v>579</v>
+      </c>
+      <c r="F19" s="84" t="s">
         <v>35</v>
       </c>
-      <c r="G19" s="86"/>
+      <c r="G19" s="85"/>
       <c r="H19" s="36"/>
       <c r="I19" s="36"/>
       <c r="J19" s="61"/>
     </row>
     <row r="20" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B20" s="121"/>
+      <c r="B20" s="125"/>
       <c r="C20" s="81" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="42" t="s">
-        <v>561</v>
+        <v>580</v>
       </c>
       <c r="E20" s="45" t="s">
-        <v>562</v>
-      </c>
-      <c r="F20" s="85" t="s">
-        <v>40</v>
+        <v>581</v>
+      </c>
+      <c r="F20" s="84" t="s">
+        <v>35</v>
       </c>
       <c r="G20" s="53"/>
       <c r="H20" s="36"/>
       <c r="I20" s="36"/>
       <c r="J20" s="61"/>
     </row>
-    <row r="21" spans="2:10" ht="51" x14ac:dyDescent="0.2">
-      <c r="B21" s="121"/>
+    <row r="21" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B21" s="125"/>
       <c r="C21" s="81" t="s">
         <v>49</v>
       </c>
       <c r="D21" s="42" t="s">
-        <v>563</v>
+        <v>582</v>
       </c>
       <c r="E21" s="45" t="s">
-        <v>564</v>
-      </c>
-      <c r="F21" s="85" t="s">
-        <v>35</v>
+        <v>583</v>
+      </c>
+      <c r="F21" s="84" t="s">
+        <v>40</v>
       </c>
       <c r="G21" s="53"/>
       <c r="H21" s="36"/>
@@ -4402,17 +4624,17 @@
       <c r="J21" s="61"/>
     </row>
     <row r="22" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B22" s="121"/>
+      <c r="B22" s="125"/>
       <c r="C22" s="80" t="s">
-        <v>536</v>
-      </c>
-      <c r="D22" s="88" t="s">
-        <v>565</v>
+        <v>534</v>
+      </c>
+      <c r="D22" s="262" t="s">
+        <v>584</v>
       </c>
       <c r="E22" s="45" t="s">
-        <v>566</v>
-      </c>
-      <c r="F22" s="85" t="s">
+        <v>585</v>
+      </c>
+      <c r="F22" s="84" t="s">
         <v>35</v>
       </c>
       <c r="G22" s="53"/>
@@ -4420,807 +4642,1001 @@
       <c r="I22" s="36"/>
       <c r="J22" s="61"/>
     </row>
-    <row r="23" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B23" s="121"/>
+    <row r="23" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B23" s="125"/>
       <c r="C23" s="80" t="s">
-        <v>537</v>
-      </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="45"/>
-      <c r="F23" s="85"/>
+        <v>535</v>
+      </c>
+      <c r="D23" s="43" t="s">
+        <v>586</v>
+      </c>
+      <c r="E23" s="45" t="s">
+        <v>587</v>
+      </c>
+      <c r="F23" s="84" t="s">
+        <v>35</v>
+      </c>
       <c r="G23" s="53"/>
       <c r="H23" s="36"/>
       <c r="I23" s="36"/>
       <c r="J23" s="61"/>
     </row>
-    <row r="24" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B24" s="121"/>
+    <row r="24" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B24" s="125"/>
       <c r="C24" s="80" t="s">
-        <v>538</v>
-      </c>
-      <c r="D24" s="43"/>
-      <c r="E24" s="45"/>
-      <c r="F24" s="85"/>
+        <v>536</v>
+      </c>
+      <c r="D24" s="43" t="s">
+        <v>588</v>
+      </c>
+      <c r="E24" s="45" t="s">
+        <v>589</v>
+      </c>
+      <c r="F24" s="84" t="s">
+        <v>35</v>
+      </c>
       <c r="G24" s="53"/>
       <c r="H24" s="36"/>
       <c r="I24" s="36"/>
       <c r="J24" s="61"/>
     </row>
-    <row r="25" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B25" s="121"/>
+    <row r="25" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B25" s="125"/>
       <c r="C25" s="80" t="s">
-        <v>539</v>
-      </c>
-      <c r="D25" s="43"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="93"/>
+        <v>537</v>
+      </c>
+      <c r="D25" s="43" t="s">
+        <v>590</v>
+      </c>
+      <c r="E25" s="45" t="s">
+        <v>591</v>
+      </c>
+      <c r="F25" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G25" s="90"/>
       <c r="H25" s="36"/>
       <c r="I25" s="36"/>
       <c r="J25" s="61"/>
     </row>
     <row r="26" spans="2:10" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="122"/>
-      <c r="C26" s="94"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="110"/>
-      <c r="F26" s="87"/>
-      <c r="G26" s="84"/>
+      <c r="B26" s="126" t="s">
+        <v>559</v>
+      </c>
+      <c r="C26" s="91" t="s">
+        <v>547</v>
+      </c>
+      <c r="D26" s="102" t="s">
+        <v>553</v>
+      </c>
+      <c r="E26" s="258" t="s">
+        <v>554</v>
+      </c>
+      <c r="F26" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" s="83"/>
       <c r="H26" s="22"/>
       <c r="I26" s="22"/>
       <c r="J26" s="23"/>
     </row>
-    <row r="27" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B27" s="123"/>
-      <c r="C27" s="92"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="87"/>
-      <c r="G27" s="84"/>
+    <row r="27" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B27" s="127"/>
+      <c r="C27" s="81">
+        <v>3.1</v>
+      </c>
+      <c r="D27" s="263" t="s">
+        <v>592</v>
+      </c>
+      <c r="E27" s="264" t="s">
+        <v>593</v>
+      </c>
+      <c r="F27" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="83"/>
       <c r="H27" s="22"/>
       <c r="I27" s="22"/>
       <c r="J27" s="23"/>
     </row>
-    <row r="28" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B28" s="123"/>
-      <c r="C28" s="92"/>
-      <c r="D28" s="42"/>
-      <c r="E28" s="54"/>
-      <c r="F28" s="87"/>
-      <c r="G28" s="84"/>
+    <row r="28" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B28" s="127"/>
+      <c r="C28" s="81">
+        <v>3.2</v>
+      </c>
+      <c r="D28" s="263" t="s">
+        <v>594</v>
+      </c>
+      <c r="E28" s="264" t="s">
+        <v>595</v>
+      </c>
+      <c r="F28" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G28" s="83"/>
       <c r="H28" s="22"/>
       <c r="I28" s="22"/>
       <c r="J28" s="23"/>
     </row>
     <row r="29" spans="2:10" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="123"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="81">
+        <v>3.3</v>
+      </c>
+      <c r="D29" s="263" t="s">
+        <v>596</v>
+      </c>
+      <c r="E29" s="264" t="s">
+        <v>597</v>
+      </c>
+      <c r="F29" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="83"/>
+      <c r="H29" s="83"/>
       <c r="I29" s="22"/>
       <c r="J29" s="23"/>
     </row>
     <row r="30" spans="2:10" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="123"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="42"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
+      <c r="B30" s="127"/>
+      <c r="C30" s="80">
+        <v>3.4</v>
+      </c>
+      <c r="D30" s="265" t="s">
+        <v>598</v>
+      </c>
+      <c r="E30" s="264" t="s">
+        <v>599</v>
+      </c>
+      <c r="F30" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="83"/>
+      <c r="H30" s="83"/>
       <c r="I30" s="22"/>
       <c r="J30" s="23"/>
     </row>
-    <row r="31" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B31" s="123"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="42"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
+    <row r="31" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B31" s="127"/>
+      <c r="C31" s="80">
+        <v>3.5</v>
+      </c>
+      <c r="D31" s="263" t="s">
+        <v>600</v>
+      </c>
+      <c r="E31" s="264" t="s">
+        <v>601</v>
+      </c>
+      <c r="F31" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="83"/>
+      <c r="H31" s="83"/>
       <c r="I31" s="22"/>
       <c r="J31" s="23"/>
     </row>
-    <row r="32" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B32" s="123"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="87"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
+    <row r="32" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B32" s="127"/>
+      <c r="C32" s="80">
+        <v>3.6</v>
+      </c>
+      <c r="D32" s="263" t="s">
+        <v>602</v>
+      </c>
+      <c r="E32" s="264" t="s">
+        <v>603</v>
+      </c>
+      <c r="F32" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="83"/>
+      <c r="H32" s="83"/>
       <c r="I32" s="22"/>
       <c r="J32" s="23"/>
     </row>
     <row r="33" spans="2:10" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="123"/>
-      <c r="C33" s="92"/>
-      <c r="D33" s="42"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
+      <c r="B33" s="127"/>
+      <c r="C33" s="80">
+        <v>3.7</v>
+      </c>
+      <c r="D33" s="263" t="s">
+        <v>604</v>
+      </c>
+      <c r="E33" s="264" t="s">
+        <v>605</v>
+      </c>
+      <c r="F33" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" s="83"/>
+      <c r="H33" s="83"/>
       <c r="I33" s="22"/>
       <c r="J33" s="23"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="124"/>
-      <c r="C34" s="92"/>
+      <c r="B34" s="268"/>
+      <c r="C34" s="89"/>
       <c r="D34" s="42"/>
       <c r="E34" s="54"/>
-      <c r="F34" s="87"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="83"/>
+      <c r="H34" s="83"/>
       <c r="I34" s="22"/>
       <c r="J34" s="23"/>
     </row>
-    <row r="35" spans="2:10" ht="37.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="125"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="87"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
+    <row r="35" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="270" t="s">
+        <v>560</v>
+      </c>
+      <c r="C35" s="253" t="s">
+        <v>548</v>
+      </c>
+      <c r="D35" s="254" t="s">
+        <v>555</v>
+      </c>
+      <c r="E35" s="255" t="s">
+        <v>556</v>
+      </c>
+      <c r="F35" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="83"/>
+      <c r="H35" s="83"/>
       <c r="I35" s="22"/>
       <c r="J35" s="23"/>
     </row>
-    <row r="36" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B36" s="125"/>
-      <c r="C36" s="92"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="87"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
+    <row r="36" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B36" s="271"/>
+      <c r="C36" s="81">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>606</v>
+      </c>
+      <c r="E36" s="54" t="s">
+        <v>610</v>
+      </c>
+      <c r="F36" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="G36" s="83"/>
+      <c r="H36" s="83"/>
       <c r="I36" s="22"/>
       <c r="J36" s="23"/>
     </row>
-    <row r="37" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="125"/>
-      <c r="C37" s="92"/>
-      <c r="D37" s="42"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="84"/>
-      <c r="H37" s="84"/>
+    <row r="37" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B37" s="271"/>
+      <c r="C37" s="81">
+        <v>4.2</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>607</v>
+      </c>
+      <c r="E37" s="54" t="s">
+        <v>611</v>
+      </c>
+      <c r="F37" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="83"/>
+      <c r="H37" s="83"/>
       <c r="I37" s="22"/>
       <c r="J37" s="23"/>
     </row>
-    <row r="38" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="125"/>
-      <c r="C38" s="92"/>
-      <c r="D38" s="42"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="84"/>
-      <c r="H38" s="84"/>
+    <row r="38" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="271"/>
+      <c r="C38" s="81">
+        <v>4.3</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>608</v>
+      </c>
+      <c r="E38" s="54" t="s">
+        <v>612</v>
+      </c>
+      <c r="F38" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G38" s="83"/>
+      <c r="H38" s="83"/>
       <c r="I38" s="22"/>
       <c r="J38" s="23"/>
     </row>
-    <row r="39" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B39" s="125"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="42"/>
-      <c r="E39" s="54"/>
-      <c r="F39" s="87"/>
-      <c r="G39" s="84"/>
-      <c r="H39" s="84"/>
+    <row r="39" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="B39" s="271"/>
+      <c r="C39" s="80">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="D39" s="42" t="s">
+        <v>609</v>
+      </c>
+      <c r="E39" s="54" t="s">
+        <v>613</v>
+      </c>
+      <c r="F39" s="86" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="83"/>
+      <c r="H39" s="83"/>
       <c r="I39" s="22"/>
       <c r="J39" s="23"/>
     </row>
-    <row r="40" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B40" s="125"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="42"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="87"/>
-      <c r="G40" s="84"/>
-      <c r="H40" s="84"/>
+    <row r="40" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="272"/>
+      <c r="C40" s="80">
+        <v>4.5</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>614</v>
+      </c>
+      <c r="E40" s="54" t="s">
+        <v>615</v>
+      </c>
+      <c r="F40" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G40" s="83"/>
+      <c r="H40" s="83"/>
       <c r="I40" s="22"/>
       <c r="J40" s="23"/>
     </row>
     <row r="41" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B41" s="125"/>
-      <c r="C41" s="106"/>
+      <c r="B41" s="269"/>
+      <c r="C41" s="103"/>
       <c r="D41" s="42"/>
       <c r="E41" s="54"/>
-      <c r="F41" s="85"/>
-      <c r="G41" s="86"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="85"/>
       <c r="H41" s="36"/>
       <c r="I41" s="36"/>
       <c r="J41" s="61"/>
     </row>
     <row r="42" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B42" s="125"/>
-      <c r="C42" s="106"/>
+      <c r="B42" s="269"/>
+      <c r="C42" s="103"/>
       <c r="D42" s="42"/>
       <c r="E42" s="54"/>
-      <c r="F42" s="85"/>
-      <c r="G42" s="86"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="85"/>
       <c r="H42" s="36"/>
       <c r="I42" s="36"/>
       <c r="J42" s="61"/>
     </row>
     <row r="43" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B43" s="125"/>
-      <c r="C43" s="106"/>
+      <c r="B43" s="269"/>
+      <c r="C43" s="103"/>
       <c r="D43" s="42"/>
       <c r="E43" s="54"/>
-      <c r="F43" s="85"/>
-      <c r="G43" s="86"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="85"/>
       <c r="H43" s="36"/>
       <c r="I43" s="36"/>
       <c r="J43" s="61"/>
     </row>
-    <row r="44" spans="2:10" ht="33.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="111"/>
-      <c r="C44" s="106"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="54"/>
-      <c r="F44" s="87"/>
-      <c r="G44" s="84"/>
-      <c r="H44" s="84"/>
+    <row r="44" spans="2:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="256" t="s">
+        <v>561</v>
+      </c>
+      <c r="C44" s="259" t="s">
+        <v>549</v>
+      </c>
+      <c r="D44" s="260" t="s">
+        <v>557</v>
+      </c>
+      <c r="E44" s="261" t="s">
+        <v>558</v>
+      </c>
+      <c r="F44" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G44" s="83"/>
+      <c r="H44" s="83"/>
       <c r="I44" s="22"/>
       <c r="J44" s="23"/>
     </row>
-    <row r="45" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="112"/>
-      <c r="C45" s="106"/>
-      <c r="D45" s="42"/>
-      <c r="E45" s="54"/>
-      <c r="F45" s="87"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
+    <row r="45" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="257"/>
+      <c r="C45" s="81">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="D45" s="42" t="s">
+        <v>616</v>
+      </c>
+      <c r="E45" s="54" t="s">
+        <v>620</v>
+      </c>
+      <c r="F45" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G45" s="83"/>
+      <c r="H45" s="83"/>
       <c r="I45" s="22"/>
       <c r="J45" s="23"/>
     </row>
-    <row r="46" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="112"/>
-      <c r="C46" s="106"/>
-      <c r="D46" s="42"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="87"/>
-      <c r="G46" s="86"/>
+    <row r="46" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="257"/>
+      <c r="C46" s="81">
+        <v>5.2</v>
+      </c>
+      <c r="D46" s="266" t="s">
+        <v>617</v>
+      </c>
+      <c r="E46" s="54" t="s">
+        <v>621</v>
+      </c>
+      <c r="F46" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G46" s="85"/>
       <c r="H46" s="36"/>
       <c r="I46" s="36"/>
       <c r="J46" s="61"/>
     </row>
-    <row r="47" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="112"/>
-      <c r="C47" s="106"/>
-      <c r="D47" s="42"/>
-      <c r="E47" s="54"/>
-      <c r="F47" s="87"/>
-      <c r="G47" s="86"/>
+    <row r="47" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="257"/>
+      <c r="C47" s="81">
+        <v>5.3</v>
+      </c>
+      <c r="D47" s="267" t="s">
+        <v>618</v>
+      </c>
+      <c r="E47" s="54" t="s">
+        <v>622</v>
+      </c>
+      <c r="F47" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G47" s="85"/>
       <c r="H47" s="36"/>
       <c r="I47" s="36"/>
       <c r="J47" s="61"/>
     </row>
-    <row r="48" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B48" s="112"/>
-      <c r="C48" s="106"/>
-      <c r="D48" s="42"/>
-      <c r="E48" s="54"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="86"/>
+    <row r="48" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="257"/>
+      <c r="C48" s="80">
+        <v>5.4</v>
+      </c>
+      <c r="D48" s="267" t="s">
+        <v>625</v>
+      </c>
+      <c r="E48" s="54" t="s">
+        <v>623</v>
+      </c>
+      <c r="F48" s="84" t="s">
+        <v>35</v>
+      </c>
+      <c r="G48" s="85"/>
       <c r="H48" s="36"/>
       <c r="I48" s="36"/>
       <c r="J48" s="61"/>
     </row>
-    <row r="49" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B49" s="112"/>
-      <c r="C49" s="106"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="54"/>
-      <c r="F49" s="87"/>
-      <c r="G49" s="86"/>
+    <row r="49" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="257"/>
+      <c r="C49" s="80">
+        <v>5.5</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>619</v>
+      </c>
+      <c r="E49" s="54" t="s">
+        <v>624</v>
+      </c>
+      <c r="F49" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="G49" s="85"/>
       <c r="H49" s="36"/>
       <c r="I49" s="36"/>
       <c r="J49" s="61"/>
     </row>
-    <row r="50" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="112"/>
-      <c r="C50" s="106"/>
+    <row r="50" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="273"/>
+      <c r="C50" s="103"/>
       <c r="D50" s="42"/>
       <c r="E50" s="54"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="86"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="85"/>
       <c r="H50" s="36"/>
       <c r="I50" s="36"/>
       <c r="J50" s="61"/>
     </row>
     <row r="51" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="112"/>
-      <c r="C51" s="106"/>
+      <c r="B51" s="273"/>
+      <c r="C51" s="103"/>
       <c r="D51" s="42"/>
       <c r="E51" s="54"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="86"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="85"/>
       <c r="H51" s="36"/>
       <c r="I51" s="36"/>
       <c r="J51" s="61"/>
     </row>
     <row r="52" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="112"/>
-      <c r="C52" s="106"/>
+      <c r="B52" s="273"/>
+      <c r="C52" s="103"/>
       <c r="D52" s="42"/>
       <c r="E52" s="54"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="86"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="85"/>
       <c r="H52" s="36"/>
       <c r="I52" s="36"/>
       <c r="J52" s="61"/>
     </row>
     <row r="53" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="112"/>
-      <c r="C53" s="106"/>
+      <c r="B53" s="273"/>
+      <c r="C53" s="103"/>
       <c r="D53" s="42"/>
       <c r="E53" s="54"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="86"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="85"/>
       <c r="H53" s="36"/>
       <c r="I53" s="36"/>
       <c r="J53" s="61"/>
     </row>
     <row r="54" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B54" s="113"/>
-      <c r="C54" s="106"/>
+      <c r="B54" s="274"/>
+      <c r="C54" s="103"/>
       <c r="D54" s="42"/>
       <c r="E54" s="54"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="86"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="85"/>
       <c r="H54" s="36"/>
       <c r="I54" s="36"/>
       <c r="J54" s="61"/>
     </row>
     <row r="55" spans="2:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="111"/>
-      <c r="C55" s="106"/>
-      <c r="D55" s="107"/>
+      <c r="B55" s="128"/>
+      <c r="C55" s="103"/>
+      <c r="D55" s="104"/>
       <c r="E55" s="54"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="86"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="85"/>
       <c r="H55" s="36"/>
       <c r="I55" s="36"/>
       <c r="J55" s="61"/>
     </row>
     <row r="56" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="112"/>
-      <c r="C56" s="106"/>
+      <c r="B56" s="129"/>
+      <c r="C56" s="103"/>
       <c r="D56" s="42"/>
       <c r="E56" s="54"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="86"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="85"/>
       <c r="H56" s="36"/>
       <c r="I56" s="36"/>
       <c r="J56" s="61"/>
     </row>
     <row r="57" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="112"/>
-      <c r="C57" s="106"/>
+      <c r="B57" s="129"/>
+      <c r="C57" s="103"/>
       <c r="D57" s="42"/>
       <c r="E57" s="54"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="86"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="85"/>
       <c r="H57" s="36"/>
       <c r="I57" s="36"/>
       <c r="J57" s="61"/>
     </row>
     <row r="58" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="112"/>
-      <c r="C58" s="106"/>
+      <c r="B58" s="129"/>
+      <c r="C58" s="103"/>
       <c r="D58" s="42"/>
       <c r="E58" s="54"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="86"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="85"/>
       <c r="H58" s="36"/>
       <c r="I58" s="36"/>
       <c r="J58" s="61"/>
     </row>
     <row r="59" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="112"/>
-      <c r="C59" s="106"/>
+      <c r="B59" s="129"/>
+      <c r="C59" s="103"/>
       <c r="D59" s="42"/>
       <c r="E59" s="54"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="86"/>
+      <c r="F59" s="84"/>
+      <c r="G59" s="85"/>
       <c r="H59" s="36"/>
       <c r="I59" s="36"/>
       <c r="J59" s="61"/>
     </row>
     <row r="60" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="112"/>
-      <c r="C60" s="106"/>
+      <c r="B60" s="129"/>
+      <c r="C60" s="103"/>
       <c r="D60" s="42"/>
       <c r="E60" s="54"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="86"/>
+      <c r="F60" s="84"/>
+      <c r="G60" s="85"/>
       <c r="H60" s="36"/>
       <c r="I60" s="36"/>
       <c r="J60" s="61"/>
     </row>
     <row r="61" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B61" s="112"/>
-      <c r="C61" s="106"/>
+      <c r="B61" s="129"/>
+      <c r="C61" s="103"/>
       <c r="D61" s="42"/>
       <c r="E61" s="54"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="86"/>
+      <c r="F61" s="84"/>
+      <c r="G61" s="85"/>
       <c r="H61" s="36"/>
       <c r="I61" s="36"/>
       <c r="J61" s="61"/>
     </row>
     <row r="62" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="112"/>
-      <c r="C62" s="106"/>
+      <c r="B62" s="129"/>
+      <c r="C62" s="103"/>
       <c r="D62" s="42"/>
       <c r="E62" s="54"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="86"/>
+      <c r="F62" s="84"/>
+      <c r="G62" s="85"/>
       <c r="H62" s="36"/>
       <c r="I62" s="36"/>
       <c r="J62" s="61"/>
     </row>
     <row r="63" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="112"/>
-      <c r="C63" s="106"/>
+      <c r="B63" s="129"/>
+      <c r="C63" s="103"/>
       <c r="D63" s="42"/>
       <c r="E63" s="54"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="86"/>
+      <c r="F63" s="84"/>
+      <c r="G63" s="85"/>
       <c r="H63" s="36"/>
       <c r="I63" s="36"/>
       <c r="J63" s="61"/>
     </row>
     <row r="64" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B64" s="113"/>
-      <c r="C64" s="106"/>
+      <c r="B64" s="130"/>
+      <c r="C64" s="103"/>
       <c r="D64" s="42"/>
       <c r="E64" s="54"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="86"/>
+      <c r="F64" s="84"/>
+      <c r="G64" s="85"/>
       <c r="H64" s="36"/>
       <c r="I64" s="36"/>
       <c r="J64" s="61"/>
     </row>
     <row r="65" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="111"/>
-      <c r="C65" s="92"/>
-      <c r="D65" s="107"/>
+      <c r="B65" s="128"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="104"/>
       <c r="E65" s="54"/>
-      <c r="F65" s="87"/>
-      <c r="G65" s="84"/>
-      <c r="H65" s="84"/>
+      <c r="F65" s="86"/>
+      <c r="G65" s="83"/>
+      <c r="H65" s="83"/>
       <c r="I65" s="22"/>
       <c r="J65" s="23"/>
     </row>
     <row r="66" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B66" s="112"/>
-      <c r="C66" s="92"/>
+      <c r="B66" s="129"/>
+      <c r="C66" s="89"/>
       <c r="D66" s="42"/>
       <c r="E66" s="54"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="84"/>
-      <c r="H66" s="84"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="83"/>
+      <c r="H66" s="83"/>
       <c r="I66" s="22"/>
       <c r="J66" s="23"/>
     </row>
     <row r="67" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B67" s="112"/>
-      <c r="C67" s="92"/>
+      <c r="B67" s="129"/>
+      <c r="C67" s="89"/>
       <c r="D67" s="42"/>
       <c r="E67" s="54"/>
-      <c r="F67" s="87"/>
-      <c r="G67" s="84"/>
-      <c r="H67" s="84"/>
+      <c r="F67" s="86"/>
+      <c r="G67" s="83"/>
+      <c r="H67" s="83"/>
       <c r="I67" s="22"/>
       <c r="J67" s="23"/>
     </row>
     <row r="68" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="112"/>
-      <c r="C68" s="92"/>
+      <c r="B68" s="129"/>
+      <c r="C68" s="89"/>
       <c r="D68" s="42"/>
       <c r="E68" s="54"/>
-      <c r="F68" s="87"/>
-      <c r="G68" s="84"/>
-      <c r="H68" s="84"/>
+      <c r="F68" s="86"/>
+      <c r="G68" s="83"/>
+      <c r="H68" s="83"/>
       <c r="I68" s="22"/>
       <c r="J68" s="23"/>
     </row>
     <row r="69" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B69" s="112"/>
-      <c r="C69" s="92"/>
+      <c r="B69" s="129"/>
+      <c r="C69" s="89"/>
       <c r="D69" s="42"/>
       <c r="E69" s="54"/>
-      <c r="F69" s="87"/>
-      <c r="G69" s="84"/>
-      <c r="H69" s="84"/>
+      <c r="F69" s="86"/>
+      <c r="G69" s="83"/>
+      <c r="H69" s="83"/>
       <c r="I69" s="22"/>
       <c r="J69" s="23"/>
     </row>
     <row r="70" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B70" s="112"/>
-      <c r="C70" s="92"/>
+      <c r="B70" s="129"/>
+      <c r="C70" s="89"/>
       <c r="D70" s="42"/>
       <c r="E70" s="54"/>
-      <c r="F70" s="87"/>
-      <c r="G70" s="84"/>
-      <c r="H70" s="84"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="83"/>
+      <c r="H70" s="83"/>
       <c r="I70" s="22"/>
       <c r="J70" s="23"/>
     </row>
     <row r="71" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="112"/>
-      <c r="C71" s="92"/>
+      <c r="B71" s="129"/>
+      <c r="C71" s="89"/>
       <c r="D71" s="42"/>
       <c r="E71" s="54"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="84"/>
-      <c r="H71" s="84"/>
+      <c r="F71" s="86"/>
+      <c r="G71" s="83"/>
+      <c r="H71" s="83"/>
       <c r="I71" s="22"/>
       <c r="J71" s="23"/>
     </row>
     <row r="72" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="112"/>
-      <c r="C72" s="92"/>
+      <c r="B72" s="129"/>
+      <c r="C72" s="89"/>
       <c r="D72" s="42"/>
       <c r="E72" s="54"/>
-      <c r="F72" s="87"/>
-      <c r="G72" s="84"/>
-      <c r="H72" s="84"/>
+      <c r="F72" s="86"/>
+      <c r="G72" s="83"/>
+      <c r="H72" s="83"/>
       <c r="I72" s="22"/>
       <c r="J72" s="23"/>
     </row>
     <row r="73" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="113"/>
-      <c r="C73" s="92"/>
+      <c r="B73" s="130"/>
+      <c r="C73" s="89"/>
       <c r="D73" s="42"/>
       <c r="E73" s="54"/>
-      <c r="F73" s="87"/>
-      <c r="G73" s="84"/>
-      <c r="H73" s="84"/>
+      <c r="F73" s="86"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
       <c r="I73" s="22"/>
       <c r="J73" s="23"/>
     </row>
     <row r="74" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B74" s="111"/>
-      <c r="C74" s="92"/>
-      <c r="D74" s="107"/>
+      <c r="B74" s="128"/>
+      <c r="C74" s="89"/>
+      <c r="D74" s="104"/>
       <c r="E74" s="54"/>
-      <c r="F74" s="87"/>
+      <c r="F74" s="86"/>
       <c r="G74" s="63"/>
       <c r="H74" s="55"/>
       <c r="I74" s="1"/>
       <c r="J74" s="60"/>
     </row>
     <row r="75" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B75" s="112"/>
-      <c r="C75" s="92"/>
+      <c r="B75" s="129"/>
+      <c r="C75" s="89"/>
       <c r="D75" s="42"/>
       <c r="E75" s="54"/>
-      <c r="F75" s="87"/>
+      <c r="F75" s="86"/>
       <c r="G75" s="63"/>
       <c r="H75" s="55"/>
       <c r="I75" s="1"/>
       <c r="J75" s="48"/>
     </row>
     <row r="76" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B76" s="112"/>
-      <c r="C76" s="92"/>
+      <c r="B76" s="129"/>
+      <c r="C76" s="89"/>
       <c r="D76" s="42"/>
       <c r="E76" s="54"/>
-      <c r="F76" s="87"/>
+      <c r="F76" s="86"/>
       <c r="G76" s="63"/>
       <c r="H76" s="55"/>
       <c r="I76" s="1"/>
       <c r="J76" s="48"/>
     </row>
     <row r="77" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B77" s="112"/>
-      <c r="C77" s="92"/>
+      <c r="B77" s="129"/>
+      <c r="C77" s="89"/>
       <c r="D77" s="42"/>
       <c r="E77" s="54"/>
-      <c r="F77" s="87"/>
+      <c r="F77" s="86"/>
       <c r="G77" s="52"/>
       <c r="H77" s="55"/>
       <c r="I77" s="1"/>
       <c r="J77" s="60"/>
     </row>
     <row r="78" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B78" s="112"/>
-      <c r="C78" s="92"/>
+      <c r="B78" s="129"/>
+      <c r="C78" s="89"/>
       <c r="D78" s="42"/>
       <c r="E78" s="54"/>
-      <c r="F78" s="87"/>
+      <c r="F78" s="86"/>
       <c r="G78" s="52"/>
       <c r="H78" s="55"/>
       <c r="I78" s="1"/>
       <c r="J78" s="48"/>
     </row>
     <row r="79" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B79" s="112"/>
-      <c r="C79" s="92"/>
+      <c r="B79" s="129"/>
+      <c r="C79" s="89"/>
       <c r="D79" s="42"/>
       <c r="E79" s="54"/>
-      <c r="F79" s="87"/>
+      <c r="F79" s="86"/>
       <c r="G79" s="52"/>
       <c r="H79" s="55"/>
       <c r="I79" s="1"/>
       <c r="J79" s="48"/>
     </row>
     <row r="80" spans="2:10" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="112"/>
-      <c r="C80" s="92"/>
+      <c r="B80" s="129"/>
+      <c r="C80" s="89"/>
       <c r="D80" s="42"/>
       <c r="E80" s="54"/>
-      <c r="F80" s="87"/>
+      <c r="F80" s="86"/>
       <c r="G80" s="52"/>
       <c r="H80" s="55"/>
       <c r="I80" s="1"/>
       <c r="J80" s="48"/>
     </row>
     <row r="81" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B81" s="112"/>
-      <c r="C81" s="92"/>
+      <c r="B81" s="129"/>
+      <c r="C81" s="89"/>
       <c r="D81" s="42"/>
       <c r="E81" s="54"/>
-      <c r="F81" s="87"/>
+      <c r="F81" s="86"/>
       <c r="G81" s="52"/>
       <c r="H81" s="55"/>
       <c r="I81" s="1"/>
       <c r="J81" s="60"/>
     </row>
     <row r="82" spans="2:10" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="112"/>
-      <c r="C82" s="92"/>
+      <c r="B82" s="129"/>
+      <c r="C82" s="89"/>
       <c r="D82" s="42"/>
       <c r="E82" s="54"/>
-      <c r="F82" s="87"/>
+      <c r="F82" s="86"/>
       <c r="G82" s="52"/>
       <c r="H82" s="55"/>
       <c r="I82" s="1"/>
       <c r="J82" s="48"/>
     </row>
     <row r="83" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B83" s="112"/>
-      <c r="C83" s="92"/>
+      <c r="B83" s="129"/>
+      <c r="C83" s="89"/>
       <c r="D83" s="42"/>
       <c r="E83" s="54"/>
-      <c r="F83" s="87"/>
+      <c r="F83" s="86"/>
       <c r="G83" s="52"/>
       <c r="H83" s="55"/>
       <c r="I83" s="1"/>
       <c r="J83" s="48"/>
     </row>
     <row r="84" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B84" s="112"/>
-      <c r="C84" s="92"/>
+      <c r="B84" s="129"/>
+      <c r="C84" s="89"/>
       <c r="D84" s="42"/>
       <c r="E84" s="54"/>
-      <c r="F84" s="87"/>
+      <c r="F84" s="86"/>
       <c r="G84" s="52"/>
       <c r="H84" s="55"/>
       <c r="I84" s="1"/>
       <c r="J84" s="48"/>
     </row>
     <row r="85" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B85" s="113"/>
-      <c r="C85" s="92"/>
+      <c r="B85" s="130"/>
+      <c r="C85" s="89"/>
       <c r="D85" s="42"/>
       <c r="E85" s="54"/>
-      <c r="F85" s="87"/>
+      <c r="F85" s="86"/>
       <c r="G85" s="52"/>
       <c r="H85" s="55"/>
       <c r="I85" s="1"/>
       <c r="J85" s="48"/>
     </row>
     <row r="86" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B86" s="111"/>
-      <c r="C86" s="92"/>
-      <c r="D86" s="107"/>
+      <c r="B86" s="128"/>
+      <c r="C86" s="89"/>
+      <c r="D86" s="104"/>
       <c r="E86" s="54"/>
-      <c r="F86" s="87"/>
+      <c r="F86" s="86"/>
       <c r="G86" s="22"/>
-      <c r="H86" s="84"/>
+      <c r="H86" s="83"/>
       <c r="I86" s="22"/>
       <c r="J86" s="23"/>
     </row>
     <row r="87" spans="2:10" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="112"/>
-      <c r="C87" s="92"/>
+      <c r="B87" s="129"/>
+      <c r="C87" s="89"/>
       <c r="D87" s="42"/>
       <c r="E87" s="54"/>
-      <c r="F87" s="87"/>
+      <c r="F87" s="86"/>
       <c r="G87" s="22"/>
-      <c r="H87" s="84"/>
+      <c r="H87" s="83"/>
       <c r="I87" s="22"/>
       <c r="J87" s="23"/>
     </row>
     <row r="88" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B88" s="112"/>
-      <c r="C88" s="92"/>
+      <c r="B88" s="129"/>
+      <c r="C88" s="89"/>
       <c r="D88" s="42"/>
       <c r="E88" s="54"/>
-      <c r="F88" s="87"/>
+      <c r="F88" s="86"/>
       <c r="G88" s="22"/>
-      <c r="H88" s="84"/>
+      <c r="H88" s="83"/>
       <c r="I88" s="22"/>
       <c r="J88" s="23"/>
     </row>
     <row r="89" spans="2:10" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="112"/>
-      <c r="C89" s="92"/>
+      <c r="B89" s="129"/>
+      <c r="C89" s="89"/>
       <c r="D89" s="42"/>
       <c r="E89" s="54"/>
-      <c r="F89" s="87"/>
+      <c r="F89" s="86"/>
       <c r="G89" s="22"/>
-      <c r="H89" s="84"/>
+      <c r="H89" s="83"/>
       <c r="I89" s="22"/>
       <c r="J89" s="23"/>
     </row>
     <row r="90" spans="2:10" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="112"/>
-      <c r="C90" s="92"/>
+      <c r="B90" s="129"/>
+      <c r="C90" s="89"/>
       <c r="D90" s="42"/>
       <c r="E90" s="54"/>
-      <c r="F90" s="87"/>
+      <c r="F90" s="86"/>
       <c r="G90" s="22"/>
-      <c r="H90" s="84"/>
+      <c r="H90" s="83"/>
       <c r="I90" s="22"/>
       <c r="J90" s="23"/>
     </row>
     <row r="91" spans="2:10" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="112"/>
-      <c r="C91" s="92"/>
+      <c r="B91" s="129"/>
+      <c r="C91" s="89"/>
       <c r="D91" s="42"/>
       <c r="E91" s="54"/>
-      <c r="F91" s="87"/>
+      <c r="F91" s="86"/>
       <c r="G91" s="22"/>
-      <c r="H91" s="84"/>
+      <c r="H91" s="83"/>
       <c r="I91" s="22"/>
       <c r="J91" s="23"/>
     </row>
     <row r="92" spans="2:10" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="112"/>
-      <c r="C92" s="92"/>
+      <c r="B92" s="129"/>
+      <c r="C92" s="89"/>
       <c r="D92" s="42"/>
       <c r="E92" s="54"/>
-      <c r="F92" s="87"/>
+      <c r="F92" s="86"/>
       <c r="G92" s="22"/>
-      <c r="H92" s="84"/>
+      <c r="H92" s="83"/>
       <c r="I92" s="22"/>
       <c r="J92" s="23"/>
     </row>
     <row r="93" spans="2:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="113"/>
-      <c r="C93" s="92"/>
+      <c r="B93" s="130"/>
+      <c r="C93" s="89"/>
       <c r="D93" s="42"/>
       <c r="E93" s="54"/>
-      <c r="F93" s="87"/>
+      <c r="F93" s="86"/>
       <c r="G93" s="22"/>
-      <c r="H93" s="84"/>
+      <c r="H93" s="83"/>
       <c r="I93" s="22"/>
       <c r="J93" s="23"/>
     </row>
     <row r="94" spans="2:10" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="114"/>
-      <c r="C94" s="114"/>
-      <c r="D94" s="114"/>
-      <c r="E94" s="114"/>
-      <c r="F94" s="114"/>
-      <c r="G94" s="114"/>
-      <c r="H94" s="115"/>
-      <c r="I94" s="115"/>
-      <c r="J94" s="116"/>
+      <c r="B94" s="131"/>
+      <c r="C94" s="131"/>
+      <c r="D94" s="131"/>
+      <c r="E94" s="131"/>
+      <c r="F94" s="131"/>
+      <c r="G94" s="131"/>
+      <c r="H94" s="132"/>
+      <c r="I94" s="132"/>
+      <c r="J94" s="133"/>
     </row>
   </sheetData>
   <autoFilter ref="B8:J94" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="17">
+    <mergeCell ref="B55:B64"/>
+    <mergeCell ref="B74:B85"/>
+    <mergeCell ref="B86:B93"/>
+    <mergeCell ref="B65:B73"/>
+    <mergeCell ref="B94:J94"/>
+    <mergeCell ref="B9:B17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B44:B49"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:F6"/>
@@ -5228,16 +5644,6 @@
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
-    <mergeCell ref="B9:B17"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="B35:B43"/>
-    <mergeCell ref="B44:B54"/>
-    <mergeCell ref="B55:B64"/>
-    <mergeCell ref="B74:B85"/>
-    <mergeCell ref="B86:B93"/>
-    <mergeCell ref="B65:B73"/>
-    <mergeCell ref="B94:J94"/>
   </mergeCells>
   <conditionalFormatting sqref="F9:F93">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -5273,7 +5679,7 @@
   <dimension ref="B1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="B2" sqref="B2:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5287,10 +5693,10 @@
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="140" t="s">
+      <c r="B2" s="134" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="140"/>
+      <c r="C2" s="134"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -5364,11 +5770,11 @@
     </row>
     <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="141" t="s">
+      <c r="B17" s="135" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="142"/>
-      <c r="D17" s="143"/>
+      <c r="C17" s="136"/>
+      <c r="D17" s="137"/>
     </row>
     <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="24" t="s">
@@ -5529,7 +5935,7 @@
   </sheetPr>
   <dimension ref="A1:S192"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
@@ -5555,18 +5961,18 @@
     <row r="1" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="187"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126"/>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="126"/>
-      <c r="H2" s="126"/>
-      <c r="I2" s="126"/>
-      <c r="J2" s="126"/>
-      <c r="K2" s="126"/>
-      <c r="L2" s="126"/>
-      <c r="M2" s="127"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="108"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -5575,18 +5981,18 @@
     </row>
     <row r="3" spans="1:19" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
-      <c r="B3" s="189"/>
-      <c r="C3" s="128"/>
-      <c r="D3" s="136" t="s">
+      <c r="B3" s="216"/>
+      <c r="C3" s="109"/>
+      <c r="D3" s="117" t="s">
         <v>415</v>
       </c>
-      <c r="E3" s="137"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="137"/>
-      <c r="J3" s="137"/>
-      <c r="K3" s="251"/>
+      <c r="E3" s="118"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
+      <c r="J3" s="118"/>
+      <c r="K3" s="166"/>
       <c r="L3" s="49"/>
       <c r="M3" s="64" t="s">
         <v>15</v>
@@ -5599,16 +6005,16 @@
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4"/>
-      <c r="B4" s="190"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="252"/>
-      <c r="E4" s="253"/>
-      <c r="F4" s="253"/>
-      <c r="G4" s="253"/>
-      <c r="H4" s="253"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="253"/>
-      <c r="K4" s="254"/>
+      <c r="B4" s="217"/>
+      <c r="C4" s="110"/>
+      <c r="D4" s="167"/>
+      <c r="E4" s="168"/>
+      <c r="F4" s="168"/>
+      <c r="G4" s="168"/>
+      <c r="H4" s="168"/>
+      <c r="I4" s="168"/>
+      <c r="J4" s="168"/>
+      <c r="K4" s="169"/>
       <c r="L4" s="50"/>
       <c r="M4" s="65" t="s">
         <v>13</v>
@@ -5621,16 +6027,16 @@
     </row>
     <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5"/>
-      <c r="B5" s="191"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="138"/>
-      <c r="E5" s="139"/>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="255"/>
+      <c r="B5" s="218"/>
+      <c r="C5" s="111"/>
+      <c r="D5" s="119"/>
+      <c r="E5" s="120"/>
+      <c r="F5" s="120"/>
+      <c r="G5" s="120"/>
+      <c r="H5" s="120"/>
+      <c r="I5" s="120"/>
+      <c r="J5" s="120"/>
+      <c r="K5" s="170"/>
       <c r="L5" s="51"/>
       <c r="M5" s="65" t="s">
         <v>14</v>
@@ -5642,36 +6048,36 @@
       <c r="S5"/>
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="192"/>
-      <c r="C6" s="131"/>
-      <c r="D6" s="131"/>
-      <c r="E6" s="131"/>
-      <c r="F6" s="131"/>
-      <c r="G6" s="131"/>
-      <c r="H6" s="131"/>
-      <c r="I6" s="193"/>
+      <c r="B6" s="219"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="112"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="220"/>
       <c r="J6" s="9"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="188" t="s">
+      <c r="B7" s="215" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="132"/>
-      <c r="D7" s="132"/>
-      <c r="E7" s="132"/>
-      <c r="F7" s="132"/>
-      <c r="G7" s="132"/>
-      <c r="H7" s="132"/>
-      <c r="I7" s="143"/>
-      <c r="J7" s="133" t="s">
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="134"/>
-      <c r="L7" s="134"/>
-      <c r="M7" s="135"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="116"/>
     </row>
     <row r="8" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="70" t="s">
@@ -5712,16 +6118,16 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="184">
+      <c r="B9" s="211">
         <v>1</v>
       </c>
-      <c r="C9" s="194" t="s">
+      <c r="C9" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="247" t="s">
+      <c r="D9" s="162" t="s">
         <v>527</v>
       </c>
-      <c r="E9" s="248" t="s">
+      <c r="E9" s="163" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="76" t="s">
@@ -5730,10 +6136,10 @@
       <c r="G9" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="249" t="s">
+      <c r="H9" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="250" t="s">
+      <c r="I9" s="165" t="s">
         <v>341</v>
       </c>
       <c r="J9" s="63"/>
@@ -5742,48 +6148,48 @@
       <c r="M9" s="60"/>
     </row>
     <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="185"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="212"/>
-      <c r="E10" s="151"/>
+      <c r="B10" s="212"/>
+      <c r="C10" s="222"/>
+      <c r="D10" s="146"/>
+      <c r="E10" s="149"/>
       <c r="F10" s="77" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="54" t="s">
         <v>443</v>
       </c>
-      <c r="H10" s="154"/>
-      <c r="I10" s="172"/>
+      <c r="H10" s="151"/>
+      <c r="I10" s="150"/>
       <c r="J10" s="63"/>
       <c r="K10" s="55"/>
       <c r="L10" s="47"/>
       <c r="M10" s="60"/>
     </row>
     <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="185"/>
-      <c r="C11" s="195"/>
-      <c r="D11" s="212"/>
-      <c r="E11" s="152"/>
+      <c r="B11" s="212"/>
+      <c r="C11" s="222"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="143"/>
       <c r="F11" s="77" t="s">
         <v>53</v>
       </c>
       <c r="G11" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="H11" s="155"/>
-      <c r="I11" s="173"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="139"/>
       <c r="J11" s="63"/>
       <c r="K11" s="55"/>
       <c r="L11" s="47"/>
       <c r="M11" s="60"/>
     </row>
     <row r="12" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="185"/>
-      <c r="C12" s="195"/>
-      <c r="D12" s="237">
+      <c r="B12" s="212"/>
+      <c r="C12" s="222"/>
+      <c r="D12" s="161">
         <v>2</v>
       </c>
-      <c r="E12" s="150" t="s">
+      <c r="E12" s="142" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="77" t="s">
@@ -5792,10 +6198,10 @@
       <c r="G12" s="54" t="s">
         <v>450</v>
       </c>
-      <c r="H12" s="153" t="s">
+      <c r="H12" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="171" t="s">
+      <c r="I12" s="138" t="s">
         <v>36</v>
       </c>
       <c r="J12" s="52"/>
@@ -5804,44 +6210,44 @@
       <c r="M12" s="48"/>
     </row>
     <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="185"/>
-      <c r="C13" s="195"/>
-      <c r="D13" s="237"/>
-      <c r="E13" s="151"/>
+      <c r="B13" s="212"/>
+      <c r="C13" s="222"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="149"/>
       <c r="F13" s="77" t="s">
         <v>48</v>
       </c>
       <c r="G13" s="54" t="s">
         <v>379</v>
       </c>
-      <c r="H13" s="154"/>
-      <c r="I13" s="172"/>
+      <c r="H13" s="151"/>
+      <c r="I13" s="150"/>
       <c r="J13" s="52"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="48"/>
     </row>
     <row r="14" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="185"/>
-      <c r="C14" s="195"/>
-      <c r="D14" s="237"/>
-      <c r="E14" s="152"/>
+      <c r="B14" s="212"/>
+      <c r="C14" s="222"/>
+      <c r="D14" s="161"/>
+      <c r="E14" s="143"/>
       <c r="F14" s="77" t="s">
         <v>49</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="155"/>
-      <c r="I14" s="173"/>
+      <c r="H14" s="141"/>
+      <c r="I14" s="139"/>
       <c r="J14" s="52"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="48"/>
     </row>
     <row r="15" spans="1:19" ht="102" x14ac:dyDescent="0.2">
-      <c r="B15" s="185"/>
-      <c r="C15" s="195"/>
+      <c r="B15" s="212"/>
+      <c r="C15" s="222"/>
       <c r="D15" s="73">
         <v>3</v>
       </c>
@@ -5866,8 +6272,8 @@
       <c r="M15" s="23"/>
     </row>
     <row r="16" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="185"/>
-      <c r="C16" s="195"/>
+      <c r="B16" s="212"/>
+      <c r="C16" s="222"/>
       <c r="D16" s="73">
         <v>4</v>
       </c>
@@ -5892,12 +6298,12 @@
       <c r="M16" s="23"/>
     </row>
     <row r="17" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="185"/>
-      <c r="C17" s="195"/>
-      <c r="D17" s="211">
+      <c r="B17" s="212"/>
+      <c r="C17" s="222"/>
+      <c r="D17" s="144">
         <v>5</v>
       </c>
-      <c r="E17" s="150" t="s">
+      <c r="E17" s="142" t="s">
         <v>99</v>
       </c>
       <c r="F17" s="77" t="s">
@@ -5906,10 +6312,10 @@
       <c r="G17" s="54" t="s">
         <v>343</v>
       </c>
-      <c r="H17" s="153" t="s">
+      <c r="H17" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="171" t="s">
+      <c r="I17" s="138" t="s">
         <v>42</v>
       </c>
       <c r="J17" s="22"/>
@@ -5918,10 +6324,10 @@
       <c r="M17" s="23"/>
     </row>
     <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B18" s="185"/>
-      <c r="C18" s="195"/>
-      <c r="D18" s="213"/>
-      <c r="E18" s="152" t="s">
+      <c r="B18" s="212"/>
+      <c r="C18" s="222"/>
+      <c r="D18" s="145"/>
+      <c r="E18" s="143" t="s">
         <v>252</v>
       </c>
       <c r="F18" s="77" t="s">
@@ -5930,20 +6336,20 @@
       <c r="G18" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="H18" s="155"/>
-      <c r="I18" s="173"/>
+      <c r="H18" s="141"/>
+      <c r="I18" s="139"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="23"/>
     </row>
     <row r="19" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B19" s="185"/>
-      <c r="C19" s="195"/>
-      <c r="D19" s="211">
+      <c r="B19" s="212"/>
+      <c r="C19" s="222"/>
+      <c r="D19" s="144">
         <v>6</v>
       </c>
-      <c r="E19" s="150" t="s">
+      <c r="E19" s="142" t="s">
         <v>73</v>
       </c>
       <c r="F19" s="77" t="s">
@@ -5952,10 +6358,10 @@
       <c r="G19" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="H19" s="153" t="s">
+      <c r="H19" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="171" t="s">
+      <c r="I19" s="138" t="s">
         <v>366</v>
       </c>
       <c r="J19" s="22"/>
@@ -5964,48 +6370,48 @@
       <c r="M19" s="23"/>
     </row>
     <row r="20" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="185"/>
-      <c r="C20" s="195"/>
-      <c r="D20" s="212"/>
-      <c r="E20" s="151"/>
+      <c r="B20" s="212"/>
+      <c r="C20" s="222"/>
+      <c r="D20" s="146"/>
+      <c r="E20" s="149"/>
       <c r="F20" s="77" t="s">
         <v>64</v>
       </c>
       <c r="G20" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="H20" s="154"/>
-      <c r="I20" s="172"/>
+      <c r="H20" s="151"/>
+      <c r="I20" s="150"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="23"/>
     </row>
     <row r="21" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B21" s="185"/>
-      <c r="C21" s="195"/>
-      <c r="D21" s="213"/>
-      <c r="E21" s="152"/>
+      <c r="B21" s="212"/>
+      <c r="C21" s="222"/>
+      <c r="D21" s="145"/>
+      <c r="E21" s="143"/>
       <c r="F21" s="77" t="s">
         <v>65</v>
       </c>
       <c r="G21" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="H21" s="155"/>
-      <c r="I21" s="173"/>
+      <c r="H21" s="141"/>
+      <c r="I21" s="139"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="23"/>
     </row>
     <row r="22" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="185"/>
-      <c r="C22" s="195"/>
-      <c r="D22" s="211">
+      <c r="B22" s="212"/>
+      <c r="C22" s="222"/>
+      <c r="D22" s="144">
         <v>7</v>
       </c>
-      <c r="E22" s="150" t="s">
+      <c r="E22" s="142" t="s">
         <v>83</v>
       </c>
       <c r="F22" s="77" t="s">
@@ -6014,10 +6420,10 @@
       <c r="G22" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="H22" s="153" t="s">
+      <c r="H22" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="256" t="s">
+      <c r="I22" s="152" t="s">
         <v>428</v>
       </c>
       <c r="J22" s="22"/>
@@ -6026,66 +6432,66 @@
       <c r="M22" s="23"/>
     </row>
     <row r="23" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="185"/>
-      <c r="C23" s="195"/>
-      <c r="D23" s="212"/>
-      <c r="E23" s="151"/>
+      <c r="B23" s="212"/>
+      <c r="C23" s="222"/>
+      <c r="D23" s="146"/>
+      <c r="E23" s="149"/>
       <c r="F23" s="77" t="s">
         <v>85</v>
       </c>
       <c r="G23" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="H23" s="154"/>
-      <c r="I23" s="257"/>
+      <c r="H23" s="151"/>
+      <c r="I23" s="153"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
       <c r="M23" s="23"/>
     </row>
     <row r="24" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="185"/>
-      <c r="C24" s="195"/>
-      <c r="D24" s="212"/>
-      <c r="E24" s="151"/>
+      <c r="B24" s="212"/>
+      <c r="C24" s="222"/>
+      <c r="D24" s="146"/>
+      <c r="E24" s="149"/>
       <c r="F24" s="77" t="s">
         <v>86</v>
       </c>
       <c r="G24" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="H24" s="154"/>
-      <c r="I24" s="257"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="153"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
       <c r="M24" s="23"/>
     </row>
     <row r="25" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B25" s="185"/>
-      <c r="C25" s="195"/>
-      <c r="D25" s="213"/>
-      <c r="E25" s="152"/>
+      <c r="B25" s="212"/>
+      <c r="C25" s="222"/>
+      <c r="D25" s="145"/>
+      <c r="E25" s="143"/>
       <c r="F25" s="77" t="s">
         <v>87</v>
       </c>
       <c r="G25" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="155"/>
-      <c r="I25" s="258"/>
+      <c r="H25" s="141"/>
+      <c r="I25" s="154"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
       <c r="M25" s="23"/>
     </row>
     <row r="26" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="185"/>
-      <c r="C26" s="195"/>
-      <c r="D26" s="239">
+      <c r="B26" s="212"/>
+      <c r="C26" s="222"/>
+      <c r="D26" s="147">
         <v>8</v>
       </c>
-      <c r="E26" s="236" t="s">
+      <c r="E26" s="148" t="s">
         <v>172</v>
       </c>
       <c r="F26" s="77" t="s">
@@ -6094,10 +6500,10 @@
       <c r="G26" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="H26" s="241" t="s">
+      <c r="H26" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="204" t="s">
+      <c r="I26" s="160" t="s">
         <v>430</v>
       </c>
       <c r="J26" s="53"/>
@@ -6106,50 +6512,50 @@
       <c r="M26" s="61"/>
     </row>
     <row r="27" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="185"/>
-      <c r="C27" s="195"/>
-      <c r="D27" s="239"/>
-      <c r="E27" s="236"/>
+      <c r="B27" s="212"/>
+      <c r="C27" s="222"/>
+      <c r="D27" s="147"/>
+      <c r="E27" s="148"/>
       <c r="F27" s="77" t="s">
         <v>473</v>
       </c>
       <c r="G27" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="H27" s="241"/>
-      <c r="I27" s="204"/>
+      <c r="H27" s="155"/>
+      <c r="I27" s="160"/>
       <c r="J27" s="53"/>
       <c r="K27" s="36"/>
       <c r="L27" s="36"/>
       <c r="M27" s="61"/>
     </row>
     <row r="28" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B28" s="185"/>
-      <c r="C28" s="195"/>
-      <c r="D28" s="239"/>
-      <c r="E28" s="236"/>
+      <c r="B28" s="212"/>
+      <c r="C28" s="222"/>
+      <c r="D28" s="147"/>
+      <c r="E28" s="148"/>
       <c r="F28" s="77" t="s">
         <v>474</v>
       </c>
       <c r="G28" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="H28" s="241"/>
-      <c r="I28" s="204"/>
+      <c r="H28" s="155"/>
+      <c r="I28" s="160"/>
       <c r="J28" s="53"/>
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
       <c r="M28" s="61"/>
     </row>
     <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B29" s="185"/>
-      <c r="C29" s="196" t="s">
+      <c r="B29" s="212"/>
+      <c r="C29" s="223" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="211">
+      <c r="D29" s="144">
         <v>9</v>
       </c>
-      <c r="E29" s="150" t="s">
+      <c r="E29" s="142" t="s">
         <v>464</v>
       </c>
       <c r="F29" s="77" t="s">
@@ -6158,76 +6564,76 @@
       <c r="G29" s="54" t="s">
         <v>465</v>
       </c>
-      <c r="H29" s="214" t="s">
+      <c r="H29" s="159" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="204"/>
+      <c r="I29" s="160"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
       <c r="M29" s="23"/>
     </row>
     <row r="30" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B30" s="185"/>
-      <c r="C30" s="196"/>
-      <c r="D30" s="212"/>
-      <c r="E30" s="151"/>
+      <c r="B30" s="212"/>
+      <c r="C30" s="223"/>
+      <c r="D30" s="146"/>
+      <c r="E30" s="149"/>
       <c r="F30" s="77" t="s">
         <v>70</v>
       </c>
       <c r="G30" s="54" t="s">
         <v>466</v>
       </c>
-      <c r="H30" s="214"/>
-      <c r="I30" s="204"/>
+      <c r="H30" s="159"/>
+      <c r="I30" s="160"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
       <c r="M30" s="23"/>
     </row>
     <row r="31" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B31" s="185"/>
-      <c r="C31" s="196"/>
-      <c r="D31" s="212"/>
-      <c r="E31" s="151"/>
+      <c r="B31" s="212"/>
+      <c r="C31" s="223"/>
+      <c r="D31" s="146"/>
+      <c r="E31" s="149"/>
       <c r="F31" s="77" t="s">
         <v>475</v>
       </c>
       <c r="G31" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="H31" s="214"/>
-      <c r="I31" s="204"/>
+      <c r="H31" s="159"/>
+      <c r="I31" s="160"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
       <c r="M31" s="23"/>
     </row>
     <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B32" s="185"/>
-      <c r="C32" s="196"/>
-      <c r="D32" s="213"/>
-      <c r="E32" s="152"/>
+      <c r="B32" s="212"/>
+      <c r="C32" s="223"/>
+      <c r="D32" s="145"/>
+      <c r="E32" s="143"/>
       <c r="F32" s="77" t="s">
         <v>476</v>
       </c>
       <c r="G32" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="H32" s="214"/>
-      <c r="I32" s="204"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="160"/>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
       <c r="M32" s="23"/>
     </row>
     <row r="33" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="185"/>
-      <c r="C33" s="196"/>
-      <c r="D33" s="211">
+      <c r="B33" s="212"/>
+      <c r="C33" s="223"/>
+      <c r="D33" s="144">
         <v>10</v>
       </c>
-      <c r="E33" s="174" t="s">
+      <c r="E33" s="156" t="s">
         <v>402</v>
       </c>
       <c r="F33" s="77" t="s">
@@ -6236,60 +6642,60 @@
       <c r="G33" s="54" t="s">
         <v>400</v>
       </c>
-      <c r="H33" s="153" t="s">
+      <c r="H33" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="I33" s="171"/>
+      <c r="I33" s="138"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
       <c r="M33" s="23"/>
     </row>
     <row r="34" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B34" s="185"/>
-      <c r="C34" s="196"/>
-      <c r="D34" s="212"/>
-      <c r="E34" s="175"/>
+      <c r="B34" s="212"/>
+      <c r="C34" s="223"/>
+      <c r="D34" s="146"/>
+      <c r="E34" s="157"/>
       <c r="F34" s="77" t="s">
         <v>367</v>
       </c>
       <c r="G34" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="H34" s="154"/>
-      <c r="I34" s="172"/>
+      <c r="H34" s="151"/>
+      <c r="I34" s="150"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
       <c r="M34" s="23"/>
     </row>
     <row r="35" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B35" s="185"/>
-      <c r="C35" s="196"/>
-      <c r="D35" s="213"/>
-      <c r="E35" s="176"/>
+      <c r="B35" s="212"/>
+      <c r="C35" s="223"/>
+      <c r="D35" s="145"/>
+      <c r="E35" s="158"/>
       <c r="F35" s="77" t="s">
         <v>368</v>
       </c>
       <c r="G35" s="54" t="s">
         <v>398</v>
       </c>
-      <c r="H35" s="155"/>
-      <c r="I35" s="173"/>
+      <c r="H35" s="141"/>
+      <c r="I35" s="139"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
       <c r="M35" s="23"/>
     </row>
     <row r="36" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B36" s="185"/>
-      <c r="C36" s="197" t="s">
+      <c r="B36" s="212"/>
+      <c r="C36" s="224" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="211">
+      <c r="D36" s="144">
         <v>11</v>
       </c>
-      <c r="E36" s="150" t="s">
+      <c r="E36" s="142" t="s">
         <v>253</v>
       </c>
       <c r="F36" s="77" t="s">
@@ -6298,10 +6704,10 @@
       <c r="G36" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="H36" s="153" t="s">
+      <c r="H36" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="171" t="s">
+      <c r="I36" s="138" t="s">
         <v>433</v>
       </c>
       <c r="J36" s="22"/>
@@ -6310,66 +6716,66 @@
       <c r="M36" s="23"/>
     </row>
     <row r="37" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B37" s="185"/>
-      <c r="C37" s="197"/>
-      <c r="D37" s="212"/>
-      <c r="E37" s="151"/>
+      <c r="B37" s="212"/>
+      <c r="C37" s="224"/>
+      <c r="D37" s="146"/>
+      <c r="E37" s="149"/>
       <c r="F37" s="77" t="s">
         <v>403</v>
       </c>
       <c r="G37" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="H37" s="154"/>
-      <c r="I37" s="172"/>
+      <c r="H37" s="151"/>
+      <c r="I37" s="150"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
       <c r="M37" s="23"/>
     </row>
     <row r="38" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B38" s="185"/>
-      <c r="C38" s="197"/>
-      <c r="D38" s="212"/>
-      <c r="E38" s="151"/>
+      <c r="B38" s="212"/>
+      <c r="C38" s="224"/>
+      <c r="D38" s="146"/>
+      <c r="E38" s="149"/>
       <c r="F38" s="77" t="s">
         <v>404</v>
       </c>
       <c r="G38" s="54" t="s">
         <v>352</v>
       </c>
-      <c r="H38" s="154"/>
-      <c r="I38" s="172"/>
+      <c r="H38" s="151"/>
+      <c r="I38" s="150"/>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
       <c r="M38" s="23"/>
     </row>
     <row r="39" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B39" s="185"/>
-      <c r="C39" s="197"/>
-      <c r="D39" s="212"/>
-      <c r="E39" s="151"/>
+      <c r="B39" s="212"/>
+      <c r="C39" s="224"/>
+      <c r="D39" s="146"/>
+      <c r="E39" s="149"/>
       <c r="F39" s="77" t="s">
         <v>405</v>
       </c>
       <c r="G39" s="54" t="s">
         <v>353</v>
       </c>
-      <c r="H39" s="154"/>
-      <c r="I39" s="172"/>
+      <c r="H39" s="151"/>
+      <c r="I39" s="150"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="23"/>
     </row>
     <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B40" s="185"/>
-      <c r="C40" s="197"/>
-      <c r="D40" s="211">
+      <c r="B40" s="212"/>
+      <c r="C40" s="224"/>
+      <c r="D40" s="144">
         <v>12</v>
       </c>
-      <c r="E40" s="150" t="s">
+      <c r="E40" s="142" t="s">
         <v>89</v>
       </c>
       <c r="F40" s="77" t="s">
@@ -6378,10 +6784,10 @@
       <c r="G40" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="H40" s="153" t="s">
+      <c r="H40" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="I40" s="171" t="s">
+      <c r="I40" s="138" t="s">
         <v>434</v>
       </c>
       <c r="J40" s="22"/>
@@ -6390,48 +6796,48 @@
       <c r="M40" s="23"/>
     </row>
     <row r="41" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="185"/>
-      <c r="C41" s="197"/>
-      <c r="D41" s="212"/>
-      <c r="E41" s="151"/>
+      <c r="B41" s="212"/>
+      <c r="C41" s="224"/>
+      <c r="D41" s="146"/>
+      <c r="E41" s="149"/>
       <c r="F41" s="77" t="s">
         <v>477</v>
       </c>
       <c r="G41" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="H41" s="154"/>
-      <c r="I41" s="172"/>
+      <c r="H41" s="151"/>
+      <c r="I41" s="150"/>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
       <c r="M41" s="23"/>
     </row>
     <row r="42" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="185"/>
-      <c r="C42" s="197"/>
-      <c r="D42" s="213"/>
-      <c r="E42" s="152"/>
+      <c r="B42" s="212"/>
+      <c r="C42" s="224"/>
+      <c r="D42" s="145"/>
+      <c r="E42" s="143"/>
       <c r="F42" s="77" t="s">
         <v>478</v>
       </c>
       <c r="G42" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="H42" s="155"/>
-      <c r="I42" s="173"/>
+      <c r="H42" s="141"/>
+      <c r="I42" s="139"/>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
       <c r="M42" s="23"/>
     </row>
     <row r="43" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="185"/>
-      <c r="C43" s="197"/>
-      <c r="D43" s="211">
+      <c r="B43" s="212"/>
+      <c r="C43" s="224"/>
+      <c r="D43" s="144">
         <v>13</v>
       </c>
-      <c r="E43" s="150" t="s">
+      <c r="E43" s="142" t="s">
         <v>254</v>
       </c>
       <c r="F43" s="77" t="s">
@@ -6440,10 +6846,10 @@
       <c r="G43" s="54" t="s">
         <v>356</v>
       </c>
-      <c r="H43" s="153" t="s">
+      <c r="H43" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="I43" s="171" t="s">
+      <c r="I43" s="138" t="s">
         <v>357</v>
       </c>
       <c r="J43" s="22"/>
@@ -6452,32 +6858,32 @@
       <c r="M43" s="23"/>
     </row>
     <row r="44" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B44" s="185"/>
-      <c r="C44" s="197"/>
-      <c r="D44" s="213"/>
-      <c r="E44" s="152"/>
+      <c r="B44" s="212"/>
+      <c r="C44" s="224"/>
+      <c r="D44" s="145"/>
+      <c r="E44" s="143"/>
       <c r="F44" s="77" t="s">
         <v>79</v>
       </c>
       <c r="G44" s="54" t="s">
         <v>354</v>
       </c>
-      <c r="H44" s="155"/>
-      <c r="I44" s="173"/>
+      <c r="H44" s="141"/>
+      <c r="I44" s="139"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
       <c r="M44" s="23"/>
     </row>
     <row r="45" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B45" s="185"/>
-      <c r="C45" s="198" t="s">
+      <c r="B45" s="212"/>
+      <c r="C45" s="195" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="211">
+      <c r="D45" s="144">
         <v>14</v>
       </c>
-      <c r="E45" s="150" t="s">
+      <c r="E45" s="142" t="s">
         <v>100</v>
       </c>
       <c r="F45" s="77" t="s">
@@ -6486,10 +6892,10 @@
       <c r="G45" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="H45" s="214" t="s">
+      <c r="H45" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="I45" s="204" t="s">
+      <c r="I45" s="160" t="s">
         <v>359</v>
       </c>
       <c r="J45" s="22"/>
@@ -6498,102 +6904,102 @@
       <c r="M45" s="23"/>
     </row>
     <row r="46" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="185"/>
-      <c r="C46" s="198"/>
-      <c r="D46" s="212"/>
-      <c r="E46" s="151"/>
+      <c r="B46" s="212"/>
+      <c r="C46" s="195"/>
+      <c r="D46" s="146"/>
+      <c r="E46" s="149"/>
       <c r="F46" s="77" t="s">
         <v>369</v>
       </c>
       <c r="G46" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="H46" s="214"/>
-      <c r="I46" s="204"/>
+      <c r="H46" s="159"/>
+      <c r="I46" s="160"/>
       <c r="J46" s="22"/>
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
       <c r="M46" s="23"/>
     </row>
     <row r="47" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="185"/>
-      <c r="C47" s="198"/>
-      <c r="D47" s="212"/>
-      <c r="E47" s="151"/>
+      <c r="B47" s="212"/>
+      <c r="C47" s="195"/>
+      <c r="D47" s="146"/>
+      <c r="E47" s="149"/>
       <c r="F47" s="77" t="s">
         <v>370</v>
       </c>
       <c r="G47" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="H47" s="214"/>
-      <c r="I47" s="204"/>
+      <c r="H47" s="159"/>
+      <c r="I47" s="160"/>
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
       <c r="M47" s="23"/>
     </row>
     <row r="48" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B48" s="185"/>
-      <c r="C48" s="198"/>
-      <c r="D48" s="212"/>
-      <c r="E48" s="151"/>
+      <c r="B48" s="212"/>
+      <c r="C48" s="195"/>
+      <c r="D48" s="146"/>
+      <c r="E48" s="149"/>
       <c r="F48" s="77" t="s">
         <v>406</v>
       </c>
       <c r="G48" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="H48" s="214"/>
-      <c r="I48" s="204"/>
+      <c r="H48" s="159"/>
+      <c r="I48" s="160"/>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
       <c r="M48" s="23"/>
     </row>
     <row r="49" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B49" s="185"/>
-      <c r="C49" s="198"/>
-      <c r="D49" s="212"/>
-      <c r="E49" s="151"/>
+      <c r="B49" s="212"/>
+      <c r="C49" s="195"/>
+      <c r="D49" s="146"/>
+      <c r="E49" s="149"/>
       <c r="F49" s="77" t="s">
         <v>479</v>
       </c>
       <c r="G49" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="H49" s="214"/>
-      <c r="I49" s="204"/>
+      <c r="H49" s="159"/>
+      <c r="I49" s="160"/>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
       <c r="M49" s="23"/>
     </row>
     <row r="50" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B50" s="185"/>
-      <c r="C50" s="198"/>
-      <c r="D50" s="213"/>
-      <c r="E50" s="152"/>
+      <c r="B50" s="212"/>
+      <c r="C50" s="195"/>
+      <c r="D50" s="145"/>
+      <c r="E50" s="143"/>
       <c r="F50" s="77" t="s">
         <v>480</v>
       </c>
       <c r="G50" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="H50" s="214"/>
-      <c r="I50" s="171"/>
+      <c r="H50" s="159"/>
+      <c r="I50" s="138"/>
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
       <c r="M50" s="23"/>
     </row>
     <row r="51" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B51" s="185"/>
-      <c r="C51" s="198"/>
-      <c r="D51" s="179">
+      <c r="B51" s="212"/>
+      <c r="C51" s="195"/>
+      <c r="D51" s="177">
         <v>15</v>
       </c>
-      <c r="E51" s="150" t="s">
+      <c r="E51" s="142" t="s">
         <v>193</v>
       </c>
       <c r="F51" s="78" t="s">
@@ -6602,10 +7008,10 @@
       <c r="G51" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="H51" s="241" t="s">
+      <c r="H51" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="I51" s="171" t="s">
+      <c r="I51" s="138" t="s">
         <v>361</v>
       </c>
       <c r="J51" s="53"/>
@@ -6614,50 +7020,50 @@
       <c r="M51" s="61"/>
     </row>
     <row r="52" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B52" s="185"/>
-      <c r="C52" s="198"/>
-      <c r="D52" s="180"/>
-      <c r="E52" s="151"/>
+      <c r="B52" s="212"/>
+      <c r="C52" s="195"/>
+      <c r="D52" s="178"/>
+      <c r="E52" s="149"/>
       <c r="F52" s="78" t="s">
         <v>371</v>
       </c>
       <c r="G52" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="H52" s="241"/>
-      <c r="I52" s="172"/>
+      <c r="H52" s="155"/>
+      <c r="I52" s="150"/>
       <c r="J52" s="53"/>
       <c r="K52" s="36"/>
       <c r="L52" s="36"/>
       <c r="M52" s="61"/>
     </row>
     <row r="53" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B53" s="185"/>
-      <c r="C53" s="198"/>
-      <c r="D53" s="180"/>
-      <c r="E53" s="151"/>
+      <c r="B53" s="212"/>
+      <c r="C53" s="195"/>
+      <c r="D53" s="178"/>
+      <c r="E53" s="149"/>
       <c r="F53" s="78" t="s">
         <v>372</v>
       </c>
       <c r="G53" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="H53" s="241"/>
-      <c r="I53" s="173"/>
+      <c r="H53" s="155"/>
+      <c r="I53" s="139"/>
       <c r="J53" s="53"/>
       <c r="K53" s="36"/>
       <c r="L53" s="36"/>
       <c r="M53" s="61"/>
     </row>
     <row r="54" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B54" s="185"/>
-      <c r="C54" s="199" t="s">
+      <c r="B54" s="212"/>
+      <c r="C54" s="225" t="s">
         <v>205</v>
       </c>
-      <c r="D54" s="239">
+      <c r="D54" s="147">
         <v>16</v>
       </c>
-      <c r="E54" s="236" t="s">
+      <c r="E54" s="148" t="s">
         <v>159</v>
       </c>
       <c r="F54" s="77" t="s">
@@ -6666,10 +7072,10 @@
       <c r="G54" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="H54" s="214" t="s">
+      <c r="H54" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="I54" s="171" t="s">
+      <c r="I54" s="138" t="s">
         <v>435</v>
       </c>
       <c r="J54" s="22"/>
@@ -6678,102 +7084,102 @@
       <c r="M54" s="23"/>
     </row>
     <row r="55" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B55" s="185"/>
-      <c r="C55" s="199"/>
-      <c r="D55" s="239"/>
-      <c r="E55" s="236"/>
+      <c r="B55" s="212"/>
+      <c r="C55" s="225"/>
+      <c r="D55" s="147"/>
+      <c r="E55" s="148"/>
       <c r="F55" s="77" t="s">
         <v>481</v>
       </c>
       <c r="G55" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="H55" s="214"/>
-      <c r="I55" s="172"/>
+      <c r="H55" s="159"/>
+      <c r="I55" s="150"/>
       <c r="J55" s="22"/>
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
       <c r="M55" s="23"/>
     </row>
     <row r="56" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B56" s="185"/>
-      <c r="C56" s="199"/>
-      <c r="D56" s="239"/>
-      <c r="E56" s="236"/>
+      <c r="B56" s="212"/>
+      <c r="C56" s="225"/>
+      <c r="D56" s="147"/>
+      <c r="E56" s="148"/>
       <c r="F56" s="77" t="s">
         <v>482</v>
       </c>
       <c r="G56" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="H56" s="214"/>
-      <c r="I56" s="172"/>
+      <c r="H56" s="159"/>
+      <c r="I56" s="150"/>
       <c r="J56" s="53"/>
       <c r="K56" s="36"/>
       <c r="L56" s="36"/>
       <c r="M56" s="61"/>
     </row>
     <row r="57" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B57" s="185"/>
-      <c r="C57" s="199"/>
-      <c r="D57" s="239"/>
-      <c r="E57" s="236"/>
+      <c r="B57" s="212"/>
+      <c r="C57" s="225"/>
+      <c r="D57" s="147"/>
+      <c r="E57" s="148"/>
       <c r="F57" s="77" t="s">
         <v>483</v>
       </c>
       <c r="G57" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="H57" s="214"/>
-      <c r="I57" s="172"/>
+      <c r="H57" s="159"/>
+      <c r="I57" s="150"/>
       <c r="J57" s="53"/>
       <c r="K57" s="36"/>
       <c r="L57" s="36"/>
       <c r="M57" s="61"/>
     </row>
     <row r="58" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B58" s="185"/>
-      <c r="C58" s="199"/>
-      <c r="D58" s="239"/>
-      <c r="E58" s="236"/>
+      <c r="B58" s="212"/>
+      <c r="C58" s="225"/>
+      <c r="D58" s="147"/>
+      <c r="E58" s="148"/>
       <c r="F58" s="77" t="s">
         <v>484</v>
       </c>
       <c r="G58" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="H58" s="214"/>
-      <c r="I58" s="172"/>
+      <c r="H58" s="159"/>
+      <c r="I58" s="150"/>
       <c r="J58" s="53"/>
       <c r="K58" s="36"/>
       <c r="L58" s="36"/>
       <c r="M58" s="61"/>
     </row>
     <row r="59" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B59" s="185"/>
-      <c r="C59" s="199"/>
-      <c r="D59" s="239"/>
-      <c r="E59" s="236"/>
+      <c r="B59" s="212"/>
+      <c r="C59" s="225"/>
+      <c r="D59" s="147"/>
+      <c r="E59" s="148"/>
       <c r="F59" s="77" t="s">
         <v>485</v>
       </c>
       <c r="G59" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="H59" s="214"/>
-      <c r="I59" s="173"/>
+      <c r="H59" s="159"/>
+      <c r="I59" s="139"/>
       <c r="J59" s="53"/>
       <c r="K59" s="36"/>
       <c r="L59" s="36"/>
       <c r="M59" s="61"/>
     </row>
     <row r="60" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B60" s="185"/>
-      <c r="C60" s="199"/>
-      <c r="D60" s="179">
+      <c r="B60" s="212"/>
+      <c r="C60" s="225"/>
+      <c r="D60" s="177">
         <v>17</v>
       </c>
-      <c r="E60" s="236" t="s">
+      <c r="E60" s="148" t="s">
         <v>442</v>
       </c>
       <c r="F60" s="77" t="s">
@@ -6782,130 +7188,130 @@
       <c r="G60" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="H60" s="241" t="s">
+      <c r="H60" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="I60" s="242"/>
+      <c r="I60" s="174"/>
       <c r="J60" s="53"/>
       <c r="K60" s="36"/>
       <c r="L60" s="36"/>
       <c r="M60" s="61"/>
     </row>
     <row r="61" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B61" s="185"/>
-      <c r="C61" s="199"/>
-      <c r="D61" s="180"/>
-      <c r="E61" s="236"/>
+      <c r="B61" s="212"/>
+      <c r="C61" s="225"/>
+      <c r="D61" s="178"/>
+      <c r="E61" s="148"/>
       <c r="F61" s="77" t="s">
         <v>94</v>
       </c>
       <c r="G61" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="H61" s="241"/>
-      <c r="I61" s="243"/>
+      <c r="H61" s="155"/>
+      <c r="I61" s="175"/>
       <c r="J61" s="53"/>
       <c r="K61" s="36"/>
       <c r="L61" s="36"/>
       <c r="M61" s="61"/>
     </row>
     <row r="62" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B62" s="185"/>
-      <c r="C62" s="199"/>
-      <c r="D62" s="180"/>
-      <c r="E62" s="236"/>
+      <c r="B62" s="212"/>
+      <c r="C62" s="225"/>
+      <c r="D62" s="178"/>
+      <c r="E62" s="148"/>
       <c r="F62" s="77" t="s">
         <v>95</v>
       </c>
       <c r="G62" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="H62" s="241"/>
-      <c r="I62" s="243"/>
+      <c r="H62" s="155"/>
+      <c r="I62" s="175"/>
       <c r="J62" s="53"/>
       <c r="K62" s="36"/>
       <c r="L62" s="36"/>
       <c r="M62" s="61"/>
     </row>
     <row r="63" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B63" s="185"/>
-      <c r="C63" s="199"/>
-      <c r="D63" s="180"/>
-      <c r="E63" s="236"/>
+      <c r="B63" s="212"/>
+      <c r="C63" s="225"/>
+      <c r="D63" s="178"/>
+      <c r="E63" s="148"/>
       <c r="F63" s="77" t="s">
         <v>98</v>
       </c>
       <c r="G63" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="H63" s="241"/>
-      <c r="I63" s="243"/>
+      <c r="H63" s="155"/>
+      <c r="I63" s="175"/>
       <c r="J63" s="53"/>
       <c r="K63" s="36"/>
       <c r="L63" s="36"/>
       <c r="M63" s="61"/>
     </row>
     <row r="64" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B64" s="185"/>
-      <c r="C64" s="199"/>
-      <c r="D64" s="180"/>
-      <c r="E64" s="236"/>
+      <c r="B64" s="212"/>
+      <c r="C64" s="225"/>
+      <c r="D64" s="178"/>
+      <c r="E64" s="148"/>
       <c r="F64" s="77" t="s">
         <v>486</v>
       </c>
       <c r="G64" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="H64" s="241"/>
-      <c r="I64" s="243"/>
+      <c r="H64" s="155"/>
+      <c r="I64" s="175"/>
       <c r="J64" s="53"/>
       <c r="K64" s="36"/>
       <c r="L64" s="36"/>
       <c r="M64" s="61"/>
     </row>
     <row r="65" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B65" s="185"/>
-      <c r="C65" s="199"/>
-      <c r="D65" s="180"/>
-      <c r="E65" s="236"/>
+      <c r="B65" s="212"/>
+      <c r="C65" s="225"/>
+      <c r="D65" s="178"/>
+      <c r="E65" s="148"/>
       <c r="F65" s="77" t="s">
         <v>487</v>
       </c>
       <c r="G65" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="H65" s="241"/>
-      <c r="I65" s="243"/>
+      <c r="H65" s="155"/>
+      <c r="I65" s="175"/>
       <c r="J65" s="53"/>
       <c r="K65" s="36"/>
       <c r="L65" s="36"/>
       <c r="M65" s="61"/>
     </row>
     <row r="66" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B66" s="185"/>
-      <c r="C66" s="199"/>
-      <c r="D66" s="181"/>
-      <c r="E66" s="236"/>
+      <c r="B66" s="212"/>
+      <c r="C66" s="225"/>
+      <c r="D66" s="184"/>
+      <c r="E66" s="148"/>
       <c r="F66" s="77" t="s">
         <v>488</v>
       </c>
       <c r="G66" s="54" t="s">
         <v>440</v>
       </c>
-      <c r="H66" s="241"/>
-      <c r="I66" s="244"/>
+      <c r="H66" s="155"/>
+      <c r="I66" s="176"/>
       <c r="J66" s="53"/>
       <c r="K66" s="36"/>
       <c r="L66" s="36"/>
       <c r="M66" s="61"/>
     </row>
     <row r="67" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B67" s="185"/>
-      <c r="C67" s="199"/>
-      <c r="D67" s="239">
+      <c r="B67" s="212"/>
+      <c r="C67" s="225"/>
+      <c r="D67" s="147">
         <v>18</v>
       </c>
-      <c r="E67" s="236" t="s">
+      <c r="E67" s="148" t="s">
         <v>165</v>
       </c>
       <c r="F67" s="77" t="s">
@@ -6914,60 +7320,60 @@
       <c r="G67" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="H67" s="241" t="s">
+      <c r="H67" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="I67" s="242"/>
+      <c r="I67" s="174"/>
       <c r="J67" s="53"/>
       <c r="K67" s="36"/>
       <c r="L67" s="36"/>
       <c r="M67" s="61"/>
     </row>
     <row r="68" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B68" s="185"/>
-      <c r="C68" s="199"/>
-      <c r="D68" s="239"/>
-      <c r="E68" s="236"/>
+      <c r="B68" s="212"/>
+      <c r="C68" s="225"/>
+      <c r="D68" s="147"/>
+      <c r="E68" s="148"/>
       <c r="F68" s="77" t="s">
         <v>123</v>
       </c>
       <c r="G68" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="H68" s="241"/>
-      <c r="I68" s="243"/>
+      <c r="H68" s="155"/>
+      <c r="I68" s="175"/>
       <c r="J68" s="53"/>
       <c r="K68" s="36"/>
       <c r="L68" s="36"/>
       <c r="M68" s="61"/>
     </row>
     <row r="69" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B69" s="185"/>
-      <c r="C69" s="199"/>
-      <c r="D69" s="239"/>
-      <c r="E69" s="236"/>
+      <c r="B69" s="212"/>
+      <c r="C69" s="225"/>
+      <c r="D69" s="147"/>
+      <c r="E69" s="148"/>
       <c r="F69" s="77" t="s">
         <v>124</v>
       </c>
       <c r="G69" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="H69" s="241"/>
-      <c r="I69" s="244"/>
+      <c r="H69" s="155"/>
+      <c r="I69" s="176"/>
       <c r="J69" s="53"/>
       <c r="K69" s="36"/>
       <c r="L69" s="36"/>
       <c r="M69" s="61"/>
     </row>
     <row r="70" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B70" s="185"/>
-      <c r="C70" s="238" t="s">
+      <c r="B70" s="212"/>
+      <c r="C70" s="185" t="s">
         <v>186</v>
       </c>
-      <c r="D70" s="239">
+      <c r="D70" s="147">
         <v>19</v>
       </c>
-      <c r="E70" s="150" t="s">
+      <c r="E70" s="142" t="s">
         <v>187</v>
       </c>
       <c r="F70" s="78" t="s">
@@ -6976,10 +7382,10 @@
       <c r="G70" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="H70" s="241" t="s">
+      <c r="H70" s="155" t="s">
         <v>35</v>
       </c>
-      <c r="I70" s="171" t="s">
+      <c r="I70" s="138" t="s">
         <v>362</v>
       </c>
       <c r="J70" s="53"/>
@@ -6988,122 +7394,122 @@
       <c r="M70" s="61"/>
     </row>
     <row r="71" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B71" s="185"/>
-      <c r="C71" s="238"/>
-      <c r="D71" s="239"/>
-      <c r="E71" s="151"/>
+      <c r="B71" s="212"/>
+      <c r="C71" s="185"/>
+      <c r="D71" s="147"/>
+      <c r="E71" s="149"/>
       <c r="F71" s="78" t="s">
         <v>355</v>
       </c>
       <c r="G71" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="H71" s="241"/>
-      <c r="I71" s="172"/>
+      <c r="H71" s="155"/>
+      <c r="I71" s="150"/>
       <c r="J71" s="53"/>
       <c r="K71" s="36"/>
       <c r="L71" s="36"/>
       <c r="M71" s="61"/>
     </row>
     <row r="72" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B72" s="185"/>
-      <c r="C72" s="238"/>
-      <c r="D72" s="239"/>
-      <c r="E72" s="151"/>
+      <c r="B72" s="212"/>
+      <c r="C72" s="185"/>
+      <c r="D72" s="147"/>
+      <c r="E72" s="149"/>
       <c r="F72" s="78" t="s">
         <v>373</v>
       </c>
       <c r="G72" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="H72" s="241"/>
-      <c r="I72" s="172"/>
+      <c r="H72" s="155"/>
+      <c r="I72" s="150"/>
       <c r="J72" s="53"/>
       <c r="K72" s="36"/>
       <c r="L72" s="36"/>
       <c r="M72" s="61"/>
     </row>
     <row r="73" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B73" s="185"/>
-      <c r="C73" s="238"/>
-      <c r="D73" s="239"/>
-      <c r="E73" s="151"/>
+      <c r="B73" s="212"/>
+      <c r="C73" s="185"/>
+      <c r="D73" s="147"/>
+      <c r="E73" s="149"/>
       <c r="F73" s="78" t="s">
         <v>407</v>
       </c>
       <c r="G73" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="H73" s="241"/>
-      <c r="I73" s="172"/>
+      <c r="H73" s="155"/>
+      <c r="I73" s="150"/>
       <c r="J73" s="53"/>
       <c r="K73" s="36"/>
       <c r="L73" s="36"/>
       <c r="M73" s="61"/>
     </row>
     <row r="74" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B74" s="185"/>
-      <c r="C74" s="238"/>
-      <c r="D74" s="239"/>
-      <c r="E74" s="151"/>
+      <c r="B74" s="212"/>
+      <c r="C74" s="185"/>
+      <c r="D74" s="147"/>
+      <c r="E74" s="149"/>
       <c r="F74" s="78" t="s">
         <v>489</v>
       </c>
       <c r="G74" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="H74" s="241"/>
-      <c r="I74" s="172"/>
+      <c r="H74" s="155"/>
+      <c r="I74" s="150"/>
       <c r="J74" s="53"/>
       <c r="K74" s="36"/>
       <c r="L74" s="36"/>
       <c r="M74" s="61"/>
     </row>
     <row r="75" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B75" s="185"/>
-      <c r="C75" s="238"/>
-      <c r="D75" s="239"/>
-      <c r="E75" s="151"/>
+      <c r="B75" s="212"/>
+      <c r="C75" s="185"/>
+      <c r="D75" s="147"/>
+      <c r="E75" s="149"/>
       <c r="F75" s="78" t="s">
         <v>490</v>
       </c>
       <c r="G75" s="45" t="s">
         <v>384</v>
       </c>
-      <c r="H75" s="241"/>
-      <c r="I75" s="172"/>
+      <c r="H75" s="155"/>
+      <c r="I75" s="150"/>
       <c r="J75" s="53"/>
       <c r="K75" s="36"/>
       <c r="L75" s="36"/>
       <c r="M75" s="61"/>
     </row>
     <row r="76" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B76" s="185"/>
-      <c r="C76" s="238"/>
-      <c r="D76" s="239"/>
-      <c r="E76" s="152"/>
+      <c r="B76" s="212"/>
+      <c r="C76" s="185"/>
+      <c r="D76" s="147"/>
+      <c r="E76" s="143"/>
       <c r="F76" s="78" t="s">
         <v>491</v>
       </c>
       <c r="G76" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="H76" s="241"/>
-      <c r="I76" s="173"/>
+      <c r="H76" s="155"/>
+      <c r="I76" s="139"/>
       <c r="J76" s="53"/>
       <c r="K76" s="36"/>
       <c r="L76" s="36"/>
       <c r="M76" s="61"/>
     </row>
     <row r="77" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B77" s="185"/>
-      <c r="C77" s="200" t="s">
+      <c r="B77" s="212"/>
+      <c r="C77" s="187" t="s">
         <v>184</v>
       </c>
-      <c r="D77" s="211">
+      <c r="D77" s="144">
         <v>20</v>
       </c>
-      <c r="E77" s="150" t="s">
+      <c r="E77" s="142" t="s">
         <v>449</v>
       </c>
       <c r="F77" s="77" t="s">
@@ -7112,10 +7518,10 @@
       <c r="G77" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="H77" s="214" t="s">
+      <c r="H77" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="I77" s="204" t="s">
+      <c r="I77" s="160" t="s">
         <v>427</v>
       </c>
       <c r="J77" s="22"/>
@@ -7124,102 +7530,102 @@
       <c r="M77" s="23"/>
     </row>
     <row r="78" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B78" s="185"/>
-      <c r="C78" s="200"/>
-      <c r="D78" s="212"/>
-      <c r="E78" s="151"/>
+      <c r="B78" s="212"/>
+      <c r="C78" s="187"/>
+      <c r="D78" s="146"/>
+      <c r="E78" s="149"/>
       <c r="F78" s="77" t="s">
         <v>105</v>
       </c>
       <c r="G78" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="H78" s="214"/>
-      <c r="I78" s="204"/>
+      <c r="H78" s="159"/>
+      <c r="I78" s="160"/>
       <c r="J78" s="22"/>
       <c r="K78" s="22"/>
       <c r="L78" s="22"/>
       <c r="M78" s="23"/>
     </row>
     <row r="79" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B79" s="185"/>
-      <c r="C79" s="200"/>
-      <c r="D79" s="212"/>
-      <c r="E79" s="151"/>
+      <c r="B79" s="212"/>
+      <c r="C79" s="187"/>
+      <c r="D79" s="146"/>
+      <c r="E79" s="149"/>
       <c r="F79" s="77" t="s">
         <v>408</v>
       </c>
       <c r="G79" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="H79" s="214"/>
-      <c r="I79" s="204"/>
+      <c r="H79" s="159"/>
+      <c r="I79" s="160"/>
       <c r="J79" s="22"/>
       <c r="K79" s="22"/>
       <c r="L79" s="22"/>
       <c r="M79" s="23"/>
     </row>
     <row r="80" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B80" s="185"/>
-      <c r="C80" s="200"/>
-      <c r="D80" s="212"/>
-      <c r="E80" s="151"/>
+      <c r="B80" s="212"/>
+      <c r="C80" s="187"/>
+      <c r="D80" s="146"/>
+      <c r="E80" s="149"/>
       <c r="F80" s="77" t="s">
         <v>492</v>
       </c>
       <c r="G80" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="H80" s="214"/>
-      <c r="I80" s="204"/>
+      <c r="H80" s="159"/>
+      <c r="I80" s="160"/>
       <c r="J80" s="22"/>
       <c r="K80" s="22"/>
       <c r="L80" s="22"/>
       <c r="M80" s="23"/>
     </row>
     <row r="81" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B81" s="185"/>
-      <c r="C81" s="200"/>
-      <c r="D81" s="212"/>
-      <c r="E81" s="151"/>
+      <c r="B81" s="212"/>
+      <c r="C81" s="187"/>
+      <c r="D81" s="146"/>
+      <c r="E81" s="149"/>
       <c r="F81" s="77" t="s">
         <v>493</v>
       </c>
       <c r="G81" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="H81" s="214"/>
-      <c r="I81" s="204"/>
+      <c r="H81" s="159"/>
+      <c r="I81" s="160"/>
       <c r="J81" s="22"/>
       <c r="K81" s="22"/>
       <c r="L81" s="22"/>
       <c r="M81" s="23"/>
     </row>
     <row r="82" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B82" s="185"/>
-      <c r="C82" s="200"/>
-      <c r="D82" s="213"/>
-      <c r="E82" s="152"/>
+      <c r="B82" s="212"/>
+      <c r="C82" s="187"/>
+      <c r="D82" s="145"/>
+      <c r="E82" s="143"/>
       <c r="F82" s="77" t="s">
         <v>494</v>
       </c>
       <c r="G82" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="H82" s="214"/>
-      <c r="I82" s="171"/>
+      <c r="H82" s="159"/>
+      <c r="I82" s="138"/>
       <c r="J82" s="22"/>
       <c r="K82" s="22"/>
       <c r="L82" s="22"/>
       <c r="M82" s="23"/>
     </row>
     <row r="83" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B83" s="185"/>
-      <c r="C83" s="200"/>
-      <c r="D83" s="211">
+      <c r="B83" s="212"/>
+      <c r="C83" s="187"/>
+      <c r="D83" s="144">
         <v>21</v>
       </c>
-      <c r="E83" s="150" t="s">
+      <c r="E83" s="142" t="s">
         <v>207</v>
       </c>
       <c r="F83" s="79" t="s">
@@ -7228,42 +7634,42 @@
       <c r="G83" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="H83" s="153" t="s">
+      <c r="H83" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="I83" s="171"/>
+      <c r="I83" s="138"/>
       <c r="J83" s="22"/>
       <c r="K83" s="22"/>
       <c r="L83" s="22"/>
       <c r="M83" s="23"/>
     </row>
     <row r="84" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B84" s="185"/>
-      <c r="C84" s="200"/>
-      <c r="D84" s="213"/>
-      <c r="E84" s="151"/>
+      <c r="B84" s="212"/>
+      <c r="C84" s="187"/>
+      <c r="D84" s="145"/>
+      <c r="E84" s="149"/>
       <c r="F84" s="79" t="s">
         <v>106</v>
       </c>
       <c r="G84" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="H84" s="155"/>
-      <c r="I84" s="173"/>
+      <c r="H84" s="141"/>
+      <c r="I84" s="139"/>
       <c r="J84" s="22"/>
       <c r="K84" s="22"/>
       <c r="L84" s="22"/>
       <c r="M84" s="23"/>
     </row>
     <row r="85" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B85" s="185"/>
-      <c r="C85" s="240" t="s">
+      <c r="B85" s="212"/>
+      <c r="C85" s="186" t="s">
         <v>213</v>
       </c>
-      <c r="D85" s="211">
+      <c r="D85" s="144">
         <v>22</v>
       </c>
-      <c r="E85" s="150" t="s">
+      <c r="E85" s="142" t="s">
         <v>211</v>
       </c>
       <c r="F85" s="77" t="s">
@@ -7272,10 +7678,10 @@
       <c r="G85" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="H85" s="153" t="s">
+      <c r="H85" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="I85" s="216" t="s">
+      <c r="I85" s="171" t="s">
         <v>436</v>
       </c>
       <c r="J85" s="22"/>
@@ -7284,86 +7690,86 @@
       <c r="M85" s="23"/>
     </row>
     <row r="86" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B86" s="185"/>
-      <c r="C86" s="240"/>
-      <c r="D86" s="212"/>
-      <c r="E86" s="151"/>
+      <c r="B86" s="212"/>
+      <c r="C86" s="186"/>
+      <c r="D86" s="146"/>
+      <c r="E86" s="149"/>
       <c r="F86" s="77" t="s">
         <v>127</v>
       </c>
       <c r="G86" s="54" t="s">
         <v>468</v>
       </c>
-      <c r="H86" s="154"/>
-      <c r="I86" s="245"/>
+      <c r="H86" s="151"/>
+      <c r="I86" s="172"/>
       <c r="J86" s="22"/>
       <c r="K86" s="22"/>
       <c r="L86" s="22"/>
       <c r="M86" s="23"/>
     </row>
     <row r="87" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B87" s="185"/>
-      <c r="C87" s="240"/>
-      <c r="D87" s="212"/>
-      <c r="E87" s="151"/>
+      <c r="B87" s="212"/>
+      <c r="C87" s="186"/>
+      <c r="D87" s="146"/>
+      <c r="E87" s="149"/>
       <c r="F87" s="77" t="s">
         <v>495</v>
       </c>
       <c r="G87" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="H87" s="154"/>
-      <c r="I87" s="245"/>
+      <c r="H87" s="151"/>
+      <c r="I87" s="172"/>
       <c r="J87" s="22"/>
       <c r="K87" s="22"/>
       <c r="L87" s="22"/>
       <c r="M87" s="23"/>
     </row>
     <row r="88" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B88" s="185"/>
-      <c r="C88" s="240"/>
-      <c r="D88" s="212"/>
-      <c r="E88" s="151"/>
+      <c r="B88" s="212"/>
+      <c r="C88" s="186"/>
+      <c r="D88" s="146"/>
+      <c r="E88" s="149"/>
       <c r="F88" s="77" t="s">
         <v>496</v>
       </c>
       <c r="G88" s="54" t="s">
         <v>469</v>
       </c>
-      <c r="H88" s="154"/>
-      <c r="I88" s="245"/>
+      <c r="H88" s="151"/>
+      <c r="I88" s="172"/>
       <c r="J88" s="22"/>
       <c r="K88" s="22"/>
       <c r="L88" s="22"/>
       <c r="M88" s="23"/>
     </row>
     <row r="89" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B89" s="185"/>
-      <c r="C89" s="240"/>
-      <c r="D89" s="213"/>
-      <c r="E89" s="152"/>
+      <c r="B89" s="212"/>
+      <c r="C89" s="186"/>
+      <c r="D89" s="145"/>
+      <c r="E89" s="143"/>
       <c r="F89" s="77" t="s">
         <v>497</v>
       </c>
       <c r="G89" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="H89" s="155"/>
-      <c r="I89" s="246"/>
+      <c r="H89" s="141"/>
+      <c r="I89" s="173"/>
       <c r="J89" s="22"/>
       <c r="K89" s="22"/>
       <c r="L89" s="22"/>
       <c r="M89" s="23"/>
     </row>
     <row r="90" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B90" s="185"/>
-      <c r="C90" s="201" t="s">
+      <c r="B90" s="212"/>
+      <c r="C90" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="D90" s="211">
+      <c r="D90" s="144">
         <v>23</v>
       </c>
-      <c r="E90" s="150" t="s">
+      <c r="E90" s="142" t="s">
         <v>259</v>
       </c>
       <c r="F90" s="77" t="s">
@@ -7372,76 +7778,76 @@
       <c r="G90" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="H90" s="153" t="s">
+      <c r="H90" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="I90" s="208"/>
+      <c r="I90" s="231"/>
       <c r="J90" s="22"/>
       <c r="K90" s="22"/>
       <c r="L90" s="22"/>
       <c r="M90" s="23"/>
     </row>
     <row r="91" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B91" s="185"/>
-      <c r="C91" s="201"/>
-      <c r="D91" s="212"/>
-      <c r="E91" s="151"/>
+      <c r="B91" s="212"/>
+      <c r="C91" s="196"/>
+      <c r="D91" s="146"/>
+      <c r="E91" s="149"/>
       <c r="F91" s="77" t="s">
         <v>129</v>
       </c>
       <c r="G91" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="H91" s="154"/>
-      <c r="I91" s="209"/>
+      <c r="H91" s="151"/>
+      <c r="I91" s="232"/>
       <c r="J91" s="22"/>
       <c r="K91" s="22"/>
       <c r="L91" s="22"/>
       <c r="M91" s="23"/>
     </row>
     <row r="92" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B92" s="185"/>
-      <c r="C92" s="201"/>
-      <c r="D92" s="212"/>
-      <c r="E92" s="151"/>
+      <c r="B92" s="212"/>
+      <c r="C92" s="196"/>
+      <c r="D92" s="146"/>
+      <c r="E92" s="149"/>
       <c r="F92" s="77" t="s">
         <v>158</v>
       </c>
       <c r="G92" s="54" t="s">
         <v>260</v>
       </c>
-      <c r="H92" s="154"/>
-      <c r="I92" s="209"/>
+      <c r="H92" s="151"/>
+      <c r="I92" s="232"/>
       <c r="J92" s="22"/>
       <c r="K92" s="22"/>
       <c r="L92" s="22"/>
       <c r="M92" s="23"/>
     </row>
     <row r="93" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B93" s="185"/>
-      <c r="C93" s="201"/>
-      <c r="D93" s="213"/>
-      <c r="E93" s="151"/>
+      <c r="B93" s="212"/>
+      <c r="C93" s="196"/>
+      <c r="D93" s="145"/>
+      <c r="E93" s="149"/>
       <c r="F93" s="77" t="s">
         <v>162</v>
       </c>
       <c r="G93" s="54" t="s">
         <v>463</v>
       </c>
-      <c r="H93" s="155"/>
-      <c r="I93" s="210"/>
+      <c r="H93" s="141"/>
+      <c r="I93" s="233"/>
       <c r="J93" s="22"/>
       <c r="K93" s="22"/>
       <c r="L93" s="22"/>
       <c r="M93" s="23"/>
     </row>
     <row r="94" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B94" s="185"/>
-      <c r="C94" s="201"/>
-      <c r="D94" s="211">
+      <c r="B94" s="212"/>
+      <c r="C94" s="196"/>
+      <c r="D94" s="144">
         <v>24</v>
       </c>
-      <c r="E94" s="111" t="s">
+      <c r="E94" s="128" t="s">
         <v>269</v>
       </c>
       <c r="F94" s="77" t="s">
@@ -7450,78 +7856,78 @@
       <c r="G94" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="H94" s="153" t="s">
+      <c r="H94" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="I94" s="205"/>
+      <c r="I94" s="228"/>
       <c r="J94" s="22"/>
       <c r="K94" s="22"/>
       <c r="L94" s="22"/>
       <c r="M94" s="23"/>
     </row>
     <row r="95" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B95" s="185"/>
-      <c r="C95" s="201"/>
-      <c r="D95" s="212"/>
-      <c r="E95" s="112"/>
+      <c r="B95" s="212"/>
+      <c r="C95" s="196"/>
+      <c r="D95" s="146"/>
+      <c r="E95" s="129"/>
       <c r="F95" s="77" t="s">
         <v>170</v>
       </c>
       <c r="G95" s="54" t="s">
         <v>261</v>
       </c>
-      <c r="H95" s="154"/>
-      <c r="I95" s="206"/>
+      <c r="H95" s="151"/>
+      <c r="I95" s="229"/>
       <c r="J95" s="22"/>
       <c r="K95" s="22"/>
       <c r="L95" s="22"/>
       <c r="M95" s="23"/>
     </row>
     <row r="96" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B96" s="185"/>
-      <c r="C96" s="201"/>
-      <c r="D96" s="212"/>
-      <c r="E96" s="112"/>
+      <c r="B96" s="212"/>
+      <c r="C96" s="196"/>
+      <c r="D96" s="146"/>
+      <c r="E96" s="129"/>
       <c r="F96" s="77" t="s">
         <v>171</v>
       </c>
       <c r="G96" s="54" t="s">
         <v>262</v>
       </c>
-      <c r="H96" s="154"/>
-      <c r="I96" s="206"/>
+      <c r="H96" s="151"/>
+      <c r="I96" s="229"/>
       <c r="J96" s="22"/>
       <c r="K96" s="22"/>
       <c r="L96" s="22"/>
       <c r="M96" s="23"/>
     </row>
     <row r="97" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B97" s="185"/>
-      <c r="C97" s="201"/>
-      <c r="D97" s="213"/>
-      <c r="E97" s="113"/>
+      <c r="B97" s="212"/>
+      <c r="C97" s="196"/>
+      <c r="D97" s="145"/>
+      <c r="E97" s="130"/>
       <c r="F97" s="77" t="s">
         <v>409</v>
       </c>
       <c r="G97" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="H97" s="155"/>
-      <c r="I97" s="207"/>
+      <c r="H97" s="141"/>
+      <c r="I97" s="230"/>
       <c r="J97" s="22"/>
       <c r="K97" s="22"/>
       <c r="L97" s="22"/>
       <c r="M97" s="23"/>
     </row>
     <row r="98" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B98" s="185"/>
-      <c r="C98" s="202" t="s">
+      <c r="B98" s="212"/>
+      <c r="C98" s="226" t="s">
         <v>3</v>
       </c>
-      <c r="D98" s="211">
+      <c r="D98" s="144">
         <v>25</v>
       </c>
-      <c r="E98" s="150" t="s">
+      <c r="E98" s="142" t="s">
         <v>270</v>
       </c>
       <c r="F98" s="77" t="s">
@@ -7530,40 +7936,40 @@
       <c r="G98" s="54" t="s">
         <v>276</v>
       </c>
-      <c r="H98" s="153" t="s">
+      <c r="H98" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="I98" s="171"/>
+      <c r="I98" s="138"/>
       <c r="J98" s="52"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="60"/>
     </row>
     <row r="99" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B99" s="185"/>
-      <c r="C99" s="202"/>
-      <c r="D99" s="213"/>
-      <c r="E99" s="151"/>
+      <c r="B99" s="212"/>
+      <c r="C99" s="226"/>
+      <c r="D99" s="145"/>
+      <c r="E99" s="149"/>
       <c r="F99" s="77" t="s">
         <v>176</v>
       </c>
       <c r="G99" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="H99" s="155"/>
-      <c r="I99" s="173"/>
+      <c r="H99" s="141"/>
+      <c r="I99" s="139"/>
       <c r="J99" s="52"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="48"/>
     </row>
     <row r="100" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B100" s="185"/>
-      <c r="C100" s="202"/>
-      <c r="D100" s="211">
+      <c r="B100" s="212"/>
+      <c r="C100" s="226"/>
+      <c r="D100" s="144">
         <v>26</v>
       </c>
-      <c r="E100" s="150" t="s">
+      <c r="E100" s="142" t="s">
         <v>274</v>
       </c>
       <c r="F100" s="77" t="s">
@@ -7572,58 +7978,58 @@
       <c r="G100" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="H100" s="153" t="s">
+      <c r="H100" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="I100" s="171"/>
+      <c r="I100" s="138"/>
       <c r="J100" s="52"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="48"/>
     </row>
     <row r="101" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B101" s="185"/>
-      <c r="C101" s="202"/>
-      <c r="D101" s="212"/>
-      <c r="E101" s="151"/>
+      <c r="B101" s="212"/>
+      <c r="C101" s="226"/>
+      <c r="D101" s="146"/>
+      <c r="E101" s="149"/>
       <c r="F101" s="77" t="s">
         <v>182</v>
       </c>
       <c r="G101" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="H101" s="154"/>
-      <c r="I101" s="172"/>
+      <c r="H101" s="151"/>
+      <c r="I101" s="150"/>
       <c r="J101" s="52"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="60"/>
     </row>
     <row r="102" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B102" s="185"/>
-      <c r="C102" s="202"/>
-      <c r="D102" s="213"/>
-      <c r="E102" s="152"/>
+      <c r="B102" s="212"/>
+      <c r="C102" s="226"/>
+      <c r="D102" s="145"/>
+      <c r="E102" s="143"/>
       <c r="F102" s="77" t="s">
         <v>183</v>
       </c>
       <c r="G102" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="H102" s="155"/>
-      <c r="I102" s="173"/>
+      <c r="H102" s="141"/>
+      <c r="I102" s="139"/>
       <c r="J102" s="52"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="48"/>
     </row>
     <row r="103" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B103" s="185"/>
-      <c r="C103" s="202"/>
-      <c r="D103" s="211">
+      <c r="B103" s="212"/>
+      <c r="C103" s="226"/>
+      <c r="D103" s="144">
         <v>27</v>
       </c>
-      <c r="E103" s="150" t="s">
+      <c r="E103" s="142" t="s">
         <v>281</v>
       </c>
       <c r="F103" s="77" t="s">
@@ -7632,58 +8038,58 @@
       <c r="G103" s="54" t="s">
         <v>283</v>
       </c>
-      <c r="H103" s="153" t="s">
+      <c r="H103" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="I103" s="171"/>
+      <c r="I103" s="138"/>
       <c r="J103" s="52"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="48"/>
     </row>
     <row r="104" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B104" s="185"/>
-      <c r="C104" s="202"/>
-      <c r="D104" s="212"/>
-      <c r="E104" s="151"/>
+      <c r="B104" s="212"/>
+      <c r="C104" s="226"/>
+      <c r="D104" s="146"/>
+      <c r="E104" s="149"/>
       <c r="F104" s="77" t="s">
         <v>286</v>
       </c>
       <c r="G104" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="H104" s="154"/>
-      <c r="I104" s="172"/>
+      <c r="H104" s="151"/>
+      <c r="I104" s="150"/>
       <c r="J104" s="52"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="48"/>
     </row>
     <row r="105" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B105" s="185"/>
-      <c r="C105" s="202"/>
-      <c r="D105" s="213"/>
-      <c r="E105" s="152"/>
+      <c r="B105" s="212"/>
+      <c r="C105" s="226"/>
+      <c r="D105" s="145"/>
+      <c r="E105" s="143"/>
       <c r="F105" s="77" t="s">
         <v>287</v>
       </c>
       <c r="G105" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="H105" s="155"/>
-      <c r="I105" s="173"/>
+      <c r="H105" s="141"/>
+      <c r="I105" s="139"/>
       <c r="J105" s="52"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="60"/>
     </row>
     <row r="106" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B106" s="185"/>
-      <c r="C106" s="202"/>
-      <c r="D106" s="211">
+      <c r="B106" s="212"/>
+      <c r="C106" s="226"/>
+      <c r="D106" s="144">
         <v>28</v>
       </c>
-      <c r="E106" s="150" t="s">
+      <c r="E106" s="142" t="s">
         <v>278</v>
       </c>
       <c r="F106" s="77" t="s">
@@ -7692,10 +8098,10 @@
       <c r="G106" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="H106" s="153" t="s">
+      <c r="H106" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="I106" s="171" t="s">
+      <c r="I106" s="138" t="s">
         <v>37</v>
       </c>
       <c r="J106" s="52"/>
@@ -7704,48 +8110,48 @@
       <c r="M106" s="48"/>
     </row>
     <row r="107" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B107" s="185"/>
-      <c r="C107" s="202"/>
-      <c r="D107" s="212"/>
-      <c r="E107" s="151"/>
+      <c r="B107" s="212"/>
+      <c r="C107" s="226"/>
+      <c r="D107" s="146"/>
+      <c r="E107" s="149"/>
       <c r="F107" s="77" t="s">
         <v>289</v>
       </c>
       <c r="G107" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="H107" s="154"/>
-      <c r="I107" s="172"/>
+      <c r="H107" s="151"/>
+      <c r="I107" s="150"/>
       <c r="J107" s="52"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="48"/>
     </row>
     <row r="108" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B108" s="185"/>
-      <c r="C108" s="202"/>
-      <c r="D108" s="213"/>
-      <c r="E108" s="152"/>
+      <c r="B108" s="212"/>
+      <c r="C108" s="226"/>
+      <c r="D108" s="145"/>
+      <c r="E108" s="143"/>
       <c r="F108" s="77" t="s">
         <v>290</v>
       </c>
       <c r="G108" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="H108" s="155"/>
-      <c r="I108" s="173"/>
+      <c r="H108" s="141"/>
+      <c r="I108" s="139"/>
       <c r="J108" s="52"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="48"/>
     </row>
     <row r="109" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B109" s="185"/>
-      <c r="C109" s="202"/>
-      <c r="D109" s="237">
+      <c r="B109" s="212"/>
+      <c r="C109" s="226"/>
+      <c r="D109" s="161">
         <v>29</v>
       </c>
-      <c r="E109" s="236" t="s">
+      <c r="E109" s="148" t="s">
         <v>337</v>
       </c>
       <c r="F109" s="77" t="s">
@@ -7754,44 +8160,44 @@
       <c r="G109" s="54" t="s">
         <v>338</v>
       </c>
-      <c r="H109" s="214" t="s">
+      <c r="H109" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="I109" s="204"/>
+      <c r="I109" s="160"/>
       <c r="J109" s="52"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="48"/>
     </row>
     <row r="110" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="186"/>
-      <c r="C110" s="203"/>
-      <c r="D110" s="212"/>
-      <c r="E110" s="151"/>
+      <c r="B110" s="213"/>
+      <c r="C110" s="227"/>
+      <c r="D110" s="146"/>
+      <c r="E110" s="149"/>
       <c r="F110" s="77" t="s">
         <v>292</v>
       </c>
       <c r="G110" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="H110" s="154"/>
-      <c r="I110" s="172"/>
+      <c r="H110" s="151"/>
+      <c r="I110" s="150"/>
       <c r="J110" s="67"/>
       <c r="K110" s="56"/>
       <c r="L110" s="56"/>
       <c r="M110" s="62"/>
     </row>
     <row r="111" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B111" s="144" t="s">
+      <c r="B111" s="234" t="s">
         <v>471</v>
       </c>
-      <c r="C111" s="222" t="s">
+      <c r="C111" s="198" t="s">
         <v>45</v>
       </c>
-      <c r="D111" s="211">
+      <c r="D111" s="144">
         <v>30</v>
       </c>
-      <c r="E111" s="150" t="s">
+      <c r="E111" s="142" t="s">
         <v>71</v>
       </c>
       <c r="F111" s="77" t="s">
@@ -7800,10 +8206,10 @@
       <c r="G111" s="41" t="s">
         <v>457</v>
       </c>
-      <c r="H111" s="153" t="s">
+      <c r="H111" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="I111" s="171" t="s">
+      <c r="I111" s="138" t="s">
         <v>39</v>
       </c>
       <c r="J111" s="22"/>
@@ -7812,50 +8218,50 @@
       <c r="M111" s="23"/>
     </row>
     <row r="112" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B112" s="145"/>
-      <c r="C112" s="223"/>
-      <c r="D112" s="212"/>
-      <c r="E112" s="151"/>
+      <c r="B112" s="235"/>
+      <c r="C112" s="199"/>
+      <c r="D112" s="146"/>
+      <c r="E112" s="149"/>
       <c r="F112" s="77" t="s">
         <v>410</v>
       </c>
       <c r="G112" s="41" t="s">
         <v>458</v>
       </c>
-      <c r="H112" s="154"/>
-      <c r="I112" s="172"/>
+      <c r="H112" s="151"/>
+      <c r="I112" s="150"/>
       <c r="J112" s="22"/>
       <c r="K112" s="22"/>
       <c r="L112" s="22"/>
       <c r="M112" s="23"/>
     </row>
     <row r="113" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B113" s="145"/>
-      <c r="C113" s="223"/>
-      <c r="D113" s="213"/>
-      <c r="E113" s="152"/>
+      <c r="B113" s="235"/>
+      <c r="C113" s="199"/>
+      <c r="D113" s="145"/>
+      <c r="E113" s="143"/>
       <c r="F113" s="77" t="s">
         <v>411</v>
       </c>
       <c r="G113" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="H113" s="155"/>
-      <c r="I113" s="173"/>
+      <c r="H113" s="141"/>
+      <c r="I113" s="139"/>
       <c r="J113" s="22"/>
       <c r="K113" s="22"/>
       <c r="L113" s="22"/>
       <c r="M113" s="23"/>
     </row>
     <row r="114" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B114" s="145"/>
-      <c r="C114" s="228" t="s">
+      <c r="B114" s="235"/>
+      <c r="C114" s="188" t="s">
         <v>80</v>
       </c>
-      <c r="D114" s="211">
+      <c r="D114" s="144">
         <v>31</v>
       </c>
-      <c r="E114" s="150" t="s">
+      <c r="E114" s="142" t="s">
         <v>349</v>
       </c>
       <c r="F114" s="77" t="s">
@@ -7864,10 +8270,10 @@
       <c r="G114" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="H114" s="153" t="s">
+      <c r="H114" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="I114" s="171" t="s">
+      <c r="I114" s="138" t="s">
         <v>431</v>
       </c>
       <c r="J114" s="22"/>
@@ -7876,86 +8282,86 @@
       <c r="M114" s="23"/>
     </row>
     <row r="115" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B115" s="145"/>
-      <c r="C115" s="228"/>
-      <c r="D115" s="212"/>
-      <c r="E115" s="151"/>
+      <c r="B115" s="235"/>
+      <c r="C115" s="188"/>
+      <c r="D115" s="146"/>
+      <c r="E115" s="149"/>
       <c r="F115" s="77" t="s">
         <v>498</v>
       </c>
       <c r="G115" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="H115" s="154"/>
-      <c r="I115" s="172"/>
+      <c r="H115" s="151"/>
+      <c r="I115" s="150"/>
       <c r="J115" s="22"/>
       <c r="K115" s="22"/>
       <c r="L115" s="22"/>
       <c r="M115" s="23"/>
     </row>
     <row r="116" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B116" s="145"/>
-      <c r="C116" s="228"/>
-      <c r="D116" s="212"/>
-      <c r="E116" s="151"/>
+      <c r="B116" s="235"/>
+      <c r="C116" s="188"/>
+      <c r="D116" s="146"/>
+      <c r="E116" s="149"/>
       <c r="F116" s="77" t="s">
         <v>499</v>
       </c>
       <c r="G116" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="H116" s="154"/>
-      <c r="I116" s="172"/>
+      <c r="H116" s="151"/>
+      <c r="I116" s="150"/>
       <c r="J116" s="22"/>
       <c r="K116" s="22"/>
       <c r="L116" s="22"/>
       <c r="M116" s="23"/>
     </row>
     <row r="117" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B117" s="145"/>
-      <c r="C117" s="228"/>
-      <c r="D117" s="212"/>
-      <c r="E117" s="151"/>
+      <c r="B117" s="235"/>
+      <c r="C117" s="188"/>
+      <c r="D117" s="146"/>
+      <c r="E117" s="149"/>
       <c r="F117" s="77" t="s">
         <v>500</v>
       </c>
       <c r="G117" s="41" t="s">
         <v>460</v>
       </c>
-      <c r="H117" s="154"/>
-      <c r="I117" s="172"/>
+      <c r="H117" s="151"/>
+      <c r="I117" s="150"/>
       <c r="J117" s="22"/>
       <c r="K117" s="22"/>
       <c r="L117" s="22"/>
       <c r="M117" s="23"/>
     </row>
     <row r="118" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B118" s="145"/>
-      <c r="C118" s="228"/>
-      <c r="D118" s="213"/>
-      <c r="E118" s="152"/>
+      <c r="B118" s="235"/>
+      <c r="C118" s="188"/>
+      <c r="D118" s="145"/>
+      <c r="E118" s="143"/>
       <c r="F118" s="77" t="s">
         <v>501</v>
       </c>
       <c r="G118" s="41" t="s">
         <v>526</v>
       </c>
-      <c r="H118" s="155"/>
-      <c r="I118" s="173"/>
+      <c r="H118" s="141"/>
+      <c r="I118" s="139"/>
       <c r="J118" s="22"/>
       <c r="K118" s="22"/>
       <c r="L118" s="22"/>
       <c r="M118" s="23"/>
     </row>
     <row r="119" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B119" s="145"/>
-      <c r="C119" s="198" t="s">
+      <c r="B119" s="235"/>
+      <c r="C119" s="195" t="s">
         <v>43</v>
       </c>
-      <c r="D119" s="211">
+      <c r="D119" s="144">
         <v>32</v>
       </c>
-      <c r="E119" s="150" t="s">
+      <c r="E119" s="142" t="s">
         <v>101</v>
       </c>
       <c r="F119" s="77" t="s">
@@ -7964,10 +8370,10 @@
       <c r="G119" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="H119" s="153" t="s">
+      <c r="H119" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="I119" s="171" t="s">
+      <c r="I119" s="138" t="s">
         <v>358</v>
       </c>
       <c r="J119" s="22"/>
@@ -7976,32 +8382,32 @@
       <c r="M119" s="23"/>
     </row>
     <row r="120" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B120" s="145"/>
-      <c r="C120" s="198"/>
-      <c r="D120" s="213"/>
-      <c r="E120" s="152"/>
+      <c r="B120" s="235"/>
+      <c r="C120" s="195"/>
+      <c r="D120" s="145"/>
+      <c r="E120" s="143"/>
       <c r="F120" s="77" t="s">
         <v>296</v>
       </c>
       <c r="G120" s="54" t="s">
         <v>444</v>
       </c>
-      <c r="H120" s="155"/>
-      <c r="I120" s="173"/>
+      <c r="H120" s="141"/>
+      <c r="I120" s="139"/>
       <c r="J120" s="22"/>
       <c r="K120" s="22"/>
       <c r="L120" s="22"/>
       <c r="M120" s="23"/>
     </row>
     <row r="121" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B121" s="145"/>
-      <c r="C121" s="200" t="s">
+      <c r="B121" s="235"/>
+      <c r="C121" s="187" t="s">
         <v>30</v>
       </c>
-      <c r="D121" s="211">
+      <c r="D121" s="144">
         <v>33</v>
       </c>
-      <c r="E121" s="150" t="s">
+      <c r="E121" s="142" t="s">
         <v>202</v>
       </c>
       <c r="F121" s="77" t="s">
@@ -8010,10 +8416,10 @@
       <c r="G121" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="H121" s="214" t="s">
+      <c r="H121" s="159" t="s">
         <v>35</v>
       </c>
-      <c r="I121" s="215" t="s">
+      <c r="I121" s="208" t="s">
         <v>426</v>
       </c>
       <c r="J121" s="22"/>
@@ -8022,68 +8428,68 @@
       <c r="M121" s="23"/>
     </row>
     <row r="122" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B122" s="145"/>
-      <c r="C122" s="200"/>
-      <c r="D122" s="212"/>
-      <c r="E122" s="151"/>
+      <c r="B122" s="235"/>
+      <c r="C122" s="187"/>
+      <c r="D122" s="146"/>
+      <c r="E122" s="149"/>
       <c r="F122" s="77" t="s">
         <v>298</v>
       </c>
       <c r="G122" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="H122" s="214"/>
-      <c r="I122" s="215"/>
+      <c r="H122" s="159"/>
+      <c r="I122" s="208"/>
       <c r="J122" s="22"/>
       <c r="K122" s="22"/>
       <c r="L122" s="22"/>
       <c r="M122" s="23"/>
     </row>
     <row r="123" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B123" s="145"/>
-      <c r="C123" s="200"/>
-      <c r="D123" s="212"/>
-      <c r="E123" s="151"/>
+      <c r="B123" s="235"/>
+      <c r="C123" s="187"/>
+      <c r="D123" s="146"/>
+      <c r="E123" s="149"/>
       <c r="F123" s="77" t="s">
         <v>299</v>
       </c>
       <c r="G123" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="H123" s="214"/>
-      <c r="I123" s="215"/>
+      <c r="H123" s="159"/>
+      <c r="I123" s="208"/>
       <c r="J123" s="22"/>
       <c r="K123" s="22"/>
       <c r="L123" s="22"/>
       <c r="M123" s="23"/>
     </row>
     <row r="124" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B124" s="145"/>
-      <c r="C124" s="200"/>
-      <c r="D124" s="212"/>
-      <c r="E124" s="151"/>
+      <c r="B124" s="235"/>
+      <c r="C124" s="187"/>
+      <c r="D124" s="146"/>
+      <c r="E124" s="149"/>
       <c r="F124" s="77" t="s">
         <v>300</v>
       </c>
       <c r="G124" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="H124" s="214"/>
-      <c r="I124" s="215"/>
+      <c r="H124" s="159"/>
+      <c r="I124" s="208"/>
       <c r="J124" s="22"/>
       <c r="K124" s="22"/>
       <c r="L124" s="22"/>
       <c r="M124" s="23"/>
     </row>
     <row r="125" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B125" s="145"/>
-      <c r="C125" s="163" t="s">
+      <c r="B125" s="235"/>
+      <c r="C125" s="244" t="s">
         <v>231</v>
       </c>
-      <c r="D125" s="211">
+      <c r="D125" s="144">
         <v>34</v>
       </c>
-      <c r="E125" s="150" t="s">
+      <c r="E125" s="142" t="s">
         <v>232</v>
       </c>
       <c r="F125" s="77" t="s">
@@ -8092,10 +8498,10 @@
       <c r="G125" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="H125" s="153" t="s">
+      <c r="H125" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="I125" s="171" t="s">
+      <c r="I125" s="138" t="s">
         <v>419</v>
       </c>
       <c r="J125" s="22"/>
@@ -8104,66 +8510,66 @@
       <c r="M125" s="23"/>
     </row>
     <row r="126" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B126" s="145"/>
-      <c r="C126" s="163"/>
-      <c r="D126" s="212"/>
-      <c r="E126" s="151"/>
+      <c r="B126" s="235"/>
+      <c r="C126" s="244"/>
+      <c r="D126" s="146"/>
+      <c r="E126" s="149"/>
       <c r="F126" s="77" t="s">
         <v>302</v>
       </c>
       <c r="G126" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="H126" s="154"/>
-      <c r="I126" s="172"/>
+      <c r="H126" s="151"/>
+      <c r="I126" s="150"/>
       <c r="J126" s="22"/>
       <c r="K126" s="22"/>
       <c r="L126" s="22"/>
       <c r="M126" s="23"/>
     </row>
     <row r="127" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B127" s="145"/>
-      <c r="C127" s="163"/>
-      <c r="D127" s="212"/>
-      <c r="E127" s="151"/>
+      <c r="B127" s="235"/>
+      <c r="C127" s="244"/>
+      <c r="D127" s="146"/>
+      <c r="E127" s="149"/>
       <c r="F127" s="77" t="s">
         <v>303</v>
       </c>
       <c r="G127" s="54" t="s">
         <v>441</v>
       </c>
-      <c r="H127" s="154"/>
-      <c r="I127" s="172"/>
+      <c r="H127" s="151"/>
+      <c r="I127" s="150"/>
       <c r="J127" s="22"/>
       <c r="K127" s="22"/>
       <c r="L127" s="22"/>
       <c r="M127" s="23"/>
     </row>
     <row r="128" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B128" s="145"/>
-      <c r="C128" s="163"/>
-      <c r="D128" s="213"/>
-      <c r="E128" s="152"/>
+      <c r="B128" s="235"/>
+      <c r="C128" s="244"/>
+      <c r="D128" s="145"/>
+      <c r="E128" s="143"/>
       <c r="F128" s="77" t="s">
         <v>304</v>
       </c>
       <c r="G128" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="H128" s="155"/>
-      <c r="I128" s="173"/>
+      <c r="H128" s="141"/>
+      <c r="I128" s="139"/>
       <c r="J128" s="22"/>
       <c r="K128" s="22"/>
       <c r="L128" s="22"/>
       <c r="M128" s="23"/>
     </row>
     <row r="129" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B129" s="145"/>
-      <c r="C129" s="163"/>
-      <c r="D129" s="211">
+      <c r="B129" s="235"/>
+      <c r="C129" s="244"/>
+      <c r="D129" s="144">
         <v>35</v>
       </c>
-      <c r="E129" s="150" t="s">
+      <c r="E129" s="142" t="s">
         <v>235</v>
       </c>
       <c r="F129" s="77" t="s">
@@ -8172,10 +8578,10 @@
       <c r="G129" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="H129" s="153" t="s">
+      <c r="H129" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="I129" s="171" t="s">
+      <c r="I129" s="138" t="s">
         <v>420</v>
       </c>
       <c r="J129" s="22"/>
@@ -8184,66 +8590,66 @@
       <c r="M129" s="23"/>
     </row>
     <row r="130" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B130" s="145"/>
-      <c r="C130" s="163"/>
-      <c r="D130" s="212"/>
-      <c r="E130" s="151"/>
+      <c r="B130" s="235"/>
+      <c r="C130" s="244"/>
+      <c r="D130" s="146"/>
+      <c r="E130" s="149"/>
       <c r="F130" s="77" t="s">
         <v>306</v>
       </c>
       <c r="G130" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="H130" s="154"/>
-      <c r="I130" s="172"/>
+      <c r="H130" s="151"/>
+      <c r="I130" s="150"/>
       <c r="J130" s="22"/>
       <c r="K130" s="22"/>
       <c r="L130" s="22"/>
       <c r="M130" s="23"/>
     </row>
     <row r="131" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B131" s="145"/>
-      <c r="C131" s="163"/>
-      <c r="D131" s="212"/>
-      <c r="E131" s="151"/>
+      <c r="B131" s="235"/>
+      <c r="C131" s="244"/>
+      <c r="D131" s="146"/>
+      <c r="E131" s="149"/>
       <c r="F131" s="77" t="s">
         <v>506</v>
       </c>
       <c r="G131" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="H131" s="154"/>
-      <c r="I131" s="172"/>
+      <c r="H131" s="151"/>
+      <c r="I131" s="150"/>
       <c r="J131" s="22"/>
       <c r="K131" s="22"/>
       <c r="L131" s="22"/>
       <c r="M131" s="23"/>
     </row>
     <row r="132" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B132" s="145"/>
-      <c r="C132" s="163"/>
-      <c r="D132" s="213"/>
-      <c r="E132" s="152"/>
+      <c r="B132" s="235"/>
+      <c r="C132" s="244"/>
+      <c r="D132" s="145"/>
+      <c r="E132" s="143"/>
       <c r="F132" s="77" t="s">
         <v>507</v>
       </c>
       <c r="G132" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="H132" s="155"/>
-      <c r="I132" s="173"/>
+      <c r="H132" s="141"/>
+      <c r="I132" s="139"/>
       <c r="J132" s="22"/>
       <c r="K132" s="22"/>
       <c r="L132" s="22"/>
       <c r="M132" s="23"/>
     </row>
     <row r="133" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B133" s="145"/>
-      <c r="C133" s="163"/>
-      <c r="D133" s="211">
+      <c r="B133" s="235"/>
+      <c r="C133" s="244"/>
+      <c r="D133" s="144">
         <v>36</v>
       </c>
-      <c r="E133" s="150" t="s">
+      <c r="E133" s="142" t="s">
         <v>239</v>
       </c>
       <c r="F133" s="77" t="s">
@@ -8252,10 +8658,10 @@
       <c r="G133" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="H133" s="153" t="s">
+      <c r="H133" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="I133" s="171" t="s">
+      <c r="I133" s="138" t="s">
         <v>421</v>
       </c>
       <c r="J133" s="22"/>
@@ -8264,66 +8670,66 @@
       <c r="M133" s="23"/>
     </row>
     <row r="134" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B134" s="145"/>
-      <c r="C134" s="163"/>
-      <c r="D134" s="212"/>
-      <c r="E134" s="151"/>
+      <c r="B134" s="235"/>
+      <c r="C134" s="244"/>
+      <c r="D134" s="146"/>
+      <c r="E134" s="149"/>
       <c r="F134" s="77" t="s">
         <v>308</v>
       </c>
       <c r="G134" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="H134" s="154"/>
-      <c r="I134" s="172"/>
+      <c r="H134" s="151"/>
+      <c r="I134" s="150"/>
       <c r="J134" s="22"/>
       <c r="K134" s="22"/>
       <c r="L134" s="22"/>
       <c r="M134" s="23"/>
     </row>
     <row r="135" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B135" s="145"/>
-      <c r="C135" s="163"/>
-      <c r="D135" s="212"/>
-      <c r="E135" s="151"/>
+      <c r="B135" s="235"/>
+      <c r="C135" s="244"/>
+      <c r="D135" s="146"/>
+      <c r="E135" s="149"/>
       <c r="F135" s="77" t="s">
         <v>309</v>
       </c>
       <c r="G135" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="H135" s="154"/>
-      <c r="I135" s="172"/>
+      <c r="H135" s="151"/>
+      <c r="I135" s="150"/>
       <c r="J135" s="22"/>
       <c r="K135" s="22"/>
       <c r="L135" s="22"/>
       <c r="M135" s="23"/>
     </row>
     <row r="136" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B136" s="145"/>
-      <c r="C136" s="163"/>
-      <c r="D136" s="213"/>
-      <c r="E136" s="152"/>
+      <c r="B136" s="235"/>
+      <c r="C136" s="244"/>
+      <c r="D136" s="145"/>
+      <c r="E136" s="143"/>
       <c r="F136" s="77" t="s">
         <v>310</v>
       </c>
       <c r="G136" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="H136" s="155"/>
-      <c r="I136" s="173"/>
+      <c r="H136" s="141"/>
+      <c r="I136" s="139"/>
       <c r="J136" s="22"/>
       <c r="K136" s="22"/>
       <c r="L136" s="22"/>
       <c r="M136" s="23"/>
     </row>
     <row r="137" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B137" s="145"/>
-      <c r="C137" s="163"/>
-      <c r="D137" s="211">
+      <c r="B137" s="235"/>
+      <c r="C137" s="244"/>
+      <c r="D137" s="144">
         <v>37</v>
       </c>
-      <c r="E137" s="150" t="s">
+      <c r="E137" s="142" t="s">
         <v>242</v>
       </c>
       <c r="F137" s="77" t="s">
@@ -8332,10 +8738,10 @@
       <c r="G137" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="H137" s="153" t="s">
+      <c r="H137" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="I137" s="171" t="s">
+      <c r="I137" s="138" t="s">
         <v>422</v>
       </c>
       <c r="J137" s="22"/>
@@ -8344,30 +8750,30 @@
       <c r="M137" s="23"/>
     </row>
     <row r="138" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B138" s="145"/>
-      <c r="C138" s="163"/>
-      <c r="D138" s="213"/>
-      <c r="E138" s="152"/>
+      <c r="B138" s="235"/>
+      <c r="C138" s="244"/>
+      <c r="D138" s="145"/>
+      <c r="E138" s="143"/>
       <c r="F138" s="77" t="s">
         <v>508</v>
       </c>
       <c r="G138" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="H138" s="155"/>
-      <c r="I138" s="173"/>
+      <c r="H138" s="141"/>
+      <c r="I138" s="139"/>
       <c r="J138" s="22"/>
       <c r="K138" s="22"/>
       <c r="L138" s="22"/>
       <c r="M138" s="23"/>
     </row>
     <row r="139" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B139" s="145"/>
-      <c r="C139" s="163"/>
-      <c r="D139" s="211">
+      <c r="B139" s="235"/>
+      <c r="C139" s="244"/>
+      <c r="D139" s="144">
         <v>38</v>
       </c>
-      <c r="E139" s="150" t="s">
+      <c r="E139" s="142" t="s">
         <v>248</v>
       </c>
       <c r="F139" s="77" t="s">
@@ -8376,10 +8782,10 @@
       <c r="G139" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="H139" s="153" t="s">
+      <c r="H139" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="I139" s="171" t="s">
+      <c r="I139" s="138" t="s">
         <v>423</v>
       </c>
       <c r="J139" s="22"/>
@@ -8388,32 +8794,32 @@
       <c r="M139" s="23"/>
     </row>
     <row r="140" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B140" s="145"/>
-      <c r="C140" s="163"/>
-      <c r="D140" s="213"/>
-      <c r="E140" s="152"/>
+      <c r="B140" s="235"/>
+      <c r="C140" s="244"/>
+      <c r="D140" s="145"/>
+      <c r="E140" s="143"/>
       <c r="F140" s="77" t="s">
         <v>313</v>
       </c>
       <c r="G140" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="H140" s="155"/>
-      <c r="I140" s="173"/>
+      <c r="H140" s="141"/>
+      <c r="I140" s="139"/>
       <c r="J140" s="22"/>
       <c r="K140" s="22"/>
       <c r="L140" s="22"/>
       <c r="M140" s="23"/>
     </row>
     <row r="141" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B141" s="145"/>
-      <c r="C141" s="201" t="s">
+      <c r="B141" s="235"/>
+      <c r="C141" s="196" t="s">
         <v>29</v>
       </c>
-      <c r="D141" s="211">
+      <c r="D141" s="144">
         <v>39</v>
       </c>
-      <c r="E141" s="150" t="s">
+      <c r="E141" s="142" t="s">
         <v>269</v>
       </c>
       <c r="F141" s="77" t="s">
@@ -8422,38 +8828,38 @@
       <c r="G141" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="H141" s="153" t="s">
+      <c r="H141" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="I141" s="171"/>
+      <c r="I141" s="138"/>
       <c r="J141" s="22"/>
       <c r="K141" s="22"/>
       <c r="L141" s="22"/>
       <c r="M141" s="23"/>
     </row>
     <row r="142" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="146"/>
-      <c r="C142" s="235"/>
-      <c r="D142" s="213"/>
-      <c r="E142" s="152"/>
+      <c r="B142" s="236"/>
+      <c r="C142" s="197"/>
+      <c r="D142" s="145"/>
+      <c r="E142" s="143"/>
       <c r="F142" s="77" t="s">
         <v>315</v>
       </c>
       <c r="G142" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="H142" s="155"/>
-      <c r="I142" s="173"/>
+      <c r="H142" s="141"/>
+      <c r="I142" s="139"/>
       <c r="J142" s="22"/>
       <c r="K142" s="22"/>
       <c r="L142" s="22"/>
       <c r="M142" s="23"/>
     </row>
     <row r="143" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B143" s="156" t="s">
+      <c r="B143" s="237" t="s">
         <v>472</v>
       </c>
-      <c r="C143" s="117" t="s">
+      <c r="C143" s="121" t="s">
         <v>44</v>
       </c>
       <c r="D143" s="73">
@@ -8480,12 +8886,12 @@
       <c r="M143" s="23"/>
     </row>
     <row r="144" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B144" s="157"/>
-      <c r="C144" s="118"/>
-      <c r="D144" s="147">
+      <c r="B144" s="238"/>
+      <c r="C144" s="122"/>
+      <c r="D144" s="182">
         <v>41</v>
       </c>
-      <c r="E144" s="150" t="s">
+      <c r="E144" s="142" t="s">
         <v>445</v>
       </c>
       <c r="F144" s="77" t="s">
@@ -8494,7 +8900,7 @@
       <c r="G144" s="54" t="s">
         <v>447</v>
       </c>
-      <c r="H144" s="153" t="s">
+      <c r="H144" s="140" t="s">
         <v>40</v>
       </c>
       <c r="I144" s="54"/>
@@ -8504,17 +8910,17 @@
       <c r="M144" s="23"/>
     </row>
     <row r="145" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B145" s="157"/>
-      <c r="C145" s="119"/>
-      <c r="D145" s="149"/>
-      <c r="E145" s="152"/>
+      <c r="B145" s="238"/>
+      <c r="C145" s="123"/>
+      <c r="D145" s="183"/>
+      <c r="E145" s="143"/>
       <c r="F145" s="77" t="s">
         <v>318</v>
       </c>
       <c r="G145" s="54" t="s">
         <v>446</v>
       </c>
-      <c r="H145" s="155"/>
+      <c r="H145" s="141"/>
       <c r="I145" s="45"/>
       <c r="J145" s="22"/>
       <c r="K145" s="22"/>
@@ -8522,8 +8928,8 @@
       <c r="M145" s="23"/>
     </row>
     <row r="146" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B146" s="157"/>
-      <c r="C146" s="164" t="s">
+      <c r="B146" s="238"/>
+      <c r="C146" s="245" t="s">
         <v>45</v>
       </c>
       <c r="D146" s="73">
@@ -8550,12 +8956,12 @@
       <c r="M146" s="23"/>
     </row>
     <row r="147" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B147" s="157"/>
-      <c r="C147" s="165"/>
-      <c r="D147" s="147">
+      <c r="B147" s="238"/>
+      <c r="C147" s="246"/>
+      <c r="D147" s="182">
         <v>43</v>
       </c>
-      <c r="E147" s="150" t="s">
+      <c r="E147" s="142" t="s">
         <v>255</v>
       </c>
       <c r="F147" s="77" t="s">
@@ -8564,7 +8970,7 @@
       <c r="G147" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="H147" s="153" t="s">
+      <c r="H147" s="140" t="s">
         <v>108</v>
       </c>
       <c r="I147" s="54" t="s">
@@ -8575,18 +8981,18 @@
       <c r="L147" s="22"/>
       <c r="M147" s="23"/>
     </row>
-    <row r="148" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B148" s="157"/>
-      <c r="C148" s="165"/>
-      <c r="D148" s="148"/>
-      <c r="E148" s="151"/>
+    <row r="148" spans="2:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="B148" s="238"/>
+      <c r="C148" s="246"/>
+      <c r="D148" s="203"/>
+      <c r="E148" s="149"/>
       <c r="F148" s="77" t="s">
         <v>321</v>
       </c>
       <c r="G148" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="H148" s="154"/>
+      <c r="H148" s="151"/>
       <c r="I148" s="54" t="s">
         <v>347</v>
       </c>
@@ -8596,17 +9002,17 @@
       <c r="M148" s="23"/>
     </row>
     <row r="149" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B149" s="157"/>
-      <c r="C149" s="165"/>
-      <c r="D149" s="148"/>
-      <c r="E149" s="151"/>
+      <c r="B149" s="238"/>
+      <c r="C149" s="246"/>
+      <c r="D149" s="203"/>
+      <c r="E149" s="149"/>
       <c r="F149" s="77" t="s">
         <v>509</v>
       </c>
       <c r="G149" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="H149" s="154"/>
+      <c r="H149" s="151"/>
       <c r="I149" s="54" t="s">
         <v>348</v>
       </c>
@@ -8616,17 +9022,17 @@
       <c r="M149" s="23"/>
     </row>
     <row r="150" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B150" s="157"/>
-      <c r="C150" s="166"/>
-      <c r="D150" s="149"/>
-      <c r="E150" s="152"/>
+      <c r="B150" s="238"/>
+      <c r="C150" s="247"/>
+      <c r="D150" s="183"/>
+      <c r="E150" s="143"/>
       <c r="F150" s="77" t="s">
         <v>510</v>
       </c>
       <c r="G150" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="H150" s="155"/>
+      <c r="H150" s="141"/>
       <c r="I150" s="54" t="s">
         <v>425</v>
       </c>
@@ -8636,7 +9042,7 @@
       <c r="M150" s="23"/>
     </row>
     <row r="151" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B151" s="157"/>
+      <c r="B151" s="238"/>
       <c r="C151" s="71" t="s">
         <v>80</v>
       </c>
@@ -8664,14 +9070,14 @@
       <c r="M151" s="23"/>
     </row>
     <row r="152" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B152" s="157"/>
-      <c r="C152" s="219" t="s">
+      <c r="B152" s="238"/>
+      <c r="C152" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="D152" s="225">
+      <c r="D152" s="179">
         <v>45</v>
       </c>
-      <c r="E152" s="150" t="s">
+      <c r="E152" s="142" t="s">
         <v>178</v>
       </c>
       <c r="F152" s="77" t="s">
@@ -8680,10 +9086,10 @@
       <c r="G152" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="H152" s="168" t="s">
+      <c r="H152" s="205" t="s">
         <v>108</v>
       </c>
-      <c r="I152" s="171" t="s">
+      <c r="I152" s="138" t="s">
         <v>360</v>
       </c>
       <c r="J152" s="53"/>
@@ -8692,68 +9098,68 @@
       <c r="M152" s="61"/>
     </row>
     <row r="153" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B153" s="157"/>
-      <c r="C153" s="220"/>
-      <c r="D153" s="226"/>
-      <c r="E153" s="151"/>
+      <c r="B153" s="238"/>
+      <c r="C153" s="201"/>
+      <c r="D153" s="180"/>
+      <c r="E153" s="149"/>
       <c r="F153" s="77" t="s">
         <v>324</v>
       </c>
       <c r="G153" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="H153" s="169"/>
-      <c r="I153" s="172"/>
+      <c r="H153" s="206"/>
+      <c r="I153" s="150"/>
       <c r="J153" s="53"/>
       <c r="K153" s="36"/>
       <c r="L153" s="36"/>
       <c r="M153" s="61"/>
     </row>
     <row r="154" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B154" s="157"/>
-      <c r="C154" s="220"/>
-      <c r="D154" s="226"/>
-      <c r="E154" s="151"/>
+      <c r="B154" s="238"/>
+      <c r="C154" s="201"/>
+      <c r="D154" s="180"/>
+      <c r="E154" s="149"/>
       <c r="F154" s="77" t="s">
         <v>325</v>
       </c>
       <c r="G154" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="H154" s="169"/>
-      <c r="I154" s="172"/>
+      <c r="H154" s="206"/>
+      <c r="I154" s="150"/>
       <c r="J154" s="53"/>
       <c r="K154" s="36"/>
       <c r="L154" s="36"/>
       <c r="M154" s="61"/>
     </row>
     <row r="155" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B155" s="157"/>
-      <c r="C155" s="221"/>
-      <c r="D155" s="227"/>
-      <c r="E155" s="152"/>
+      <c r="B155" s="238"/>
+      <c r="C155" s="202"/>
+      <c r="D155" s="181"/>
+      <c r="E155" s="143"/>
       <c r="F155" s="77" t="s">
         <v>326</v>
       </c>
       <c r="G155" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="H155" s="170"/>
-      <c r="I155" s="173"/>
+      <c r="H155" s="207"/>
+      <c r="I155" s="139"/>
       <c r="J155" s="53"/>
       <c r="K155" s="36"/>
       <c r="L155" s="36"/>
       <c r="M155" s="61"/>
     </row>
     <row r="156" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B156" s="157"/>
-      <c r="C156" s="182" t="s">
+      <c r="B156" s="238"/>
+      <c r="C156" s="251" t="s">
         <v>399</v>
       </c>
-      <c r="D156" s="147">
+      <c r="D156" s="182">
         <v>46</v>
       </c>
-      <c r="E156" s="150" t="s">
+      <c r="E156" s="142" t="s">
         <v>201</v>
       </c>
       <c r="F156" s="79" t="s">
@@ -8762,10 +9168,10 @@
       <c r="G156" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="H156" s="153" t="s">
+      <c r="H156" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="I156" s="216" t="s">
+      <c r="I156" s="171" t="s">
         <v>437</v>
       </c>
       <c r="J156" s="22"/>
@@ -8774,32 +9180,32 @@
       <c r="M156" s="23"/>
     </row>
     <row r="157" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="157"/>
-      <c r="C157" s="183"/>
-      <c r="D157" s="149"/>
-      <c r="E157" s="152"/>
+      <c r="B157" s="238"/>
+      <c r="C157" s="252"/>
+      <c r="D157" s="183"/>
+      <c r="E157" s="143"/>
       <c r="F157" s="79" t="s">
         <v>328</v>
       </c>
       <c r="G157" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="H157" s="155"/>
-      <c r="I157" s="224"/>
+      <c r="H157" s="141"/>
+      <c r="I157" s="204"/>
       <c r="J157" s="22"/>
       <c r="K157" s="22"/>
       <c r="L157" s="22"/>
       <c r="M157" s="23"/>
     </row>
     <row r="158" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B158" s="157"/>
-      <c r="C158" s="232" t="s">
+      <c r="B158" s="238"/>
+      <c r="C158" s="192" t="s">
         <v>386</v>
       </c>
-      <c r="D158" s="225">
+      <c r="D158" s="179">
         <v>47</v>
       </c>
-      <c r="E158" s="150" t="s">
+      <c r="E158" s="142" t="s">
         <v>375</v>
       </c>
       <c r="F158" s="77" t="s">
@@ -8808,10 +9214,10 @@
       <c r="G158" s="54" t="s">
         <v>376</v>
       </c>
-      <c r="H158" s="168" t="s">
+      <c r="H158" s="205" t="s">
         <v>108</v>
       </c>
-      <c r="I158" s="171" t="s">
+      <c r="I158" s="138" t="s">
         <v>378</v>
       </c>
       <c r="J158" s="53"/>
@@ -8820,86 +9226,86 @@
       <c r="M158" s="61"/>
     </row>
     <row r="159" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B159" s="157"/>
-      <c r="C159" s="233"/>
-      <c r="D159" s="226"/>
-      <c r="E159" s="151"/>
+      <c r="B159" s="238"/>
+      <c r="C159" s="193"/>
+      <c r="D159" s="180"/>
+      <c r="E159" s="149"/>
       <c r="F159" s="77" t="s">
         <v>330</v>
       </c>
       <c r="G159" s="54" t="s">
         <v>374</v>
       </c>
-      <c r="H159" s="169"/>
-      <c r="I159" s="172"/>
+      <c r="H159" s="206"/>
+      <c r="I159" s="150"/>
       <c r="J159" s="53"/>
       <c r="K159" s="36"/>
       <c r="L159" s="36"/>
       <c r="M159" s="61"/>
     </row>
     <row r="160" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B160" s="157"/>
-      <c r="C160" s="233"/>
-      <c r="D160" s="226"/>
-      <c r="E160" s="151"/>
+      <c r="B160" s="238"/>
+      <c r="C160" s="193"/>
+      <c r="D160" s="180"/>
+      <c r="E160" s="149"/>
       <c r="F160" s="77" t="s">
         <v>331</v>
       </c>
       <c r="G160" s="54" t="s">
         <v>462</v>
       </c>
-      <c r="H160" s="169"/>
-      <c r="I160" s="172"/>
+      <c r="H160" s="206"/>
+      <c r="I160" s="150"/>
       <c r="J160" s="53"/>
       <c r="K160" s="36"/>
       <c r="L160" s="36"/>
       <c r="M160" s="61"/>
     </row>
     <row r="161" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B161" s="157"/>
-      <c r="C161" s="233"/>
-      <c r="D161" s="226"/>
-      <c r="E161" s="151"/>
+      <c r="B161" s="238"/>
+      <c r="C161" s="193"/>
+      <c r="D161" s="180"/>
+      <c r="E161" s="149"/>
       <c r="F161" s="77" t="s">
         <v>393</v>
       </c>
       <c r="G161" s="54" t="s">
         <v>385</v>
       </c>
-      <c r="H161" s="169"/>
-      <c r="I161" s="172"/>
+      <c r="H161" s="206"/>
+      <c r="I161" s="150"/>
       <c r="J161" s="53"/>
       <c r="K161" s="36"/>
       <c r="L161" s="36"/>
       <c r="M161" s="61"/>
     </row>
     <row r="162" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B162" s="157"/>
-      <c r="C162" s="234"/>
-      <c r="D162" s="227"/>
-      <c r="E162" s="152"/>
+      <c r="B162" s="238"/>
+      <c r="C162" s="194"/>
+      <c r="D162" s="181"/>
+      <c r="E162" s="143"/>
       <c r="F162" s="77" t="s">
         <v>511</v>
       </c>
       <c r="G162" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="H162" s="170"/>
-      <c r="I162" s="173"/>
+      <c r="H162" s="207"/>
+      <c r="I162" s="139"/>
       <c r="J162" s="53"/>
       <c r="K162" s="36"/>
       <c r="L162" s="36"/>
       <c r="M162" s="61"/>
     </row>
     <row r="163" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B163" s="157"/>
-      <c r="C163" s="229" t="s">
+      <c r="B163" s="238"/>
+      <c r="C163" s="189" t="s">
         <v>29</v>
       </c>
-      <c r="D163" s="147">
+      <c r="D163" s="182">
         <v>48</v>
       </c>
-      <c r="E163" s="150" t="s">
+      <c r="E163" s="142" t="s">
         <v>269</v>
       </c>
       <c r="F163" s="77" t="s">
@@ -8908,62 +9314,62 @@
       <c r="G163" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="H163" s="153" t="s">
+      <c r="H163" s="140" t="s">
         <v>40</v>
       </c>
-      <c r="I163" s="171"/>
+      <c r="I163" s="138"/>
       <c r="J163" s="22"/>
       <c r="K163" s="22"/>
       <c r="L163" s="22"/>
       <c r="M163" s="23"/>
     </row>
     <row r="164" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B164" s="157"/>
-      <c r="C164" s="230"/>
-      <c r="D164" s="148"/>
-      <c r="E164" s="151"/>
+      <c r="B164" s="238"/>
+      <c r="C164" s="190"/>
+      <c r="D164" s="203"/>
+      <c r="E164" s="149"/>
       <c r="F164" s="77" t="s">
         <v>333</v>
       </c>
       <c r="G164" s="54" t="s">
         <v>336</v>
       </c>
-      <c r="H164" s="154"/>
-      <c r="I164" s="172"/>
+      <c r="H164" s="151"/>
+      <c r="I164" s="150"/>
       <c r="J164" s="22"/>
       <c r="K164" s="22"/>
       <c r="L164" s="22"/>
       <c r="M164" s="23"/>
     </row>
     <row r="165" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="158"/>
-      <c r="C165" s="231"/>
-      <c r="D165" s="149"/>
-      <c r="E165" s="152"/>
+      <c r="B165" s="239"/>
+      <c r="C165" s="191"/>
+      <c r="D165" s="183"/>
+      <c r="E165" s="143"/>
       <c r="F165" s="77" t="s">
         <v>412</v>
       </c>
       <c r="G165" s="54" t="s">
         <v>470</v>
       </c>
-      <c r="H165" s="155"/>
-      <c r="I165" s="173"/>
+      <c r="H165" s="141"/>
+      <c r="I165" s="139"/>
       <c r="J165" s="22"/>
       <c r="K165" s="22"/>
       <c r="L165" s="22"/>
       <c r="M165" s="23"/>
     </row>
     <row r="166" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B166" s="159">
+      <c r="B166" s="240">
         <v>3</v>
       </c>
-      <c r="C166" s="222" t="s">
+      <c r="C166" s="198" t="s">
         <v>45</v>
       </c>
-      <c r="D166" s="211">
+      <c r="D166" s="144">
         <v>49</v>
       </c>
-      <c r="E166" s="174" t="s">
+      <c r="E166" s="156" t="s">
         <v>350</v>
       </c>
       <c r="F166" s="77" t="s">
@@ -8972,7 +9378,7 @@
       <c r="G166" s="54" t="s">
         <v>351</v>
       </c>
-      <c r="H166" s="153" t="s">
+      <c r="H166" s="140" t="s">
         <v>108</v>
       </c>
       <c r="I166" s="45"/>
@@ -8982,17 +9388,17 @@
       <c r="M166" s="23"/>
     </row>
     <row r="167" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B167" s="160"/>
-      <c r="C167" s="223"/>
-      <c r="D167" s="212"/>
-      <c r="E167" s="175"/>
+      <c r="B167" s="241"/>
+      <c r="C167" s="199"/>
+      <c r="D167" s="146"/>
+      <c r="E167" s="157"/>
       <c r="F167" s="77" t="s">
         <v>335</v>
       </c>
       <c r="G167" s="54" t="s">
         <v>453</v>
       </c>
-      <c r="H167" s="154"/>
+      <c r="H167" s="151"/>
       <c r="I167" s="45"/>
       <c r="J167" s="22"/>
       <c r="K167" s="22"/>
@@ -9000,17 +9406,17 @@
       <c r="M167" s="23"/>
     </row>
     <row r="168" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B168" s="160"/>
-      <c r="C168" s="223"/>
-      <c r="D168" s="212"/>
-      <c r="E168" s="175"/>
+      <c r="B168" s="241"/>
+      <c r="C168" s="199"/>
+      <c r="D168" s="146"/>
+      <c r="E168" s="157"/>
       <c r="F168" s="77" t="s">
         <v>502</v>
       </c>
       <c r="G168" s="54" t="s">
         <v>380</v>
       </c>
-      <c r="H168" s="154"/>
+      <c r="H168" s="151"/>
       <c r="I168" s="45"/>
       <c r="J168" s="22"/>
       <c r="K168" s="22"/>
@@ -9018,17 +9424,17 @@
       <c r="M168" s="23"/>
     </row>
     <row r="169" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B169" s="160"/>
-      <c r="C169" s="223"/>
-      <c r="D169" s="212"/>
-      <c r="E169" s="175"/>
+      <c r="B169" s="241"/>
+      <c r="C169" s="199"/>
+      <c r="D169" s="146"/>
+      <c r="E169" s="157"/>
       <c r="F169" s="77" t="s">
         <v>503</v>
       </c>
       <c r="G169" s="54" t="s">
         <v>381</v>
       </c>
-      <c r="H169" s="154"/>
+      <c r="H169" s="151"/>
       <c r="I169" s="45"/>
       <c r="J169" s="22"/>
       <c r="K169" s="22"/>
@@ -9036,17 +9442,17 @@
       <c r="M169" s="23"/>
     </row>
     <row r="170" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B170" s="160"/>
-      <c r="C170" s="223"/>
-      <c r="D170" s="212"/>
-      <c r="E170" s="175"/>
+      <c r="B170" s="241"/>
+      <c r="C170" s="199"/>
+      <c r="D170" s="146"/>
+      <c r="E170" s="157"/>
       <c r="F170" s="77" t="s">
         <v>504</v>
       </c>
       <c r="G170" s="54" t="s">
         <v>454</v>
       </c>
-      <c r="H170" s="154"/>
+      <c r="H170" s="151"/>
       <c r="I170" s="45"/>
       <c r="J170" s="22"/>
       <c r="K170" s="22"/>
@@ -9054,17 +9460,17 @@
       <c r="M170" s="23"/>
     </row>
     <row r="171" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B171" s="160"/>
-      <c r="C171" s="223"/>
-      <c r="D171" s="213"/>
-      <c r="E171" s="176"/>
+      <c r="B171" s="241"/>
+      <c r="C171" s="199"/>
+      <c r="D171" s="145"/>
+      <c r="E171" s="158"/>
       <c r="F171" s="77" t="s">
         <v>505</v>
       </c>
       <c r="G171" s="54" t="s">
         <v>455</v>
       </c>
-      <c r="H171" s="155"/>
+      <c r="H171" s="141"/>
       <c r="I171" s="45"/>
       <c r="J171" s="22"/>
       <c r="K171" s="22"/>
@@ -9072,7 +9478,7 @@
       <c r="M171" s="23"/>
     </row>
     <row r="172" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B172" s="160"/>
+      <c r="B172" s="241"/>
       <c r="C172" s="72" t="s">
         <v>184</v>
       </c>
@@ -9098,14 +9504,14 @@
       <c r="M172" s="23"/>
     </row>
     <row r="173" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B173" s="160"/>
-      <c r="C173" s="167" t="s">
+      <c r="B173" s="241"/>
+      <c r="C173" s="248" t="s">
         <v>214</v>
       </c>
-      <c r="D173" s="211">
+      <c r="D173" s="144">
         <v>51</v>
       </c>
-      <c r="E173" s="150" t="s">
+      <c r="E173" s="142" t="s">
         <v>258</v>
       </c>
       <c r="F173" s="77" t="s">
@@ -9114,40 +9520,40 @@
       <c r="G173" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="H173" s="153" t="s">
+      <c r="H173" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="I173" s="171"/>
+      <c r="I173" s="138"/>
       <c r="J173" s="22"/>
       <c r="K173" s="22"/>
       <c r="L173" s="22"/>
       <c r="M173" s="23"/>
     </row>
     <row r="174" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B174" s="160"/>
-      <c r="C174" s="167"/>
-      <c r="D174" s="213"/>
-      <c r="E174" s="152"/>
+      <c r="B174" s="241"/>
+      <c r="C174" s="248"/>
+      <c r="D174" s="145"/>
+      <c r="E174" s="143"/>
       <c r="F174" s="77" t="s">
         <v>395</v>
       </c>
       <c r="G174" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="H174" s="155"/>
-      <c r="I174" s="173"/>
+      <c r="H174" s="141"/>
+      <c r="I174" s="139"/>
       <c r="J174" s="22"/>
       <c r="K174" s="22"/>
       <c r="L174" s="22"/>
       <c r="M174" s="23"/>
     </row>
     <row r="175" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B175" s="160"/>
-      <c r="C175" s="167"/>
-      <c r="D175" s="211">
+      <c r="B175" s="241"/>
+      <c r="C175" s="248"/>
+      <c r="D175" s="144">
         <v>52</v>
       </c>
-      <c r="E175" s="150" t="s">
+      <c r="E175" s="142" t="s">
         <v>217</v>
       </c>
       <c r="F175" s="77" t="s">
@@ -9156,108 +9562,108 @@
       <c r="G175" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="H175" s="153" t="s">
+      <c r="H175" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="I175" s="171"/>
+      <c r="I175" s="138"/>
       <c r="J175" s="22"/>
       <c r="K175" s="22"/>
       <c r="L175" s="22"/>
       <c r="M175" s="23"/>
     </row>
     <row r="176" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B176" s="160"/>
-      <c r="C176" s="167"/>
-      <c r="D176" s="212"/>
-      <c r="E176" s="151"/>
+      <c r="B176" s="241"/>
+      <c r="C176" s="248"/>
+      <c r="D176" s="146"/>
+      <c r="E176" s="149"/>
       <c r="F176" s="77" t="s">
         <v>397</v>
       </c>
       <c r="G176" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="H176" s="154"/>
-      <c r="I176" s="172"/>
+      <c r="H176" s="151"/>
+      <c r="I176" s="150"/>
       <c r="J176" s="22"/>
       <c r="K176" s="22"/>
       <c r="L176" s="22"/>
       <c r="M176" s="23"/>
     </row>
     <row r="177" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B177" s="160"/>
-      <c r="C177" s="167"/>
-      <c r="D177" s="212"/>
-      <c r="E177" s="151"/>
+      <c r="B177" s="241"/>
+      <c r="C177" s="248"/>
+      <c r="D177" s="146"/>
+      <c r="E177" s="149"/>
       <c r="F177" s="77" t="s">
         <v>413</v>
       </c>
       <c r="G177" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="H177" s="154"/>
-      <c r="I177" s="172"/>
+      <c r="H177" s="151"/>
+      <c r="I177" s="150"/>
       <c r="J177" s="22"/>
       <c r="K177" s="22"/>
       <c r="L177" s="22"/>
       <c r="M177" s="23"/>
     </row>
     <row r="178" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B178" s="160"/>
-      <c r="C178" s="167"/>
-      <c r="D178" s="212"/>
-      <c r="E178" s="151"/>
+      <c r="B178" s="241"/>
+      <c r="C178" s="248"/>
+      <c r="D178" s="146"/>
+      <c r="E178" s="149"/>
       <c r="F178" s="77" t="s">
         <v>512</v>
       </c>
       <c r="G178" s="54" t="s">
         <v>461</v>
       </c>
-      <c r="H178" s="154"/>
-      <c r="I178" s="172"/>
+      <c r="H178" s="151"/>
+      <c r="I178" s="150"/>
       <c r="J178" s="22"/>
       <c r="K178" s="22"/>
       <c r="L178" s="22"/>
       <c r="M178" s="23"/>
     </row>
     <row r="179" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B179" s="160"/>
-      <c r="C179" s="167"/>
-      <c r="D179" s="212"/>
-      <c r="E179" s="151"/>
+      <c r="B179" s="241"/>
+      <c r="C179" s="248"/>
+      <c r="D179" s="146"/>
+      <c r="E179" s="149"/>
       <c r="F179" s="77" t="s">
         <v>513</v>
       </c>
       <c r="G179" s="54" t="s">
         <v>364</v>
       </c>
-      <c r="H179" s="154"/>
-      <c r="I179" s="172"/>
+      <c r="H179" s="151"/>
+      <c r="I179" s="150"/>
       <c r="J179" s="22"/>
       <c r="K179" s="22"/>
       <c r="L179" s="22"/>
       <c r="M179" s="23"/>
     </row>
     <row r="180" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B180" s="160"/>
-      <c r="C180" s="167"/>
-      <c r="D180" s="213"/>
-      <c r="E180" s="152"/>
+      <c r="B180" s="241"/>
+      <c r="C180" s="248"/>
+      <c r="D180" s="145"/>
+      <c r="E180" s="143"/>
       <c r="F180" s="77" t="s">
         <v>514</v>
       </c>
       <c r="G180" s="54" t="s">
         <v>363</v>
       </c>
-      <c r="H180" s="155"/>
-      <c r="I180" s="173"/>
+      <c r="H180" s="141"/>
+      <c r="I180" s="139"/>
       <c r="J180" s="22"/>
       <c r="K180" s="22"/>
       <c r="L180" s="22"/>
       <c r="M180" s="23"/>
     </row>
     <row r="181" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B181" s="160"/>
-      <c r="C181" s="167"/>
+      <c r="B181" s="241"/>
+      <c r="C181" s="248"/>
       <c r="D181" s="75">
         <v>53</v>
       </c>
@@ -9279,13 +9685,13 @@
       <c r="L181" s="22"/>
       <c r="M181" s="23"/>
     </row>
-    <row r="182" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B182" s="160"/>
-      <c r="C182" s="167"/>
-      <c r="D182" s="211">
+    <row r="182" spans="2:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="B182" s="241"/>
+      <c r="C182" s="248"/>
+      <c r="D182" s="144">
         <v>54</v>
       </c>
-      <c r="E182" s="150" t="s">
+      <c r="E182" s="142" t="s">
         <v>224</v>
       </c>
       <c r="F182" s="77" t="s">
@@ -9294,78 +9700,78 @@
       <c r="G182" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="H182" s="153" t="s">
+      <c r="H182" s="140" t="s">
         <v>108</v>
       </c>
-      <c r="I182" s="171"/>
+      <c r="I182" s="138"/>
       <c r="J182" s="22"/>
       <c r="K182" s="22"/>
       <c r="L182" s="22"/>
       <c r="M182" s="23"/>
     </row>
     <row r="183" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B183" s="160"/>
-      <c r="C183" s="167"/>
-      <c r="D183" s="212"/>
-      <c r="E183" s="151"/>
+      <c r="B183" s="241"/>
+      <c r="C183" s="248"/>
+      <c r="D183" s="146"/>
+      <c r="E183" s="149"/>
       <c r="F183" s="77" t="s">
         <v>516</v>
       </c>
       <c r="G183" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="H183" s="154"/>
-      <c r="I183" s="172"/>
+      <c r="H183" s="151"/>
+      <c r="I183" s="150"/>
       <c r="J183" s="22"/>
       <c r="K183" s="22"/>
       <c r="L183" s="22"/>
       <c r="M183" s="23"/>
     </row>
     <row r="184" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B184" s="160"/>
-      <c r="C184" s="167"/>
-      <c r="D184" s="212"/>
-      <c r="E184" s="151"/>
+      <c r="B184" s="241"/>
+      <c r="C184" s="248"/>
+      <c r="D184" s="146"/>
+      <c r="E184" s="149"/>
       <c r="F184" s="77" t="s">
         <v>517</v>
       </c>
       <c r="G184" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="H184" s="154"/>
-      <c r="I184" s="172"/>
+      <c r="H184" s="151"/>
+      <c r="I184" s="150"/>
       <c r="J184" s="22"/>
       <c r="K184" s="22"/>
       <c r="L184" s="22"/>
       <c r="M184" s="23"/>
     </row>
     <row r="185" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B185" s="160"/>
-      <c r="C185" s="167"/>
-      <c r="D185" s="213"/>
-      <c r="E185" s="152"/>
+      <c r="B185" s="241"/>
+      <c r="C185" s="248"/>
+      <c r="D185" s="145"/>
+      <c r="E185" s="143"/>
       <c r="F185" s="77" t="s">
         <v>518</v>
       </c>
       <c r="G185" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="H185" s="155"/>
-      <c r="I185" s="173"/>
+      <c r="H185" s="141"/>
+      <c r="I185" s="139"/>
       <c r="J185" s="22"/>
       <c r="K185" s="22"/>
       <c r="L185" s="22"/>
       <c r="M185" s="23"/>
     </row>
     <row r="186" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B186" s="160"/>
-      <c r="C186" s="177" t="s">
+      <c r="B186" s="241"/>
+      <c r="C186" s="249" t="s">
         <v>391</v>
       </c>
-      <c r="D186" s="179">
+      <c r="D186" s="177">
         <v>55</v>
       </c>
-      <c r="E186" s="174" t="s">
+      <c r="E186" s="156" t="s">
         <v>382</v>
       </c>
       <c r="F186" s="77" t="s">
@@ -9374,10 +9780,10 @@
       <c r="G186" s="54" t="s">
         <v>383</v>
       </c>
-      <c r="H186" s="168" t="s">
+      <c r="H186" s="205" t="s">
         <v>108</v>
       </c>
-      <c r="I186" s="216" t="s">
+      <c r="I186" s="171" t="s">
         <v>424</v>
       </c>
       <c r="J186" s="53"/>
@@ -9386,183 +9792,246 @@
       <c r="M186" s="61"/>
     </row>
     <row r="187" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B187" s="160"/>
-      <c r="C187" s="177"/>
-      <c r="D187" s="180"/>
-      <c r="E187" s="175"/>
+      <c r="B187" s="241"/>
+      <c r="C187" s="249"/>
+      <c r="D187" s="178"/>
+      <c r="E187" s="157"/>
       <c r="F187" s="77" t="s">
         <v>520</v>
       </c>
       <c r="G187" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="H187" s="169"/>
-      <c r="I187" s="217"/>
+      <c r="H187" s="206"/>
+      <c r="I187" s="209"/>
       <c r="J187" s="53"/>
       <c r="K187" s="36"/>
       <c r="L187" s="36"/>
       <c r="M187" s="61"/>
     </row>
     <row r="188" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B188" s="160"/>
-      <c r="C188" s="177"/>
-      <c r="D188" s="180"/>
-      <c r="E188" s="175"/>
+      <c r="B188" s="241"/>
+      <c r="C188" s="249"/>
+      <c r="D188" s="178"/>
+      <c r="E188" s="157"/>
       <c r="F188" s="77" t="s">
         <v>521</v>
       </c>
       <c r="G188" s="54" t="s">
         <v>388</v>
       </c>
-      <c r="H188" s="169"/>
-      <c r="I188" s="217"/>
+      <c r="H188" s="206"/>
+      <c r="I188" s="209"/>
       <c r="J188" s="53"/>
       <c r="K188" s="36"/>
       <c r="L188" s="36"/>
       <c r="M188" s="61"/>
     </row>
     <row r="189" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B189" s="160"/>
-      <c r="C189" s="177"/>
-      <c r="D189" s="180"/>
-      <c r="E189" s="175"/>
+      <c r="B189" s="241"/>
+      <c r="C189" s="249"/>
+      <c r="D189" s="178"/>
+      <c r="E189" s="157"/>
       <c r="F189" s="77" t="s">
         <v>522</v>
       </c>
       <c r="G189" s="54" t="s">
         <v>389</v>
       </c>
-      <c r="H189" s="169"/>
-      <c r="I189" s="217"/>
+      <c r="H189" s="206"/>
+      <c r="I189" s="209"/>
       <c r="J189" s="53"/>
       <c r="K189" s="36"/>
       <c r="L189" s="36"/>
       <c r="M189" s="61"/>
     </row>
     <row r="190" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B190" s="160"/>
-      <c r="C190" s="177"/>
-      <c r="D190" s="180"/>
-      <c r="E190" s="175"/>
+      <c r="B190" s="241"/>
+      <c r="C190" s="249"/>
+      <c r="D190" s="178"/>
+      <c r="E190" s="157"/>
       <c r="F190" s="77" t="s">
         <v>523</v>
       </c>
       <c r="G190" s="54" t="s">
         <v>390</v>
       </c>
-      <c r="H190" s="169"/>
-      <c r="I190" s="217"/>
+      <c r="H190" s="206"/>
+      <c r="I190" s="209"/>
       <c r="J190" s="53"/>
       <c r="K190" s="36"/>
       <c r="L190" s="36"/>
       <c r="M190" s="61"/>
     </row>
     <row r="191" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="161"/>
-      <c r="C191" s="178"/>
-      <c r="D191" s="181"/>
-      <c r="E191" s="176"/>
+      <c r="B191" s="242"/>
+      <c r="C191" s="250"/>
+      <c r="D191" s="184"/>
+      <c r="E191" s="158"/>
       <c r="F191" s="77" t="s">
         <v>524</v>
       </c>
       <c r="G191" s="54" t="s">
         <v>392</v>
       </c>
-      <c r="H191" s="170"/>
-      <c r="I191" s="218"/>
+      <c r="H191" s="207"/>
+      <c r="I191" s="210"/>
       <c r="J191" s="53"/>
       <c r="K191" s="36"/>
       <c r="L191" s="36"/>
       <c r="M191" s="61"/>
     </row>
     <row r="192" spans="2:13" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="162" t="s">
+      <c r="B192" s="243" t="s">
         <v>16</v>
       </c>
-      <c r="C192" s="114"/>
-      <c r="D192" s="115"/>
-      <c r="E192" s="115"/>
-      <c r="F192" s="115"/>
-      <c r="G192" s="115"/>
-      <c r="H192" s="115"/>
-      <c r="I192" s="115"/>
-      <c r="J192" s="115"/>
-      <c r="K192" s="115"/>
-      <c r="L192" s="115"/>
-      <c r="M192" s="116"/>
+      <c r="C192" s="131"/>
+      <c r="D192" s="132"/>
+      <c r="E192" s="132"/>
+      <c r="F192" s="132"/>
+      <c r="G192" s="132"/>
+      <c r="H192" s="132"/>
+      <c r="I192" s="132"/>
+      <c r="J192" s="132"/>
+      <c r="K192" s="132"/>
+      <c r="L192" s="132"/>
+      <c r="M192" s="133"/>
     </row>
   </sheetData>
   <autoFilter ref="B8:M192" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="225">
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="H29:H32"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="D3:K5"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="E54:E59"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="H125:H128"/>
-    <mergeCell ref="H129:H132"/>
-    <mergeCell ref="H133:H136"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="I85:I89"/>
-    <mergeCell ref="H111:H113"/>
-    <mergeCell ref="H114:H118"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="H85:H89"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="H90:H93"/>
-    <mergeCell ref="I45:I50"/>
-    <mergeCell ref="H45:H50"/>
-    <mergeCell ref="H77:H82"/>
-    <mergeCell ref="H70:H76"/>
-    <mergeCell ref="H54:H59"/>
-    <mergeCell ref="H60:H66"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="I54:I59"/>
-    <mergeCell ref="I60:I66"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="I70:I76"/>
-    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="B111:B142"/>
+    <mergeCell ref="D147:D150"/>
+    <mergeCell ref="E147:E150"/>
+    <mergeCell ref="H147:H150"/>
+    <mergeCell ref="B143:B165"/>
+    <mergeCell ref="B166:B191"/>
+    <mergeCell ref="B192:M192"/>
+    <mergeCell ref="C125:C140"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="C146:C150"/>
+    <mergeCell ref="C173:C185"/>
+    <mergeCell ref="H144:H145"/>
+    <mergeCell ref="H152:H155"/>
+    <mergeCell ref="I111:I113"/>
+    <mergeCell ref="I114:I118"/>
+    <mergeCell ref="I119:I120"/>
+    <mergeCell ref="I141:I142"/>
+    <mergeCell ref="H158:H162"/>
+    <mergeCell ref="I158:I162"/>
+    <mergeCell ref="E186:E191"/>
+    <mergeCell ref="C186:C191"/>
+    <mergeCell ref="D186:D191"/>
+    <mergeCell ref="C156:C157"/>
+    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="B9:B110"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="C9:C28"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="C36:C44"/>
+    <mergeCell ref="C45:C53"/>
+    <mergeCell ref="C54:C69"/>
+    <mergeCell ref="C77:C84"/>
+    <mergeCell ref="C90:C97"/>
+    <mergeCell ref="C98:C110"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="H103:H105"/>
+    <mergeCell ref="H106:H108"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="I100:I102"/>
+    <mergeCell ref="I94:I97"/>
+    <mergeCell ref="I103:I105"/>
+    <mergeCell ref="I106:I108"/>
+    <mergeCell ref="I77:I82"/>
+    <mergeCell ref="I90:I93"/>
+    <mergeCell ref="D90:D93"/>
+    <mergeCell ref="H186:H191"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="H166:H171"/>
+    <mergeCell ref="I125:I128"/>
+    <mergeCell ref="I129:I132"/>
+    <mergeCell ref="I133:I136"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="I163:I165"/>
+    <mergeCell ref="H175:H180"/>
+    <mergeCell ref="H182:H185"/>
+    <mergeCell ref="H121:H124"/>
+    <mergeCell ref="I121:I124"/>
+    <mergeCell ref="I186:I191"/>
+    <mergeCell ref="I173:I174"/>
+    <mergeCell ref="I175:I180"/>
+    <mergeCell ref="I182:I185"/>
+    <mergeCell ref="D175:D180"/>
+    <mergeCell ref="D182:D185"/>
+    <mergeCell ref="C152:C155"/>
+    <mergeCell ref="C166:C171"/>
+    <mergeCell ref="D166:D171"/>
+    <mergeCell ref="E166:E171"/>
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="I152:I155"/>
+    <mergeCell ref="I156:I157"/>
+    <mergeCell ref="H156:H157"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="E182:E185"/>
+    <mergeCell ref="E163:E165"/>
+    <mergeCell ref="E175:E180"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="H163:H165"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="D121:D124"/>
+    <mergeCell ref="E121:E124"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="D114:D118"/>
+    <mergeCell ref="E114:E118"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="C163:C165"/>
+    <mergeCell ref="E125:E128"/>
+    <mergeCell ref="D125:D128"/>
+    <mergeCell ref="E129:E132"/>
+    <mergeCell ref="D129:D132"/>
+    <mergeCell ref="C158:C162"/>
+    <mergeCell ref="E158:E162"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="D133:D136"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="H94:H97"/>
+    <mergeCell ref="C70:C76"/>
+    <mergeCell ref="D70:D76"/>
+    <mergeCell ref="E70:E76"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="E77:E82"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="D85:D89"/>
+    <mergeCell ref="E85:E89"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="E94:E97"/>
     <mergeCell ref="D51:D53"/>
     <mergeCell ref="E36:E39"/>
     <mergeCell ref="D36:D39"/>
@@ -9587,138 +10056,75 @@
     <mergeCell ref="E43:E44"/>
     <mergeCell ref="D43:D44"/>
     <mergeCell ref="E133:E136"/>
-    <mergeCell ref="C70:C76"/>
-    <mergeCell ref="D70:D76"/>
-    <mergeCell ref="E70:E76"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="D77:D82"/>
-    <mergeCell ref="E77:E82"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="D85:D89"/>
-    <mergeCell ref="E85:E89"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="D133:D136"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="H94:H97"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="D121:D124"/>
-    <mergeCell ref="E121:E124"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="D114:D118"/>
-    <mergeCell ref="E114:E118"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="C163:C165"/>
-    <mergeCell ref="E125:E128"/>
-    <mergeCell ref="D125:D128"/>
-    <mergeCell ref="E129:E132"/>
-    <mergeCell ref="D129:D132"/>
-    <mergeCell ref="C158:C162"/>
-    <mergeCell ref="E158:E162"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="H100:H102"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="D175:D180"/>
-    <mergeCell ref="D182:D185"/>
-    <mergeCell ref="C152:C155"/>
-    <mergeCell ref="C166:C171"/>
-    <mergeCell ref="D166:D171"/>
-    <mergeCell ref="E166:E171"/>
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="I152:I155"/>
-    <mergeCell ref="I156:I157"/>
-    <mergeCell ref="H156:H157"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="E182:E185"/>
-    <mergeCell ref="E163:E165"/>
-    <mergeCell ref="E175:E180"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="H173:H174"/>
-    <mergeCell ref="H163:H165"/>
-    <mergeCell ref="H186:H191"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="H166:H171"/>
-    <mergeCell ref="I125:I128"/>
-    <mergeCell ref="I129:I132"/>
-    <mergeCell ref="I133:I136"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="I163:I165"/>
-    <mergeCell ref="H175:H180"/>
-    <mergeCell ref="H182:H185"/>
-    <mergeCell ref="H121:H124"/>
-    <mergeCell ref="I121:I124"/>
-    <mergeCell ref="I186:I191"/>
-    <mergeCell ref="I173:I174"/>
-    <mergeCell ref="I175:I180"/>
-    <mergeCell ref="I182:I185"/>
-    <mergeCell ref="B9:B110"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="C9:C28"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="C36:C44"/>
-    <mergeCell ref="C45:C53"/>
-    <mergeCell ref="C54:C69"/>
-    <mergeCell ref="C77:C84"/>
-    <mergeCell ref="C90:C97"/>
-    <mergeCell ref="C98:C110"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="H103:H105"/>
-    <mergeCell ref="H106:H108"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="I100:I102"/>
-    <mergeCell ref="I94:I97"/>
-    <mergeCell ref="I103:I105"/>
-    <mergeCell ref="I106:I108"/>
-    <mergeCell ref="I77:I82"/>
-    <mergeCell ref="I90:I93"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="B111:B142"/>
-    <mergeCell ref="D147:D150"/>
-    <mergeCell ref="E147:E150"/>
-    <mergeCell ref="H147:H150"/>
-    <mergeCell ref="B143:B165"/>
-    <mergeCell ref="B166:B191"/>
-    <mergeCell ref="B192:M192"/>
-    <mergeCell ref="C125:C140"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="C146:C150"/>
-    <mergeCell ref="C173:C185"/>
-    <mergeCell ref="H144:H145"/>
-    <mergeCell ref="H152:H155"/>
-    <mergeCell ref="I111:I113"/>
-    <mergeCell ref="I114:I118"/>
-    <mergeCell ref="I119:I120"/>
-    <mergeCell ref="I141:I142"/>
-    <mergeCell ref="H158:H162"/>
-    <mergeCell ref="I158:I162"/>
-    <mergeCell ref="E186:E191"/>
-    <mergeCell ref="C186:C191"/>
-    <mergeCell ref="D186:D191"/>
-    <mergeCell ref="C156:C157"/>
-    <mergeCell ref="D156:D157"/>
+    <mergeCell ref="I45:I50"/>
+    <mergeCell ref="H45:H50"/>
+    <mergeCell ref="H77:H82"/>
+    <mergeCell ref="H70:H76"/>
+    <mergeCell ref="H54:H59"/>
+    <mergeCell ref="H60:H66"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="I54:I59"/>
+    <mergeCell ref="I60:I66"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="I70:I76"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="E54:E59"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="H125:H128"/>
+    <mergeCell ref="H129:H132"/>
+    <mergeCell ref="H133:H136"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="I85:I89"/>
+    <mergeCell ref="H111:H113"/>
+    <mergeCell ref="H114:H118"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="H85:H89"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="H90:H93"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="D3:K5"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="H29:H32"/>
   </mergeCells>
   <conditionalFormatting sqref="H9:H191">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">

--- a/Excel/Grupo 6 07-11-24.xlsx
+++ b/Excel/Grupo 6 07-11-24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Estructura-de-datos-2\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468FBA90-B189-4878-BFB8-270C106639FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B30092F-50DA-4E05-9371-B110959B7236}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MATRIZ MODELO" sheetId="3" r:id="rId1"/>
@@ -3257,444 +3257,6 @@
     <xf numFmtId="0" fontId="2" fillId="22" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="15" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3703,12 +3265,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -3742,6 +3298,51 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3751,11 +3352,410 @@
     <xf numFmtId="0" fontId="1" fillId="24" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="15" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4219,8 +4219,8 @@
   </sheetPr>
   <dimension ref="A1:P94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:F49"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B44" sqref="B9:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4242,15 +4242,15 @@
     <row r="1" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="108"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="143"/>
       <c r="L2"/>
       <c r="M2"/>
       <c r="N2"/>
@@ -4259,13 +4259,13 @@
     </row>
     <row r="3" spans="1:16" ht="26.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
-      <c r="B3" s="109"/>
-      <c r="C3" s="117" t="s">
+      <c r="B3" s="144"/>
+      <c r="C3" s="152" t="s">
         <v>538</v>
       </c>
-      <c r="D3" s="118"/>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
       <c r="G3" s="92"/>
       <c r="H3" s="93"/>
       <c r="I3" s="49"/>
@@ -4280,13 +4280,13 @@
     </row>
     <row r="4" spans="1:16" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4"/>
-      <c r="B4" s="110"/>
-      <c r="C4" s="119" t="s">
+      <c r="B4" s="145"/>
+      <c r="C4" s="154" t="s">
         <v>539</v>
       </c>
-      <c r="D4" s="120"/>
-      <c r="E4" s="120"/>
-      <c r="F4" s="120"/>
+      <c r="D4" s="155"/>
+      <c r="E4" s="155"/>
+      <c r="F4" s="155"/>
       <c r="G4" s="94"/>
       <c r="H4" s="95"/>
       <c r="I4" s="50"/>
@@ -4301,7 +4301,7 @@
     </row>
     <row r="5" spans="1:16" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5"/>
-      <c r="B5" s="111"/>
+      <c r="B5" s="146"/>
       <c r="D5" s="98" t="s">
         <v>542</v>
       </c>
@@ -4318,28 +4318,28 @@
       <c r="P5"/>
     </row>
     <row r="6" spans="1:16" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
       <c r="G6" s="9"/>
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
       <c r="J6" s="10"/>
     </row>
     <row r="7" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="113"/>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="114" t="s">
+      <c r="B7" s="148"/>
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="115"/>
-      <c r="I7" s="115"/>
-      <c r="J7" s="116"/>
+      <c r="H7" s="150"/>
+      <c r="I7" s="150"/>
+      <c r="J7" s="151"/>
     </row>
     <row r="8" spans="1:16" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="57" t="s">
@@ -4371,7 +4371,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="41.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="130" t="s">
         <v>552</v>
       </c>
       <c r="C9" s="88" t="s">
@@ -4394,11 +4394,11 @@
       <c r="J9" s="60"/>
     </row>
     <row r="10" spans="1:16" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B10" s="122"/>
+      <c r="B10" s="131"/>
       <c r="C10" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="262" t="s">
+      <c r="D10" s="114" t="s">
         <v>562</v>
       </c>
       <c r="E10" s="54" t="s">
@@ -4413,7 +4413,7 @@
       <c r="J10" s="48"/>
     </row>
     <row r="11" spans="1:16" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="122"/>
+      <c r="B11" s="131"/>
       <c r="C11" s="73" t="s">
         <v>52</v>
       </c>
@@ -4432,7 +4432,7 @@
       <c r="J11" s="23"/>
     </row>
     <row r="12" spans="1:16" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="122"/>
+      <c r="B12" s="131"/>
       <c r="C12" s="73" t="s">
         <v>53</v>
       </c>
@@ -4451,7 +4451,7 @@
       <c r="J12" s="23"/>
     </row>
     <row r="13" spans="1:16" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="122"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="74" t="s">
         <v>529</v>
       </c>
@@ -4470,7 +4470,7 @@
       <c r="J13" s="23"/>
     </row>
     <row r="14" spans="1:16" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="122"/>
+      <c r="B14" s="131"/>
       <c r="C14" s="74" t="s">
         <v>530</v>
       </c>
@@ -4489,7 +4489,7 @@
       <c r="J14" s="23"/>
     </row>
     <row r="15" spans="1:16" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="122"/>
+      <c r="B15" s="131"/>
       <c r="C15" s="74" t="s">
         <v>531</v>
       </c>
@@ -4508,7 +4508,7 @@
       <c r="J15" s="23"/>
     </row>
     <row r="16" spans="1:16" ht="52.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="122"/>
+      <c r="B16" s="131"/>
       <c r="C16" s="74" t="s">
         <v>532</v>
       </c>
@@ -4527,7 +4527,7 @@
       <c r="J16" s="23"/>
     </row>
     <row r="17" spans="2:10" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="123"/>
+      <c r="B17" s="132"/>
       <c r="C17" s="74" t="s">
         <v>533</v>
       </c>
@@ -4546,7 +4546,7 @@
       <c r="J17" s="23"/>
     </row>
     <row r="18" spans="2:10" ht="40.5" x14ac:dyDescent="0.2">
-      <c r="B18" s="124" t="s">
+      <c r="B18" s="133" t="s">
         <v>541</v>
       </c>
       <c r="C18" s="87" t="s">
@@ -4567,7 +4567,7 @@
       <c r="J18" s="23"/>
     </row>
     <row r="19" spans="2:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="125"/>
+      <c r="B19" s="134"/>
       <c r="C19" s="81" t="s">
         <v>47</v>
       </c>
@@ -4586,7 +4586,7 @@
       <c r="J19" s="61"/>
     </row>
     <row r="20" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B20" s="125"/>
+      <c r="B20" s="134"/>
       <c r="C20" s="81" t="s">
         <v>48</v>
       </c>
@@ -4605,7 +4605,7 @@
       <c r="J20" s="61"/>
     </row>
     <row r="21" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B21" s="125"/>
+      <c r="B21" s="134"/>
       <c r="C21" s="81" t="s">
         <v>49</v>
       </c>
@@ -4624,11 +4624,11 @@
       <c r="J21" s="61"/>
     </row>
     <row r="22" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B22" s="125"/>
+      <c r="B22" s="134"/>
       <c r="C22" s="80" t="s">
         <v>534</v>
       </c>
-      <c r="D22" s="262" t="s">
+      <c r="D22" s="114" t="s">
         <v>584</v>
       </c>
       <c r="E22" s="45" t="s">
@@ -4643,7 +4643,7 @@
       <c r="J22" s="61"/>
     </row>
     <row r="23" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B23" s="125"/>
+      <c r="B23" s="134"/>
       <c r="C23" s="80" t="s">
         <v>535</v>
       </c>
@@ -4662,7 +4662,7 @@
       <c r="J23" s="61"/>
     </row>
     <row r="24" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B24" s="125"/>
+      <c r="B24" s="134"/>
       <c r="C24" s="80" t="s">
         <v>536</v>
       </c>
@@ -4681,7 +4681,7 @@
       <c r="J24" s="61"/>
     </row>
     <row r="25" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B25" s="125"/>
+      <c r="B25" s="134"/>
       <c r="C25" s="80" t="s">
         <v>537</v>
       </c>
@@ -4700,7 +4700,7 @@
       <c r="J25" s="61"/>
     </row>
     <row r="26" spans="2:10" ht="55.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="126" t="s">
+      <c r="B26" s="135" t="s">
         <v>559</v>
       </c>
       <c r="C26" s="91" t="s">
@@ -4709,7 +4709,7 @@
       <c r="D26" s="102" t="s">
         <v>553</v>
       </c>
-      <c r="E26" s="258" t="s">
+      <c r="E26" s="110" t="s">
         <v>554</v>
       </c>
       <c r="F26" s="84" t="s">
@@ -4721,14 +4721,14 @@
       <c r="J26" s="23"/>
     </row>
     <row r="27" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B27" s="127"/>
+      <c r="B27" s="136"/>
       <c r="C27" s="81">
         <v>3.1</v>
       </c>
-      <c r="D27" s="263" t="s">
+      <c r="D27" s="115" t="s">
         <v>592</v>
       </c>
-      <c r="E27" s="264" t="s">
+      <c r="E27" s="116" t="s">
         <v>593</v>
       </c>
       <c r="F27" s="84" t="s">
@@ -4740,14 +4740,14 @@
       <c r="J27" s="23"/>
     </row>
     <row r="28" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B28" s="127"/>
+      <c r="B28" s="136"/>
       <c r="C28" s="81">
         <v>3.2</v>
       </c>
-      <c r="D28" s="263" t="s">
+      <c r="D28" s="115" t="s">
         <v>594</v>
       </c>
-      <c r="E28" s="264" t="s">
+      <c r="E28" s="116" t="s">
         <v>595</v>
       </c>
       <c r="F28" s="84" t="s">
@@ -4759,14 +4759,14 @@
       <c r="J28" s="23"/>
     </row>
     <row r="29" spans="2:10" ht="69" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="127"/>
+      <c r="B29" s="136"/>
       <c r="C29" s="81">
         <v>3.3</v>
       </c>
-      <c r="D29" s="263" t="s">
+      <c r="D29" s="115" t="s">
         <v>596</v>
       </c>
-      <c r="E29" s="264" t="s">
+      <c r="E29" s="116" t="s">
         <v>597</v>
       </c>
       <c r="F29" s="84" t="s">
@@ -4778,14 +4778,14 @@
       <c r="J29" s="23"/>
     </row>
     <row r="30" spans="2:10" ht="52.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="127"/>
+      <c r="B30" s="136"/>
       <c r="C30" s="80">
         <v>3.4</v>
       </c>
-      <c r="D30" s="265" t="s">
+      <c r="D30" s="117" t="s">
         <v>598</v>
       </c>
-      <c r="E30" s="264" t="s">
+      <c r="E30" s="116" t="s">
         <v>599</v>
       </c>
       <c r="F30" s="84" t="s">
@@ -4797,14 +4797,14 @@
       <c r="J30" s="23"/>
     </row>
     <row r="31" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B31" s="127"/>
+      <c r="B31" s="136"/>
       <c r="C31" s="80">
         <v>3.5</v>
       </c>
-      <c r="D31" s="263" t="s">
+      <c r="D31" s="115" t="s">
         <v>600</v>
       </c>
-      <c r="E31" s="264" t="s">
+      <c r="E31" s="116" t="s">
         <v>601</v>
       </c>
       <c r="F31" s="84" t="s">
@@ -4816,14 +4816,14 @@
       <c r="J31" s="23"/>
     </row>
     <row r="32" spans="2:10" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B32" s="127"/>
+      <c r="B32" s="136"/>
       <c r="C32" s="80">
         <v>3.6</v>
       </c>
-      <c r="D32" s="263" t="s">
+      <c r="D32" s="115" t="s">
         <v>602</v>
       </c>
-      <c r="E32" s="264" t="s">
+      <c r="E32" s="116" t="s">
         <v>603</v>
       </c>
       <c r="F32" s="84" t="s">
@@ -4835,14 +4835,14 @@
       <c r="J32" s="23"/>
     </row>
     <row r="33" spans="2:10" ht="41.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="127"/>
+      <c r="B33" s="136"/>
       <c r="C33" s="80">
         <v>3.7</v>
       </c>
-      <c r="D33" s="263" t="s">
+      <c r="D33" s="115" t="s">
         <v>604</v>
       </c>
-      <c r="E33" s="264" t="s">
+      <c r="E33" s="116" t="s">
         <v>605</v>
       </c>
       <c r="F33" s="84" t="s">
@@ -4854,7 +4854,7 @@
       <c r="J33" s="23"/>
     </row>
     <row r="34" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="268"/>
+      <c r="B34" s="120"/>
       <c r="C34" s="89"/>
       <c r="D34" s="42"/>
       <c r="E34" s="54"/>
@@ -4865,16 +4865,16 @@
       <c r="J34" s="23"/>
     </row>
     <row r="35" spans="2:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="270" t="s">
+      <c r="B35" s="137" t="s">
         <v>560</v>
       </c>
-      <c r="C35" s="253" t="s">
+      <c r="C35" s="107" t="s">
         <v>548</v>
       </c>
-      <c r="D35" s="254" t="s">
+      <c r="D35" s="108" t="s">
         <v>555</v>
       </c>
-      <c r="E35" s="255" t="s">
+      <c r="E35" s="109" t="s">
         <v>556</v>
       </c>
       <c r="F35" s="84" t="s">
@@ -4886,7 +4886,7 @@
       <c r="J35" s="23"/>
     </row>
     <row r="36" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B36" s="271"/>
+      <c r="B36" s="138"/>
       <c r="C36" s="81">
         <v>4.0999999999999996</v>
       </c>
@@ -4905,7 +4905,7 @@
       <c r="J36" s="23"/>
     </row>
     <row r="37" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B37" s="271"/>
+      <c r="B37" s="138"/>
       <c r="C37" s="81">
         <v>4.2</v>
       </c>
@@ -4924,7 +4924,7 @@
       <c r="J37" s="23"/>
     </row>
     <row r="38" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="271"/>
+      <c r="B38" s="138"/>
       <c r="C38" s="81">
         <v>4.3</v>
       </c>
@@ -4943,7 +4943,7 @@
       <c r="J38" s="23"/>
     </row>
     <row r="39" spans="2:10" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B39" s="271"/>
+      <c r="B39" s="138"/>
       <c r="C39" s="80">
         <v>4.4000000000000004</v>
       </c>
@@ -4962,7 +4962,7 @@
       <c r="J39" s="23"/>
     </row>
     <row r="40" spans="2:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="272"/>
+      <c r="B40" s="139"/>
       <c r="C40" s="80">
         <v>4.5</v>
       </c>
@@ -4981,7 +4981,7 @@
       <c r="J40" s="23"/>
     </row>
     <row r="41" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B41" s="269"/>
+      <c r="B41" s="121"/>
       <c r="C41" s="103"/>
       <c r="D41" s="42"/>
       <c r="E41" s="54"/>
@@ -4992,7 +4992,7 @@
       <c r="J41" s="61"/>
     </row>
     <row r="42" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B42" s="269"/>
+      <c r="B42" s="121"/>
       <c r="C42" s="103"/>
       <c r="D42" s="42"/>
       <c r="E42" s="54"/>
@@ -5003,7 +5003,7 @@
       <c r="J42" s="61"/>
     </row>
     <row r="43" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B43" s="269"/>
+      <c r="B43" s="121"/>
       <c r="C43" s="103"/>
       <c r="D43" s="42"/>
       <c r="E43" s="54"/>
@@ -5014,16 +5014,16 @@
       <c r="J43" s="61"/>
     </row>
     <row r="44" spans="2:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="256" t="s">
+      <c r="B44" s="140" t="s">
         <v>561</v>
       </c>
-      <c r="C44" s="259" t="s">
+      <c r="C44" s="111" t="s">
         <v>549</v>
       </c>
-      <c r="D44" s="260" t="s">
+      <c r="D44" s="112" t="s">
         <v>557</v>
       </c>
-      <c r="E44" s="261" t="s">
+      <c r="E44" s="113" t="s">
         <v>558</v>
       </c>
       <c r="F44" s="84" t="s">
@@ -5035,7 +5035,7 @@
       <c r="J44" s="23"/>
     </row>
     <row r="45" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="257"/>
+      <c r="B45" s="141"/>
       <c r="C45" s="81">
         <v>5.0999999999999996</v>
       </c>
@@ -5054,11 +5054,11 @@
       <c r="J45" s="23"/>
     </row>
     <row r="46" spans="2:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B46" s="257"/>
+      <c r="B46" s="141"/>
       <c r="C46" s="81">
         <v>5.2</v>
       </c>
-      <c r="D46" s="266" t="s">
+      <c r="D46" s="118" t="s">
         <v>617</v>
       </c>
       <c r="E46" s="54" t="s">
@@ -5073,11 +5073,11 @@
       <c r="J46" s="61"/>
     </row>
     <row r="47" spans="2:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="257"/>
+      <c r="B47" s="141"/>
       <c r="C47" s="81">
         <v>5.3</v>
       </c>
-      <c r="D47" s="267" t="s">
+      <c r="D47" s="119" t="s">
         <v>618</v>
       </c>
       <c r="E47" s="54" t="s">
@@ -5092,11 +5092,11 @@
       <c r="J47" s="61"/>
     </row>
     <row r="48" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B48" s="257"/>
+      <c r="B48" s="141"/>
       <c r="C48" s="80">
         <v>5.4</v>
       </c>
-      <c r="D48" s="267" t="s">
+      <c r="D48" s="119" t="s">
         <v>625</v>
       </c>
       <c r="E48" s="54" t="s">
@@ -5111,7 +5111,7 @@
       <c r="J48" s="61"/>
     </row>
     <row r="49" spans="2:10" ht="51.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="257"/>
+      <c r="B49" s="141"/>
       <c r="C49" s="80">
         <v>5.5</v>
       </c>
@@ -5130,7 +5130,7 @@
       <c r="J49" s="61"/>
     </row>
     <row r="50" spans="2:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="273"/>
+      <c r="B50" s="122"/>
       <c r="C50" s="103"/>
       <c r="D50" s="42"/>
       <c r="E50" s="54"/>
@@ -5141,7 +5141,7 @@
       <c r="J50" s="61"/>
     </row>
     <row r="51" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="273"/>
+      <c r="B51" s="122"/>
       <c r="C51" s="103"/>
       <c r="D51" s="42"/>
       <c r="E51" s="54"/>
@@ -5152,7 +5152,7 @@
       <c r="J51" s="61"/>
     </row>
     <row r="52" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="273"/>
+      <c r="B52" s="122"/>
       <c r="C52" s="103"/>
       <c r="D52" s="42"/>
       <c r="E52" s="54"/>
@@ -5163,7 +5163,7 @@
       <c r="J52" s="61"/>
     </row>
     <row r="53" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="273"/>
+      <c r="B53" s="122"/>
       <c r="C53" s="103"/>
       <c r="D53" s="42"/>
       <c r="E53" s="54"/>
@@ -5174,7 +5174,7 @@
       <c r="J53" s="61"/>
     </row>
     <row r="54" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B54" s="274"/>
+      <c r="B54" s="123"/>
       <c r="C54" s="103"/>
       <c r="D54" s="42"/>
       <c r="E54" s="54"/>
@@ -5185,7 +5185,7 @@
       <c r="J54" s="61"/>
     </row>
     <row r="55" spans="2:10" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="128"/>
+      <c r="B55" s="124"/>
       <c r="C55" s="103"/>
       <c r="D55" s="104"/>
       <c r="E55" s="54"/>
@@ -5196,7 +5196,7 @@
       <c r="J55" s="61"/>
     </row>
     <row r="56" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="129"/>
+      <c r="B56" s="125"/>
       <c r="C56" s="103"/>
       <c r="D56" s="42"/>
       <c r="E56" s="54"/>
@@ -5207,7 +5207,7 @@
       <c r="J56" s="61"/>
     </row>
     <row r="57" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="129"/>
+      <c r="B57" s="125"/>
       <c r="C57" s="103"/>
       <c r="D57" s="42"/>
       <c r="E57" s="54"/>
@@ -5218,7 +5218,7 @@
       <c r="J57" s="61"/>
     </row>
     <row r="58" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="129"/>
+      <c r="B58" s="125"/>
       <c r="C58" s="103"/>
       <c r="D58" s="42"/>
       <c r="E58" s="54"/>
@@ -5229,7 +5229,7 @@
       <c r="J58" s="61"/>
     </row>
     <row r="59" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="129"/>
+      <c r="B59" s="125"/>
       <c r="C59" s="103"/>
       <c r="D59" s="42"/>
       <c r="E59" s="54"/>
@@ -5240,7 +5240,7 @@
       <c r="J59" s="61"/>
     </row>
     <row r="60" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="129"/>
+      <c r="B60" s="125"/>
       <c r="C60" s="103"/>
       <c r="D60" s="42"/>
       <c r="E60" s="54"/>
@@ -5251,7 +5251,7 @@
       <c r="J60" s="61"/>
     </row>
     <row r="61" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B61" s="129"/>
+      <c r="B61" s="125"/>
       <c r="C61" s="103"/>
       <c r="D61" s="42"/>
       <c r="E61" s="54"/>
@@ -5262,7 +5262,7 @@
       <c r="J61" s="61"/>
     </row>
     <row r="62" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="129"/>
+      <c r="B62" s="125"/>
       <c r="C62" s="103"/>
       <c r="D62" s="42"/>
       <c r="E62" s="54"/>
@@ -5273,7 +5273,7 @@
       <c r="J62" s="61"/>
     </row>
     <row r="63" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="129"/>
+      <c r="B63" s="125"/>
       <c r="C63" s="103"/>
       <c r="D63" s="42"/>
       <c r="E63" s="54"/>
@@ -5284,7 +5284,7 @@
       <c r="J63" s="61"/>
     </row>
     <row r="64" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B64" s="130"/>
+      <c r="B64" s="126"/>
       <c r="C64" s="103"/>
       <c r="D64" s="42"/>
       <c r="E64" s="54"/>
@@ -5295,7 +5295,7 @@
       <c r="J64" s="61"/>
     </row>
     <row r="65" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="128"/>
+      <c r="B65" s="124"/>
       <c r="C65" s="89"/>
       <c r="D65" s="104"/>
       <c r="E65" s="54"/>
@@ -5306,7 +5306,7 @@
       <c r="J65" s="23"/>
     </row>
     <row r="66" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B66" s="129"/>
+      <c r="B66" s="125"/>
       <c r="C66" s="89"/>
       <c r="D66" s="42"/>
       <c r="E66" s="54"/>
@@ -5317,7 +5317,7 @@
       <c r="J66" s="23"/>
     </row>
     <row r="67" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B67" s="129"/>
+      <c r="B67" s="125"/>
       <c r="C67" s="89"/>
       <c r="D67" s="42"/>
       <c r="E67" s="54"/>
@@ -5328,7 +5328,7 @@
       <c r="J67" s="23"/>
     </row>
     <row r="68" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="129"/>
+      <c r="B68" s="125"/>
       <c r="C68" s="89"/>
       <c r="D68" s="42"/>
       <c r="E68" s="54"/>
@@ -5339,7 +5339,7 @@
       <c r="J68" s="23"/>
     </row>
     <row r="69" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B69" s="129"/>
+      <c r="B69" s="125"/>
       <c r="C69" s="89"/>
       <c r="D69" s="42"/>
       <c r="E69" s="54"/>
@@ -5350,7 +5350,7 @@
       <c r="J69" s="23"/>
     </row>
     <row r="70" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B70" s="129"/>
+      <c r="B70" s="125"/>
       <c r="C70" s="89"/>
       <c r="D70" s="42"/>
       <c r="E70" s="54"/>
@@ -5361,7 +5361,7 @@
       <c r="J70" s="23"/>
     </row>
     <row r="71" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="129"/>
+      <c r="B71" s="125"/>
       <c r="C71" s="89"/>
       <c r="D71" s="42"/>
       <c r="E71" s="54"/>
@@ -5372,7 +5372,7 @@
       <c r="J71" s="23"/>
     </row>
     <row r="72" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="129"/>
+      <c r="B72" s="125"/>
       <c r="C72" s="89"/>
       <c r="D72" s="42"/>
       <c r="E72" s="54"/>
@@ -5383,7 +5383,7 @@
       <c r="J72" s="23"/>
     </row>
     <row r="73" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="130"/>
+      <c r="B73" s="126"/>
       <c r="C73" s="89"/>
       <c r="D73" s="42"/>
       <c r="E73" s="54"/>
@@ -5394,7 +5394,7 @@
       <c r="J73" s="23"/>
     </row>
     <row r="74" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B74" s="128"/>
+      <c r="B74" s="124"/>
       <c r="C74" s="89"/>
       <c r="D74" s="104"/>
       <c r="E74" s="54"/>
@@ -5405,7 +5405,7 @@
       <c r="J74" s="60"/>
     </row>
     <row r="75" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B75" s="129"/>
+      <c r="B75" s="125"/>
       <c r="C75" s="89"/>
       <c r="D75" s="42"/>
       <c r="E75" s="54"/>
@@ -5416,7 +5416,7 @@
       <c r="J75" s="48"/>
     </row>
     <row r="76" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B76" s="129"/>
+      <c r="B76" s="125"/>
       <c r="C76" s="89"/>
       <c r="D76" s="42"/>
       <c r="E76" s="54"/>
@@ -5427,7 +5427,7 @@
       <c r="J76" s="48"/>
     </row>
     <row r="77" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B77" s="129"/>
+      <c r="B77" s="125"/>
       <c r="C77" s="89"/>
       <c r="D77" s="42"/>
       <c r="E77" s="54"/>
@@ -5438,7 +5438,7 @@
       <c r="J77" s="60"/>
     </row>
     <row r="78" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B78" s="129"/>
+      <c r="B78" s="125"/>
       <c r="C78" s="89"/>
       <c r="D78" s="42"/>
       <c r="E78" s="54"/>
@@ -5449,7 +5449,7 @@
       <c r="J78" s="48"/>
     </row>
     <row r="79" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B79" s="129"/>
+      <c r="B79" s="125"/>
       <c r="C79" s="89"/>
       <c r="D79" s="42"/>
       <c r="E79" s="54"/>
@@ -5460,7 +5460,7 @@
       <c r="J79" s="48"/>
     </row>
     <row r="80" spans="2:10" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="129"/>
+      <c r="B80" s="125"/>
       <c r="C80" s="89"/>
       <c r="D80" s="42"/>
       <c r="E80" s="54"/>
@@ -5471,7 +5471,7 @@
       <c r="J80" s="48"/>
     </row>
     <row r="81" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B81" s="129"/>
+      <c r="B81" s="125"/>
       <c r="C81" s="89"/>
       <c r="D81" s="42"/>
       <c r="E81" s="54"/>
@@ -5482,7 +5482,7 @@
       <c r="J81" s="60"/>
     </row>
     <row r="82" spans="2:10" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="129"/>
+      <c r="B82" s="125"/>
       <c r="C82" s="89"/>
       <c r="D82" s="42"/>
       <c r="E82" s="54"/>
@@ -5493,7 +5493,7 @@
       <c r="J82" s="48"/>
     </row>
     <row r="83" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B83" s="129"/>
+      <c r="B83" s="125"/>
       <c r="C83" s="89"/>
       <c r="D83" s="42"/>
       <c r="E83" s="54"/>
@@ -5504,7 +5504,7 @@
       <c r="J83" s="48"/>
     </row>
     <row r="84" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B84" s="129"/>
+      <c r="B84" s="125"/>
       <c r="C84" s="89"/>
       <c r="D84" s="42"/>
       <c r="E84" s="54"/>
@@ -5515,7 +5515,7 @@
       <c r="J84" s="48"/>
     </row>
     <row r="85" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B85" s="130"/>
+      <c r="B85" s="126"/>
       <c r="C85" s="89"/>
       <c r="D85" s="42"/>
       <c r="E85" s="54"/>
@@ -5526,7 +5526,7 @@
       <c r="J85" s="48"/>
     </row>
     <row r="86" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B86" s="128"/>
+      <c r="B86" s="124"/>
       <c r="C86" s="89"/>
       <c r="D86" s="104"/>
       <c r="E86" s="54"/>
@@ -5537,7 +5537,7 @@
       <c r="J86" s="23"/>
     </row>
     <row r="87" spans="2:10" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="129"/>
+      <c r="B87" s="125"/>
       <c r="C87" s="89"/>
       <c r="D87" s="42"/>
       <c r="E87" s="54"/>
@@ -5548,7 +5548,7 @@
       <c r="J87" s="23"/>
     </row>
     <row r="88" spans="2:10" ht="20.25" x14ac:dyDescent="0.2">
-      <c r="B88" s="129"/>
+      <c r="B88" s="125"/>
       <c r="C88" s="89"/>
       <c r="D88" s="42"/>
       <c r="E88" s="54"/>
@@ -5559,7 +5559,7 @@
       <c r="J88" s="23"/>
     </row>
     <row r="89" spans="2:10" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="129"/>
+      <c r="B89" s="125"/>
       <c r="C89" s="89"/>
       <c r="D89" s="42"/>
       <c r="E89" s="54"/>
@@ -5570,7 +5570,7 @@
       <c r="J89" s="23"/>
     </row>
     <row r="90" spans="2:10" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="129"/>
+      <c r="B90" s="125"/>
       <c r="C90" s="89"/>
       <c r="D90" s="42"/>
       <c r="E90" s="54"/>
@@ -5581,7 +5581,7 @@
       <c r="J90" s="23"/>
     </row>
     <row r="91" spans="2:10" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="129"/>
+      <c r="B91" s="125"/>
       <c r="C91" s="89"/>
       <c r="D91" s="42"/>
       <c r="E91" s="54"/>
@@ -5592,7 +5592,7 @@
       <c r="J91" s="23"/>
     </row>
     <row r="92" spans="2:10" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="129"/>
+      <c r="B92" s="125"/>
       <c r="C92" s="89"/>
       <c r="D92" s="42"/>
       <c r="E92" s="54"/>
@@ -5603,7 +5603,7 @@
       <c r="J92" s="23"/>
     </row>
     <row r="93" spans="2:10" ht="21" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B93" s="130"/>
+      <c r="B93" s="126"/>
       <c r="C93" s="89"/>
       <c r="D93" s="42"/>
       <c r="E93" s="54"/>
@@ -5614,29 +5614,19 @@
       <c r="J93" s="23"/>
     </row>
     <row r="94" spans="2:10" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B94" s="131"/>
-      <c r="C94" s="131"/>
-      <c r="D94" s="131"/>
-      <c r="E94" s="131"/>
-      <c r="F94" s="131"/>
-      <c r="G94" s="131"/>
-      <c r="H94" s="132"/>
-      <c r="I94" s="132"/>
-      <c r="J94" s="133"/>
+      <c r="B94" s="127"/>
+      <c r="C94" s="127"/>
+      <c r="D94" s="127"/>
+      <c r="E94" s="127"/>
+      <c r="F94" s="127"/>
+      <c r="G94" s="127"/>
+      <c r="H94" s="128"/>
+      <c r="I94" s="128"/>
+      <c r="J94" s="129"/>
     </row>
   </sheetData>
   <autoFilter ref="B8:J94" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="17">
-    <mergeCell ref="B55:B64"/>
-    <mergeCell ref="B74:B85"/>
-    <mergeCell ref="B86:B93"/>
-    <mergeCell ref="B65:B73"/>
-    <mergeCell ref="B94:J94"/>
-    <mergeCell ref="B9:B17"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B26:B33"/>
-    <mergeCell ref="B35:B40"/>
-    <mergeCell ref="B44:B49"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:B5"/>
     <mergeCell ref="B6:F6"/>
@@ -5644,6 +5634,16 @@
     <mergeCell ref="G7:J7"/>
     <mergeCell ref="C3:F3"/>
     <mergeCell ref="C4:F4"/>
+    <mergeCell ref="B9:B17"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B26:B33"/>
+    <mergeCell ref="B35:B40"/>
+    <mergeCell ref="B44:B49"/>
+    <mergeCell ref="B55:B64"/>
+    <mergeCell ref="B74:B85"/>
+    <mergeCell ref="B86:B93"/>
+    <mergeCell ref="B65:B73"/>
+    <mergeCell ref="B94:J94"/>
   </mergeCells>
   <conditionalFormatting sqref="F9:F93">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
@@ -5693,10 +5693,10 @@
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B2" s="134" t="s">
+      <c r="B2" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="134"/>
+      <c r="C2" s="156"/>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -5770,11 +5770,11 @@
     </row>
     <row r="16" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="135" t="s">
+      <c r="B17" s="157" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="136"/>
-      <c r="D17" s="137"/>
+      <c r="C17" s="158"/>
+      <c r="D17" s="159"/>
     </row>
     <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="24" t="s">
@@ -5961,18 +5961,18 @@
     <row r="1" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2"/>
-      <c r="B2" s="214"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="107"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="107"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="107"/>
-      <c r="M2" s="108"/>
+      <c r="B2" s="203"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="143"/>
       <c r="O2"/>
       <c r="P2"/>
       <c r="Q2"/>
@@ -5981,18 +5981,18 @@
     </row>
     <row r="3" spans="1:19" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3"/>
-      <c r="B3" s="216"/>
-      <c r="C3" s="109"/>
-      <c r="D3" s="117" t="s">
+      <c r="B3" s="205"/>
+      <c r="C3" s="144"/>
+      <c r="D3" s="152" t="s">
         <v>415</v>
       </c>
-      <c r="E3" s="118"/>
-      <c r="F3" s="118"/>
-      <c r="G3" s="118"/>
-      <c r="H3" s="118"/>
-      <c r="I3" s="118"/>
-      <c r="J3" s="118"/>
-      <c r="K3" s="166"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="267"/>
       <c r="L3" s="49"/>
       <c r="M3" s="64" t="s">
         <v>15</v>
@@ -6005,16 +6005,16 @@
     </row>
     <row r="4" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4"/>
-      <c r="B4" s="217"/>
-      <c r="C4" s="110"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="168"/>
-      <c r="F4" s="168"/>
-      <c r="G4" s="168"/>
-      <c r="H4" s="168"/>
-      <c r="I4" s="168"/>
-      <c r="J4" s="168"/>
-      <c r="K4" s="169"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="268"/>
+      <c r="E4" s="269"/>
+      <c r="F4" s="269"/>
+      <c r="G4" s="269"/>
+      <c r="H4" s="269"/>
+      <c r="I4" s="269"/>
+      <c r="J4" s="269"/>
+      <c r="K4" s="270"/>
       <c r="L4" s="50"/>
       <c r="M4" s="65" t="s">
         <v>13</v>
@@ -6027,16 +6027,16 @@
     </row>
     <row r="5" spans="1:19" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5"/>
-      <c r="B5" s="218"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="119"/>
-      <c r="E5" s="120"/>
-      <c r="F5" s="120"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="120"/>
-      <c r="I5" s="120"/>
-      <c r="J5" s="120"/>
-      <c r="K5" s="170"/>
+      <c r="B5" s="207"/>
+      <c r="C5" s="146"/>
+      <c r="D5" s="154"/>
+      <c r="E5" s="155"/>
+      <c r="F5" s="155"/>
+      <c r="G5" s="155"/>
+      <c r="H5" s="155"/>
+      <c r="I5" s="155"/>
+      <c r="J5" s="155"/>
+      <c r="K5" s="271"/>
       <c r="L5" s="51"/>
       <c r="M5" s="65" t="s">
         <v>14</v>
@@ -6048,36 +6048,36 @@
       <c r="S5"/>
     </row>
     <row r="6" spans="1:19" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="219"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="112"/>
-      <c r="F6" s="112"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="220"/>
+      <c r="B6" s="208"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="209"/>
       <c r="J6" s="9"/>
       <c r="K6" s="8"/>
       <c r="L6" s="8"/>
       <c r="M6" s="10"/>
     </row>
     <row r="7" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="215" t="s">
+      <c r="B7" s="204" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="113"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="113"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="137"/>
-      <c r="J7" s="114" t="s">
+      <c r="C7" s="148"/>
+      <c r="D7" s="148"/>
+      <c r="E7" s="148"/>
+      <c r="F7" s="148"/>
+      <c r="G7" s="148"/>
+      <c r="H7" s="148"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="K7" s="115"/>
-      <c r="L7" s="115"/>
-      <c r="M7" s="116"/>
+      <c r="K7" s="150"/>
+      <c r="L7" s="150"/>
+      <c r="M7" s="151"/>
     </row>
     <row r="8" spans="1:19" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="70" t="s">
@@ -6118,16 +6118,16 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="211">
+      <c r="B9" s="200">
         <v>1</v>
       </c>
-      <c r="C9" s="221" t="s">
+      <c r="C9" s="210" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="162" t="s">
+      <c r="D9" s="263" t="s">
         <v>527</v>
       </c>
-      <c r="E9" s="163" t="s">
+      <c r="E9" s="264" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="76" t="s">
@@ -6136,10 +6136,10 @@
       <c r="G9" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="H9" s="164" t="s">
+      <c r="H9" s="265" t="s">
         <v>35</v>
       </c>
-      <c r="I9" s="165" t="s">
+      <c r="I9" s="266" t="s">
         <v>341</v>
       </c>
       <c r="J9" s="63"/>
@@ -6148,48 +6148,48 @@
       <c r="M9" s="60"/>
     </row>
     <row r="10" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="212"/>
-      <c r="C10" s="222"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="149"/>
+      <c r="B10" s="201"/>
+      <c r="C10" s="211"/>
+      <c r="D10" s="228"/>
+      <c r="E10" s="167"/>
       <c r="F10" s="77" t="s">
         <v>52</v>
       </c>
       <c r="G10" s="54" t="s">
         <v>443</v>
       </c>
-      <c r="H10" s="151"/>
-      <c r="I10" s="150"/>
+      <c r="H10" s="170"/>
+      <c r="I10" s="188"/>
       <c r="J10" s="63"/>
       <c r="K10" s="55"/>
       <c r="L10" s="47"/>
       <c r="M10" s="60"/>
     </row>
     <row r="11" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="212"/>
-      <c r="C11" s="222"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="143"/>
+      <c r="B11" s="201"/>
+      <c r="C11" s="211"/>
+      <c r="D11" s="228"/>
+      <c r="E11" s="168"/>
       <c r="F11" s="77" t="s">
         <v>53</v>
       </c>
       <c r="G11" s="54" t="s">
         <v>130</v>
       </c>
-      <c r="H11" s="141"/>
-      <c r="I11" s="139"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="189"/>
       <c r="J11" s="63"/>
       <c r="K11" s="55"/>
       <c r="L11" s="47"/>
       <c r="M11" s="60"/>
     </row>
     <row r="12" spans="1:19" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="212"/>
-      <c r="C12" s="222"/>
-      <c r="D12" s="161">
+      <c r="B12" s="201"/>
+      <c r="C12" s="211"/>
+      <c r="D12" s="253">
         <v>2</v>
       </c>
-      <c r="E12" s="142" t="s">
+      <c r="E12" s="166" t="s">
         <v>46</v>
       </c>
       <c r="F12" s="77" t="s">
@@ -6198,10 +6198,10 @@
       <c r="G12" s="54" t="s">
         <v>450</v>
       </c>
-      <c r="H12" s="140" t="s">
+      <c r="H12" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="138" t="s">
+      <c r="I12" s="187" t="s">
         <v>36</v>
       </c>
       <c r="J12" s="52"/>
@@ -6210,44 +6210,44 @@
       <c r="M12" s="48"/>
     </row>
     <row r="13" spans="1:19" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="212"/>
-      <c r="C13" s="222"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="149"/>
+      <c r="B13" s="201"/>
+      <c r="C13" s="211"/>
+      <c r="D13" s="253"/>
+      <c r="E13" s="167"/>
       <c r="F13" s="77" t="s">
         <v>48</v>
       </c>
       <c r="G13" s="54" t="s">
         <v>379</v>
       </c>
-      <c r="H13" s="151"/>
-      <c r="I13" s="150"/>
+      <c r="H13" s="170"/>
+      <c r="I13" s="188"/>
       <c r="J13" s="52"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="48"/>
     </row>
     <row r="14" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B14" s="212"/>
-      <c r="C14" s="222"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="143"/>
+      <c r="B14" s="201"/>
+      <c r="C14" s="211"/>
+      <c r="D14" s="253"/>
+      <c r="E14" s="168"/>
       <c r="F14" s="77" t="s">
         <v>49</v>
       </c>
       <c r="G14" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="H14" s="141"/>
-      <c r="I14" s="139"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="189"/>
       <c r="J14" s="52"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="48"/>
     </row>
     <row r="15" spans="1:19" ht="102" x14ac:dyDescent="0.2">
-      <c r="B15" s="212"/>
-      <c r="C15" s="222"/>
+      <c r="B15" s="201"/>
+      <c r="C15" s="211"/>
       <c r="D15" s="73">
         <v>3</v>
       </c>
@@ -6272,8 +6272,8 @@
       <c r="M15" s="23"/>
     </row>
     <row r="16" spans="1:19" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B16" s="212"/>
-      <c r="C16" s="222"/>
+      <c r="B16" s="201"/>
+      <c r="C16" s="211"/>
       <c r="D16" s="73">
         <v>4</v>
       </c>
@@ -6298,12 +6298,12 @@
       <c r="M16" s="23"/>
     </row>
     <row r="17" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="212"/>
-      <c r="C17" s="222"/>
-      <c r="D17" s="144">
+      <c r="B17" s="201"/>
+      <c r="C17" s="211"/>
+      <c r="D17" s="227">
         <v>5</v>
       </c>
-      <c r="E17" s="142" t="s">
+      <c r="E17" s="166" t="s">
         <v>99</v>
       </c>
       <c r="F17" s="77" t="s">
@@ -6312,10 +6312,10 @@
       <c r="G17" s="54" t="s">
         <v>343</v>
       </c>
-      <c r="H17" s="140" t="s">
+      <c r="H17" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="I17" s="138" t="s">
+      <c r="I17" s="187" t="s">
         <v>42</v>
       </c>
       <c r="J17" s="22"/>
@@ -6324,10 +6324,10 @@
       <c r="M17" s="23"/>
     </row>
     <row r="18" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B18" s="212"/>
-      <c r="C18" s="222"/>
-      <c r="D18" s="145"/>
-      <c r="E18" s="143" t="s">
+      <c r="B18" s="201"/>
+      <c r="C18" s="211"/>
+      <c r="D18" s="229"/>
+      <c r="E18" s="168" t="s">
         <v>252</v>
       </c>
       <c r="F18" s="77" t="s">
@@ -6336,20 +6336,20 @@
       <c r="G18" s="54" t="s">
         <v>131</v>
       </c>
-      <c r="H18" s="141"/>
-      <c r="I18" s="139"/>
+      <c r="H18" s="171"/>
+      <c r="I18" s="189"/>
       <c r="J18" s="22"/>
       <c r="K18" s="22"/>
       <c r="L18" s="22"/>
       <c r="M18" s="23"/>
     </row>
     <row r="19" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B19" s="212"/>
-      <c r="C19" s="222"/>
-      <c r="D19" s="144">
+      <c r="B19" s="201"/>
+      <c r="C19" s="211"/>
+      <c r="D19" s="227">
         <v>6</v>
       </c>
-      <c r="E19" s="142" t="s">
+      <c r="E19" s="166" t="s">
         <v>73</v>
       </c>
       <c r="F19" s="77" t="s">
@@ -6358,10 +6358,10 @@
       <c r="G19" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="H19" s="140" t="s">
+      <c r="H19" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="I19" s="138" t="s">
+      <c r="I19" s="187" t="s">
         <v>366</v>
       </c>
       <c r="J19" s="22"/>
@@ -6370,48 +6370,48 @@
       <c r="M19" s="23"/>
     </row>
     <row r="20" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="212"/>
-      <c r="C20" s="222"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="149"/>
+      <c r="B20" s="201"/>
+      <c r="C20" s="211"/>
+      <c r="D20" s="228"/>
+      <c r="E20" s="167"/>
       <c r="F20" s="77" t="s">
         <v>64</v>
       </c>
       <c r="G20" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="H20" s="151"/>
-      <c r="I20" s="150"/>
+      <c r="H20" s="170"/>
+      <c r="I20" s="188"/>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
       <c r="L20" s="22"/>
       <c r="M20" s="23"/>
     </row>
     <row r="21" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B21" s="212"/>
-      <c r="C21" s="222"/>
-      <c r="D21" s="145"/>
-      <c r="E21" s="143"/>
+      <c r="B21" s="201"/>
+      <c r="C21" s="211"/>
+      <c r="D21" s="229"/>
+      <c r="E21" s="168"/>
       <c r="F21" s="77" t="s">
         <v>65</v>
       </c>
       <c r="G21" s="54" t="s">
         <v>134</v>
       </c>
-      <c r="H21" s="141"/>
-      <c r="I21" s="139"/>
+      <c r="H21" s="171"/>
+      <c r="I21" s="189"/>
       <c r="J21" s="22"/>
       <c r="K21" s="22"/>
       <c r="L21" s="22"/>
       <c r="M21" s="23"/>
     </row>
     <row r="22" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="212"/>
-      <c r="C22" s="222"/>
-      <c r="D22" s="144">
+      <c r="B22" s="201"/>
+      <c r="C22" s="211"/>
+      <c r="D22" s="227">
         <v>7</v>
       </c>
-      <c r="E22" s="142" t="s">
+      <c r="E22" s="166" t="s">
         <v>83</v>
       </c>
       <c r="F22" s="77" t="s">
@@ -6420,10 +6420,10 @@
       <c r="G22" s="54" t="s">
         <v>135</v>
       </c>
-      <c r="H22" s="140" t="s">
+      <c r="H22" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="152" t="s">
+      <c r="I22" s="272" t="s">
         <v>428</v>
       </c>
       <c r="J22" s="22"/>
@@ -6432,66 +6432,66 @@
       <c r="M22" s="23"/>
     </row>
     <row r="23" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B23" s="212"/>
-      <c r="C23" s="222"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="149"/>
+      <c r="B23" s="201"/>
+      <c r="C23" s="211"/>
+      <c r="D23" s="228"/>
+      <c r="E23" s="167"/>
       <c r="F23" s="77" t="s">
         <v>85</v>
       </c>
       <c r="G23" s="54" t="s">
         <v>75</v>
       </c>
-      <c r="H23" s="151"/>
-      <c r="I23" s="153"/>
+      <c r="H23" s="170"/>
+      <c r="I23" s="273"/>
       <c r="J23" s="22"/>
       <c r="K23" s="22"/>
       <c r="L23" s="22"/>
       <c r="M23" s="23"/>
     </row>
     <row r="24" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B24" s="212"/>
-      <c r="C24" s="222"/>
-      <c r="D24" s="146"/>
-      <c r="E24" s="149"/>
+      <c r="B24" s="201"/>
+      <c r="C24" s="211"/>
+      <c r="D24" s="228"/>
+      <c r="E24" s="167"/>
       <c r="F24" s="77" t="s">
         <v>86</v>
       </c>
       <c r="G24" s="54" t="s">
         <v>344</v>
       </c>
-      <c r="H24" s="151"/>
-      <c r="I24" s="153"/>
+      <c r="H24" s="170"/>
+      <c r="I24" s="273"/>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
       <c r="L24" s="22"/>
       <c r="M24" s="23"/>
     </row>
     <row r="25" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B25" s="212"/>
-      <c r="C25" s="222"/>
-      <c r="D25" s="145"/>
-      <c r="E25" s="143"/>
+      <c r="B25" s="201"/>
+      <c r="C25" s="211"/>
+      <c r="D25" s="229"/>
+      <c r="E25" s="168"/>
       <c r="F25" s="77" t="s">
         <v>87</v>
       </c>
       <c r="G25" s="54" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="141"/>
-      <c r="I25" s="154"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="274"/>
       <c r="J25" s="22"/>
       <c r="K25" s="22"/>
       <c r="L25" s="22"/>
       <c r="M25" s="23"/>
     </row>
     <row r="26" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B26" s="212"/>
-      <c r="C26" s="222"/>
-      <c r="D26" s="147">
+      <c r="B26" s="201"/>
+      <c r="C26" s="211"/>
+      <c r="D26" s="255">
         <v>8</v>
       </c>
-      <c r="E26" s="148" t="s">
+      <c r="E26" s="252" t="s">
         <v>172</v>
       </c>
       <c r="F26" s="77" t="s">
@@ -6500,10 +6500,10 @@
       <c r="G26" s="45" t="s">
         <v>173</v>
       </c>
-      <c r="H26" s="155" t="s">
+      <c r="H26" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="I26" s="160" t="s">
+      <c r="I26" s="220" t="s">
         <v>430</v>
       </c>
       <c r="J26" s="53"/>
@@ -6512,50 +6512,50 @@
       <c r="M26" s="61"/>
     </row>
     <row r="27" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B27" s="212"/>
-      <c r="C27" s="222"/>
-      <c r="D27" s="147"/>
-      <c r="E27" s="148"/>
+      <c r="B27" s="201"/>
+      <c r="C27" s="211"/>
+      <c r="D27" s="255"/>
+      <c r="E27" s="252"/>
       <c r="F27" s="77" t="s">
         <v>473</v>
       </c>
       <c r="G27" s="45" t="s">
         <v>174</v>
       </c>
-      <c r="H27" s="155"/>
-      <c r="I27" s="160"/>
+      <c r="H27" s="257"/>
+      <c r="I27" s="220"/>
       <c r="J27" s="53"/>
       <c r="K27" s="36"/>
       <c r="L27" s="36"/>
       <c r="M27" s="61"/>
     </row>
     <row r="28" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B28" s="212"/>
-      <c r="C28" s="222"/>
-      <c r="D28" s="147"/>
-      <c r="E28" s="148"/>
+      <c r="B28" s="201"/>
+      <c r="C28" s="211"/>
+      <c r="D28" s="255"/>
+      <c r="E28" s="252"/>
       <c r="F28" s="77" t="s">
         <v>474</v>
       </c>
       <c r="G28" s="45" t="s">
         <v>365</v>
       </c>
-      <c r="H28" s="155"/>
-      <c r="I28" s="160"/>
+      <c r="H28" s="257"/>
+      <c r="I28" s="220"/>
       <c r="J28" s="53"/>
       <c r="K28" s="36"/>
       <c r="L28" s="36"/>
       <c r="M28" s="61"/>
     </row>
     <row r="29" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B29" s="212"/>
-      <c r="C29" s="223" t="s">
+      <c r="B29" s="201"/>
+      <c r="C29" s="212" t="s">
         <v>82</v>
       </c>
-      <c r="D29" s="144">
+      <c r="D29" s="227">
         <v>9</v>
       </c>
-      <c r="E29" s="142" t="s">
+      <c r="E29" s="166" t="s">
         <v>464</v>
       </c>
       <c r="F29" s="77" t="s">
@@ -6564,76 +6564,76 @@
       <c r="G29" s="54" t="s">
         <v>465</v>
       </c>
-      <c r="H29" s="159" t="s">
+      <c r="H29" s="230" t="s">
         <v>40</v>
       </c>
-      <c r="I29" s="160"/>
+      <c r="I29" s="220"/>
       <c r="J29" s="22"/>
       <c r="K29" s="22"/>
       <c r="L29" s="22"/>
       <c r="M29" s="23"/>
     </row>
     <row r="30" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B30" s="212"/>
-      <c r="C30" s="223"/>
-      <c r="D30" s="146"/>
-      <c r="E30" s="149"/>
+      <c r="B30" s="201"/>
+      <c r="C30" s="212"/>
+      <c r="D30" s="228"/>
+      <c r="E30" s="167"/>
       <c r="F30" s="77" t="s">
         <v>70</v>
       </c>
       <c r="G30" s="54" t="s">
         <v>466</v>
       </c>
-      <c r="H30" s="159"/>
-      <c r="I30" s="160"/>
+      <c r="H30" s="230"/>
+      <c r="I30" s="220"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
       <c r="M30" s="23"/>
     </row>
     <row r="31" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B31" s="212"/>
-      <c r="C31" s="223"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="149"/>
+      <c r="B31" s="201"/>
+      <c r="C31" s="212"/>
+      <c r="D31" s="228"/>
+      <c r="E31" s="167"/>
       <c r="F31" s="77" t="s">
         <v>475</v>
       </c>
       <c r="G31" s="54" t="s">
         <v>448</v>
       </c>
-      <c r="H31" s="159"/>
-      <c r="I31" s="160"/>
+      <c r="H31" s="230"/>
+      <c r="I31" s="220"/>
       <c r="J31" s="22"/>
       <c r="K31" s="22"/>
       <c r="L31" s="22"/>
       <c r="M31" s="23"/>
     </row>
     <row r="32" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B32" s="212"/>
-      <c r="C32" s="223"/>
-      <c r="D32" s="145"/>
-      <c r="E32" s="143"/>
+      <c r="B32" s="201"/>
+      <c r="C32" s="212"/>
+      <c r="D32" s="229"/>
+      <c r="E32" s="168"/>
       <c r="F32" s="77" t="s">
         <v>476</v>
       </c>
       <c r="G32" s="54" t="s">
         <v>143</v>
       </c>
-      <c r="H32" s="159"/>
-      <c r="I32" s="160"/>
+      <c r="H32" s="230"/>
+      <c r="I32" s="220"/>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
       <c r="M32" s="23"/>
     </row>
     <row r="33" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B33" s="212"/>
-      <c r="C33" s="223"/>
-      <c r="D33" s="144">
+      <c r="B33" s="201"/>
+      <c r="C33" s="212"/>
+      <c r="D33" s="227">
         <v>10</v>
       </c>
-      <c r="E33" s="156" t="s">
+      <c r="E33" s="190" t="s">
         <v>402</v>
       </c>
       <c r="F33" s="77" t="s">
@@ -6642,60 +6642,60 @@
       <c r="G33" s="54" t="s">
         <v>400</v>
       </c>
-      <c r="H33" s="140" t="s">
+      <c r="H33" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="I33" s="138"/>
+      <c r="I33" s="187"/>
       <c r="J33" s="22"/>
       <c r="K33" s="22"/>
       <c r="L33" s="22"/>
       <c r="M33" s="23"/>
     </row>
     <row r="34" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B34" s="212"/>
-      <c r="C34" s="223"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="157"/>
+      <c r="B34" s="201"/>
+      <c r="C34" s="212"/>
+      <c r="D34" s="228"/>
+      <c r="E34" s="191"/>
       <c r="F34" s="77" t="s">
         <v>367</v>
       </c>
       <c r="G34" s="54" t="s">
         <v>401</v>
       </c>
-      <c r="H34" s="151"/>
-      <c r="I34" s="150"/>
+      <c r="H34" s="170"/>
+      <c r="I34" s="188"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
       <c r="M34" s="23"/>
     </row>
     <row r="35" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B35" s="212"/>
-      <c r="C35" s="223"/>
-      <c r="D35" s="145"/>
-      <c r="E35" s="158"/>
+      <c r="B35" s="201"/>
+      <c r="C35" s="212"/>
+      <c r="D35" s="229"/>
+      <c r="E35" s="192"/>
       <c r="F35" s="77" t="s">
         <v>368</v>
       </c>
       <c r="G35" s="54" t="s">
         <v>398</v>
       </c>
-      <c r="H35" s="141"/>
-      <c r="I35" s="139"/>
+      <c r="H35" s="171"/>
+      <c r="I35" s="189"/>
       <c r="J35" s="22"/>
       <c r="K35" s="22"/>
       <c r="L35" s="22"/>
       <c r="M35" s="23"/>
     </row>
     <row r="36" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B36" s="212"/>
-      <c r="C36" s="224" t="s">
+      <c r="B36" s="201"/>
+      <c r="C36" s="213" t="s">
         <v>81</v>
       </c>
-      <c r="D36" s="144">
+      <c r="D36" s="227">
         <v>11</v>
       </c>
-      <c r="E36" s="142" t="s">
+      <c r="E36" s="166" t="s">
         <v>253</v>
       </c>
       <c r="F36" s="77" t="s">
@@ -6704,10 +6704,10 @@
       <c r="G36" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="H36" s="140" t="s">
+      <c r="H36" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="I36" s="138" t="s">
+      <c r="I36" s="187" t="s">
         <v>433</v>
       </c>
       <c r="J36" s="22"/>
@@ -6716,66 +6716,66 @@
       <c r="M36" s="23"/>
     </row>
     <row r="37" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B37" s="212"/>
-      <c r="C37" s="224"/>
-      <c r="D37" s="146"/>
-      <c r="E37" s="149"/>
+      <c r="B37" s="201"/>
+      <c r="C37" s="213"/>
+      <c r="D37" s="228"/>
+      <c r="E37" s="167"/>
       <c r="F37" s="77" t="s">
         <v>403</v>
       </c>
       <c r="G37" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="H37" s="151"/>
-      <c r="I37" s="150"/>
+      <c r="H37" s="170"/>
+      <c r="I37" s="188"/>
       <c r="J37" s="22"/>
       <c r="K37" s="22"/>
       <c r="L37" s="22"/>
       <c r="M37" s="23"/>
     </row>
     <row r="38" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B38" s="212"/>
-      <c r="C38" s="224"/>
-      <c r="D38" s="146"/>
-      <c r="E38" s="149"/>
+      <c r="B38" s="201"/>
+      <c r="C38" s="213"/>
+      <c r="D38" s="228"/>
+      <c r="E38" s="167"/>
       <c r="F38" s="77" t="s">
         <v>404</v>
       </c>
       <c r="G38" s="54" t="s">
         <v>352</v>
       </c>
-      <c r="H38" s="151"/>
-      <c r="I38" s="150"/>
+      <c r="H38" s="170"/>
+      <c r="I38" s="188"/>
       <c r="J38" s="22"/>
       <c r="K38" s="22"/>
       <c r="L38" s="22"/>
       <c r="M38" s="23"/>
     </row>
     <row r="39" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B39" s="212"/>
-      <c r="C39" s="224"/>
-      <c r="D39" s="146"/>
-      <c r="E39" s="149"/>
+      <c r="B39" s="201"/>
+      <c r="C39" s="213"/>
+      <c r="D39" s="228"/>
+      <c r="E39" s="167"/>
       <c r="F39" s="77" t="s">
         <v>405</v>
       </c>
       <c r="G39" s="54" t="s">
         <v>353</v>
       </c>
-      <c r="H39" s="151"/>
-      <c r="I39" s="150"/>
+      <c r="H39" s="170"/>
+      <c r="I39" s="188"/>
       <c r="J39" s="22"/>
       <c r="K39" s="22"/>
       <c r="L39" s="22"/>
       <c r="M39" s="23"/>
     </row>
     <row r="40" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B40" s="212"/>
-      <c r="C40" s="224"/>
-      <c r="D40" s="144">
+      <c r="B40" s="201"/>
+      <c r="C40" s="213"/>
+      <c r="D40" s="227">
         <v>12</v>
       </c>
-      <c r="E40" s="142" t="s">
+      <c r="E40" s="166" t="s">
         <v>89</v>
       </c>
       <c r="F40" s="77" t="s">
@@ -6784,10 +6784,10 @@
       <c r="G40" s="54" t="s">
         <v>145</v>
       </c>
-      <c r="H40" s="140" t="s">
+      <c r="H40" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="I40" s="138" t="s">
+      <c r="I40" s="187" t="s">
         <v>434</v>
       </c>
       <c r="J40" s="22"/>
@@ -6796,48 +6796,48 @@
       <c r="M40" s="23"/>
     </row>
     <row r="41" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B41" s="212"/>
-      <c r="C41" s="224"/>
-      <c r="D41" s="146"/>
-      <c r="E41" s="149"/>
+      <c r="B41" s="201"/>
+      <c r="C41" s="213"/>
+      <c r="D41" s="228"/>
+      <c r="E41" s="167"/>
       <c r="F41" s="77" t="s">
         <v>477</v>
       </c>
       <c r="G41" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="H41" s="151"/>
-      <c r="I41" s="150"/>
+      <c r="H41" s="170"/>
+      <c r="I41" s="188"/>
       <c r="J41" s="22"/>
       <c r="K41" s="22"/>
       <c r="L41" s="22"/>
       <c r="M41" s="23"/>
     </row>
     <row r="42" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B42" s="212"/>
-      <c r="C42" s="224"/>
-      <c r="D42" s="145"/>
-      <c r="E42" s="143"/>
+      <c r="B42" s="201"/>
+      <c r="C42" s="213"/>
+      <c r="D42" s="229"/>
+      <c r="E42" s="168"/>
       <c r="F42" s="77" t="s">
         <v>478</v>
       </c>
       <c r="G42" s="54" t="s">
         <v>147</v>
       </c>
-      <c r="H42" s="141"/>
-      <c r="I42" s="139"/>
+      <c r="H42" s="171"/>
+      <c r="I42" s="189"/>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
       <c r="L42" s="22"/>
       <c r="M42" s="23"/>
     </row>
     <row r="43" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B43" s="212"/>
-      <c r="C43" s="224"/>
-      <c r="D43" s="144">
+      <c r="B43" s="201"/>
+      <c r="C43" s="213"/>
+      <c r="D43" s="227">
         <v>13</v>
       </c>
-      <c r="E43" s="142" t="s">
+      <c r="E43" s="166" t="s">
         <v>254</v>
       </c>
       <c r="F43" s="77" t="s">
@@ -6846,10 +6846,10 @@
       <c r="G43" s="54" t="s">
         <v>356</v>
       </c>
-      <c r="H43" s="140" t="s">
+      <c r="H43" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="I43" s="138" t="s">
+      <c r="I43" s="187" t="s">
         <v>357</v>
       </c>
       <c r="J43" s="22"/>
@@ -6858,32 +6858,32 @@
       <c r="M43" s="23"/>
     </row>
     <row r="44" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B44" s="212"/>
-      <c r="C44" s="224"/>
-      <c r="D44" s="145"/>
-      <c r="E44" s="143"/>
+      <c r="B44" s="201"/>
+      <c r="C44" s="213"/>
+      <c r="D44" s="229"/>
+      <c r="E44" s="168"/>
       <c r="F44" s="77" t="s">
         <v>79</v>
       </c>
       <c r="G44" s="54" t="s">
         <v>354</v>
       </c>
-      <c r="H44" s="141"/>
-      <c r="I44" s="139"/>
+      <c r="H44" s="171"/>
+      <c r="I44" s="189"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
       <c r="M44" s="23"/>
     </row>
     <row r="45" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B45" s="212"/>
-      <c r="C45" s="195" t="s">
+      <c r="B45" s="201"/>
+      <c r="C45" s="214" t="s">
         <v>43</v>
       </c>
-      <c r="D45" s="144">
+      <c r="D45" s="227">
         <v>14</v>
       </c>
-      <c r="E45" s="142" t="s">
+      <c r="E45" s="166" t="s">
         <v>100</v>
       </c>
       <c r="F45" s="77" t="s">
@@ -6892,10 +6892,10 @@
       <c r="G45" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="H45" s="159" t="s">
+      <c r="H45" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="I45" s="160" t="s">
+      <c r="I45" s="220" t="s">
         <v>359</v>
       </c>
       <c r="J45" s="22"/>
@@ -6904,102 +6904,102 @@
       <c r="M45" s="23"/>
     </row>
     <row r="46" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B46" s="212"/>
-      <c r="C46" s="195"/>
-      <c r="D46" s="146"/>
-      <c r="E46" s="149"/>
+      <c r="B46" s="201"/>
+      <c r="C46" s="214"/>
+      <c r="D46" s="228"/>
+      <c r="E46" s="167"/>
       <c r="F46" s="77" t="s">
         <v>369</v>
       </c>
       <c r="G46" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="H46" s="159"/>
-      <c r="I46" s="160"/>
+      <c r="H46" s="230"/>
+      <c r="I46" s="220"/>
       <c r="J46" s="22"/>
       <c r="K46" s="22"/>
       <c r="L46" s="22"/>
       <c r="M46" s="23"/>
     </row>
     <row r="47" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B47" s="212"/>
-      <c r="C47" s="195"/>
-      <c r="D47" s="146"/>
-      <c r="E47" s="149"/>
+      <c r="B47" s="201"/>
+      <c r="C47" s="214"/>
+      <c r="D47" s="228"/>
+      <c r="E47" s="167"/>
       <c r="F47" s="77" t="s">
         <v>370</v>
       </c>
       <c r="G47" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="H47" s="159"/>
-      <c r="I47" s="160"/>
+      <c r="H47" s="230"/>
+      <c r="I47" s="220"/>
       <c r="J47" s="22"/>
       <c r="K47" s="22"/>
       <c r="L47" s="22"/>
       <c r="M47" s="23"/>
     </row>
     <row r="48" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B48" s="212"/>
-      <c r="C48" s="195"/>
-      <c r="D48" s="146"/>
-      <c r="E48" s="149"/>
+      <c r="B48" s="201"/>
+      <c r="C48" s="214"/>
+      <c r="D48" s="228"/>
+      <c r="E48" s="167"/>
       <c r="F48" s="77" t="s">
         <v>406</v>
       </c>
       <c r="G48" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="H48" s="159"/>
-      <c r="I48" s="160"/>
+      <c r="H48" s="230"/>
+      <c r="I48" s="220"/>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
       <c r="L48" s="22"/>
       <c r="M48" s="23"/>
     </row>
     <row r="49" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B49" s="212"/>
-      <c r="C49" s="195"/>
-      <c r="D49" s="146"/>
-      <c r="E49" s="149"/>
+      <c r="B49" s="201"/>
+      <c r="C49" s="214"/>
+      <c r="D49" s="228"/>
+      <c r="E49" s="167"/>
       <c r="F49" s="77" t="s">
         <v>479</v>
       </c>
       <c r="G49" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="H49" s="159"/>
-      <c r="I49" s="160"/>
+      <c r="H49" s="230"/>
+      <c r="I49" s="220"/>
       <c r="J49" s="22"/>
       <c r="K49" s="22"/>
       <c r="L49" s="22"/>
       <c r="M49" s="23"/>
     </row>
     <row r="50" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B50" s="212"/>
-      <c r="C50" s="195"/>
-      <c r="D50" s="145"/>
-      <c r="E50" s="143"/>
+      <c r="B50" s="201"/>
+      <c r="C50" s="214"/>
+      <c r="D50" s="229"/>
+      <c r="E50" s="168"/>
       <c r="F50" s="77" t="s">
         <v>480</v>
       </c>
       <c r="G50" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="H50" s="159"/>
-      <c r="I50" s="138"/>
+      <c r="H50" s="230"/>
+      <c r="I50" s="187"/>
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
       <c r="L50" s="22"/>
       <c r="M50" s="23"/>
     </row>
     <row r="51" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B51" s="212"/>
-      <c r="C51" s="195"/>
-      <c r="D51" s="177">
+      <c r="B51" s="201"/>
+      <c r="C51" s="214"/>
+      <c r="D51" s="195">
         <v>15</v>
       </c>
-      <c r="E51" s="142" t="s">
+      <c r="E51" s="166" t="s">
         <v>193</v>
       </c>
       <c r="F51" s="78" t="s">
@@ -7008,10 +7008,10 @@
       <c r="G51" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="H51" s="155" t="s">
+      <c r="H51" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="I51" s="138" t="s">
+      <c r="I51" s="187" t="s">
         <v>361</v>
       </c>
       <c r="J51" s="53"/>
@@ -7020,50 +7020,50 @@
       <c r="M51" s="61"/>
     </row>
     <row r="52" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B52" s="212"/>
-      <c r="C52" s="195"/>
-      <c r="D52" s="178"/>
-      <c r="E52" s="149"/>
+      <c r="B52" s="201"/>
+      <c r="C52" s="214"/>
+      <c r="D52" s="196"/>
+      <c r="E52" s="167"/>
       <c r="F52" s="78" t="s">
         <v>371</v>
       </c>
       <c r="G52" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="H52" s="155"/>
-      <c r="I52" s="150"/>
+      <c r="H52" s="257"/>
+      <c r="I52" s="188"/>
       <c r="J52" s="53"/>
       <c r="K52" s="36"/>
       <c r="L52" s="36"/>
       <c r="M52" s="61"/>
     </row>
     <row r="53" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B53" s="212"/>
-      <c r="C53" s="195"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="149"/>
+      <c r="B53" s="201"/>
+      <c r="C53" s="214"/>
+      <c r="D53" s="196"/>
+      <c r="E53" s="167"/>
       <c r="F53" s="78" t="s">
         <v>372</v>
       </c>
       <c r="G53" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="H53" s="155"/>
-      <c r="I53" s="139"/>
+      <c r="H53" s="257"/>
+      <c r="I53" s="189"/>
       <c r="J53" s="53"/>
       <c r="K53" s="36"/>
       <c r="L53" s="36"/>
       <c r="M53" s="61"/>
     </row>
     <row r="54" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B54" s="212"/>
-      <c r="C54" s="225" t="s">
+      <c r="B54" s="201"/>
+      <c r="C54" s="215" t="s">
         <v>205</v>
       </c>
-      <c r="D54" s="147">
+      <c r="D54" s="255">
         <v>16</v>
       </c>
-      <c r="E54" s="148" t="s">
+      <c r="E54" s="252" t="s">
         <v>159</v>
       </c>
       <c r="F54" s="77" t="s">
@@ -7072,10 +7072,10 @@
       <c r="G54" s="54" t="s">
         <v>163</v>
       </c>
-      <c r="H54" s="159" t="s">
+      <c r="H54" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="I54" s="138" t="s">
+      <c r="I54" s="187" t="s">
         <v>435</v>
       </c>
       <c r="J54" s="22"/>
@@ -7084,102 +7084,102 @@
       <c r="M54" s="23"/>
     </row>
     <row r="55" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B55" s="212"/>
-      <c r="C55" s="225"/>
-      <c r="D55" s="147"/>
-      <c r="E55" s="148"/>
+      <c r="B55" s="201"/>
+      <c r="C55" s="215"/>
+      <c r="D55" s="255"/>
+      <c r="E55" s="252"/>
       <c r="F55" s="77" t="s">
         <v>481</v>
       </c>
       <c r="G55" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="H55" s="159"/>
-      <c r="I55" s="150"/>
+      <c r="H55" s="230"/>
+      <c r="I55" s="188"/>
       <c r="J55" s="22"/>
       <c r="K55" s="22"/>
       <c r="L55" s="22"/>
       <c r="M55" s="23"/>
     </row>
     <row r="56" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B56" s="212"/>
-      <c r="C56" s="225"/>
-      <c r="D56" s="147"/>
-      <c r="E56" s="148"/>
+      <c r="B56" s="201"/>
+      <c r="C56" s="215"/>
+      <c r="D56" s="255"/>
+      <c r="E56" s="252"/>
       <c r="F56" s="77" t="s">
         <v>482</v>
       </c>
       <c r="G56" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="H56" s="159"/>
-      <c r="I56" s="150"/>
+      <c r="H56" s="230"/>
+      <c r="I56" s="188"/>
       <c r="J56" s="53"/>
       <c r="K56" s="36"/>
       <c r="L56" s="36"/>
       <c r="M56" s="61"/>
     </row>
     <row r="57" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B57" s="212"/>
-      <c r="C57" s="225"/>
-      <c r="D57" s="147"/>
-      <c r="E57" s="148"/>
+      <c r="B57" s="201"/>
+      <c r="C57" s="215"/>
+      <c r="D57" s="255"/>
+      <c r="E57" s="252"/>
       <c r="F57" s="77" t="s">
         <v>483</v>
       </c>
       <c r="G57" s="54" t="s">
         <v>157</v>
       </c>
-      <c r="H57" s="159"/>
-      <c r="I57" s="150"/>
+      <c r="H57" s="230"/>
+      <c r="I57" s="188"/>
       <c r="J57" s="53"/>
       <c r="K57" s="36"/>
       <c r="L57" s="36"/>
       <c r="M57" s="61"/>
     </row>
     <row r="58" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B58" s="212"/>
-      <c r="C58" s="225"/>
-      <c r="D58" s="147"/>
-      <c r="E58" s="148"/>
+      <c r="B58" s="201"/>
+      <c r="C58" s="215"/>
+      <c r="D58" s="255"/>
+      <c r="E58" s="252"/>
       <c r="F58" s="77" t="s">
         <v>484</v>
       </c>
       <c r="G58" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="H58" s="159"/>
-      <c r="I58" s="150"/>
+      <c r="H58" s="230"/>
+      <c r="I58" s="188"/>
       <c r="J58" s="53"/>
       <c r="K58" s="36"/>
       <c r="L58" s="36"/>
       <c r="M58" s="61"/>
     </row>
     <row r="59" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B59" s="212"/>
-      <c r="C59" s="225"/>
-      <c r="D59" s="147"/>
-      <c r="E59" s="148"/>
+      <c r="B59" s="201"/>
+      <c r="C59" s="215"/>
+      <c r="D59" s="255"/>
+      <c r="E59" s="252"/>
       <c r="F59" s="77" t="s">
         <v>485</v>
       </c>
       <c r="G59" s="54" t="s">
         <v>161</v>
       </c>
-      <c r="H59" s="159"/>
-      <c r="I59" s="139"/>
+      <c r="H59" s="230"/>
+      <c r="I59" s="189"/>
       <c r="J59" s="53"/>
       <c r="K59" s="36"/>
       <c r="L59" s="36"/>
       <c r="M59" s="61"/>
     </row>
     <row r="60" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B60" s="212"/>
-      <c r="C60" s="225"/>
-      <c r="D60" s="177">
+      <c r="B60" s="201"/>
+      <c r="C60" s="215"/>
+      <c r="D60" s="195">
         <v>17</v>
       </c>
-      <c r="E60" s="148" t="s">
+      <c r="E60" s="252" t="s">
         <v>442</v>
       </c>
       <c r="F60" s="77" t="s">
@@ -7188,130 +7188,130 @@
       <c r="G60" s="45" t="s">
         <v>151</v>
       </c>
-      <c r="H60" s="155" t="s">
+      <c r="H60" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="I60" s="174"/>
+      <c r="I60" s="258"/>
       <c r="J60" s="53"/>
       <c r="K60" s="36"/>
       <c r="L60" s="36"/>
       <c r="M60" s="61"/>
     </row>
     <row r="61" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B61" s="212"/>
-      <c r="C61" s="225"/>
-      <c r="D61" s="178"/>
-      <c r="E61" s="148"/>
+      <c r="B61" s="201"/>
+      <c r="C61" s="215"/>
+      <c r="D61" s="196"/>
+      <c r="E61" s="252"/>
       <c r="F61" s="77" t="s">
         <v>94</v>
       </c>
       <c r="G61" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="H61" s="155"/>
-      <c r="I61" s="175"/>
+      <c r="H61" s="257"/>
+      <c r="I61" s="259"/>
       <c r="J61" s="53"/>
       <c r="K61" s="36"/>
       <c r="L61" s="36"/>
       <c r="M61" s="61"/>
     </row>
     <row r="62" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B62" s="212"/>
-      <c r="C62" s="225"/>
-      <c r="D62" s="178"/>
-      <c r="E62" s="148"/>
+      <c r="B62" s="201"/>
+      <c r="C62" s="215"/>
+      <c r="D62" s="196"/>
+      <c r="E62" s="252"/>
       <c r="F62" s="77" t="s">
         <v>95</v>
       </c>
       <c r="G62" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="H62" s="155"/>
-      <c r="I62" s="175"/>
+      <c r="H62" s="257"/>
+      <c r="I62" s="259"/>
       <c r="J62" s="53"/>
       <c r="K62" s="36"/>
       <c r="L62" s="36"/>
       <c r="M62" s="61"/>
     </row>
     <row r="63" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B63" s="212"/>
-      <c r="C63" s="225"/>
-      <c r="D63" s="178"/>
-      <c r="E63" s="148"/>
+      <c r="B63" s="201"/>
+      <c r="C63" s="215"/>
+      <c r="D63" s="196"/>
+      <c r="E63" s="252"/>
       <c r="F63" s="77" t="s">
         <v>98</v>
       </c>
       <c r="G63" s="45" t="s">
         <v>154</v>
       </c>
-      <c r="H63" s="155"/>
-      <c r="I63" s="175"/>
+      <c r="H63" s="257"/>
+      <c r="I63" s="259"/>
       <c r="J63" s="53"/>
       <c r="K63" s="36"/>
       <c r="L63" s="36"/>
       <c r="M63" s="61"/>
     </row>
     <row r="64" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B64" s="212"/>
-      <c r="C64" s="225"/>
-      <c r="D64" s="178"/>
-      <c r="E64" s="148"/>
+      <c r="B64" s="201"/>
+      <c r="C64" s="215"/>
+      <c r="D64" s="196"/>
+      <c r="E64" s="252"/>
       <c r="F64" s="77" t="s">
         <v>486</v>
       </c>
       <c r="G64" s="54" t="s">
         <v>155</v>
       </c>
-      <c r="H64" s="155"/>
-      <c r="I64" s="175"/>
+      <c r="H64" s="257"/>
+      <c r="I64" s="259"/>
       <c r="J64" s="53"/>
       <c r="K64" s="36"/>
       <c r="L64" s="36"/>
       <c r="M64" s="61"/>
     </row>
     <row r="65" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B65" s="212"/>
-      <c r="C65" s="225"/>
-      <c r="D65" s="178"/>
-      <c r="E65" s="148"/>
+      <c r="B65" s="201"/>
+      <c r="C65" s="215"/>
+      <c r="D65" s="196"/>
+      <c r="E65" s="252"/>
       <c r="F65" s="77" t="s">
         <v>487</v>
       </c>
       <c r="G65" s="54" t="s">
         <v>185</v>
       </c>
-      <c r="H65" s="155"/>
-      <c r="I65" s="175"/>
+      <c r="H65" s="257"/>
+      <c r="I65" s="259"/>
       <c r="J65" s="53"/>
       <c r="K65" s="36"/>
       <c r="L65" s="36"/>
       <c r="M65" s="61"/>
     </row>
     <row r="66" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B66" s="212"/>
-      <c r="C66" s="225"/>
-      <c r="D66" s="184"/>
-      <c r="E66" s="148"/>
+      <c r="B66" s="201"/>
+      <c r="C66" s="215"/>
+      <c r="D66" s="197"/>
+      <c r="E66" s="252"/>
       <c r="F66" s="77" t="s">
         <v>488</v>
       </c>
       <c r="G66" s="54" t="s">
         <v>440</v>
       </c>
-      <c r="H66" s="155"/>
-      <c r="I66" s="176"/>
+      <c r="H66" s="257"/>
+      <c r="I66" s="260"/>
       <c r="J66" s="53"/>
       <c r="K66" s="36"/>
       <c r="L66" s="36"/>
       <c r="M66" s="61"/>
     </row>
     <row r="67" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B67" s="212"/>
-      <c r="C67" s="225"/>
-      <c r="D67" s="147">
+      <c r="B67" s="201"/>
+      <c r="C67" s="215"/>
+      <c r="D67" s="255">
         <v>18</v>
       </c>
-      <c r="E67" s="148" t="s">
+      <c r="E67" s="252" t="s">
         <v>165</v>
       </c>
       <c r="F67" s="77" t="s">
@@ -7320,60 +7320,60 @@
       <c r="G67" s="45" t="s">
         <v>168</v>
       </c>
-      <c r="H67" s="155" t="s">
+      <c r="H67" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="I67" s="174"/>
+      <c r="I67" s="258"/>
       <c r="J67" s="53"/>
       <c r="K67" s="36"/>
       <c r="L67" s="36"/>
       <c r="M67" s="61"/>
     </row>
     <row r="68" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B68" s="212"/>
-      <c r="C68" s="225"/>
-      <c r="D68" s="147"/>
-      <c r="E68" s="148"/>
+      <c r="B68" s="201"/>
+      <c r="C68" s="215"/>
+      <c r="D68" s="255"/>
+      <c r="E68" s="252"/>
       <c r="F68" s="77" t="s">
         <v>123</v>
       </c>
       <c r="G68" s="45" t="s">
         <v>167</v>
       </c>
-      <c r="H68" s="155"/>
-      <c r="I68" s="175"/>
+      <c r="H68" s="257"/>
+      <c r="I68" s="259"/>
       <c r="J68" s="53"/>
       <c r="K68" s="36"/>
       <c r="L68" s="36"/>
       <c r="M68" s="61"/>
     </row>
     <row r="69" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B69" s="212"/>
-      <c r="C69" s="225"/>
-      <c r="D69" s="147"/>
-      <c r="E69" s="148"/>
+      <c r="B69" s="201"/>
+      <c r="C69" s="215"/>
+      <c r="D69" s="255"/>
+      <c r="E69" s="252"/>
       <c r="F69" s="77" t="s">
         <v>124</v>
       </c>
       <c r="G69" s="45" t="s">
         <v>166</v>
       </c>
-      <c r="H69" s="155"/>
-      <c r="I69" s="176"/>
+      <c r="H69" s="257"/>
+      <c r="I69" s="260"/>
       <c r="J69" s="53"/>
       <c r="K69" s="36"/>
       <c r="L69" s="36"/>
       <c r="M69" s="61"/>
     </row>
     <row r="70" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B70" s="212"/>
-      <c r="C70" s="185" t="s">
+      <c r="B70" s="201"/>
+      <c r="C70" s="254" t="s">
         <v>186</v>
       </c>
-      <c r="D70" s="147">
+      <c r="D70" s="255">
         <v>19</v>
       </c>
-      <c r="E70" s="142" t="s">
+      <c r="E70" s="166" t="s">
         <v>187</v>
       </c>
       <c r="F70" s="78" t="s">
@@ -7382,10 +7382,10 @@
       <c r="G70" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="H70" s="155" t="s">
+      <c r="H70" s="257" t="s">
         <v>35</v>
       </c>
-      <c r="I70" s="138" t="s">
+      <c r="I70" s="187" t="s">
         <v>362</v>
       </c>
       <c r="J70" s="53"/>
@@ -7394,122 +7394,122 @@
       <c r="M70" s="61"/>
     </row>
     <row r="71" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B71" s="212"/>
-      <c r="C71" s="185"/>
-      <c r="D71" s="147"/>
-      <c r="E71" s="149"/>
+      <c r="B71" s="201"/>
+      <c r="C71" s="254"/>
+      <c r="D71" s="255"/>
+      <c r="E71" s="167"/>
       <c r="F71" s="78" t="s">
         <v>355</v>
       </c>
       <c r="G71" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="H71" s="155"/>
-      <c r="I71" s="150"/>
+      <c r="H71" s="257"/>
+      <c r="I71" s="188"/>
       <c r="J71" s="53"/>
       <c r="K71" s="36"/>
       <c r="L71" s="36"/>
       <c r="M71" s="61"/>
     </row>
     <row r="72" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B72" s="212"/>
-      <c r="C72" s="185"/>
-      <c r="D72" s="147"/>
-      <c r="E72" s="149"/>
+      <c r="B72" s="201"/>
+      <c r="C72" s="254"/>
+      <c r="D72" s="255"/>
+      <c r="E72" s="167"/>
       <c r="F72" s="78" t="s">
         <v>373</v>
       </c>
       <c r="G72" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="H72" s="155"/>
-      <c r="I72" s="150"/>
+      <c r="H72" s="257"/>
+      <c r="I72" s="188"/>
       <c r="J72" s="53"/>
       <c r="K72" s="36"/>
       <c r="L72" s="36"/>
       <c r="M72" s="61"/>
     </row>
     <row r="73" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B73" s="212"/>
-      <c r="C73" s="185"/>
-      <c r="D73" s="147"/>
-      <c r="E73" s="149"/>
+      <c r="B73" s="201"/>
+      <c r="C73" s="254"/>
+      <c r="D73" s="255"/>
+      <c r="E73" s="167"/>
       <c r="F73" s="78" t="s">
         <v>407</v>
       </c>
       <c r="G73" s="45" t="s">
         <v>257</v>
       </c>
-      <c r="H73" s="155"/>
-      <c r="I73" s="150"/>
+      <c r="H73" s="257"/>
+      <c r="I73" s="188"/>
       <c r="J73" s="53"/>
       <c r="K73" s="36"/>
       <c r="L73" s="36"/>
       <c r="M73" s="61"/>
     </row>
     <row r="74" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B74" s="212"/>
-      <c r="C74" s="185"/>
-      <c r="D74" s="147"/>
-      <c r="E74" s="149"/>
+      <c r="B74" s="201"/>
+      <c r="C74" s="254"/>
+      <c r="D74" s="255"/>
+      <c r="E74" s="167"/>
       <c r="F74" s="78" t="s">
         <v>489</v>
       </c>
       <c r="G74" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="H74" s="155"/>
-      <c r="I74" s="150"/>
+      <c r="H74" s="257"/>
+      <c r="I74" s="188"/>
       <c r="J74" s="53"/>
       <c r="K74" s="36"/>
       <c r="L74" s="36"/>
       <c r="M74" s="61"/>
     </row>
     <row r="75" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B75" s="212"/>
-      <c r="C75" s="185"/>
-      <c r="D75" s="147"/>
-      <c r="E75" s="149"/>
+      <c r="B75" s="201"/>
+      <c r="C75" s="254"/>
+      <c r="D75" s="255"/>
+      <c r="E75" s="167"/>
       <c r="F75" s="78" t="s">
         <v>490</v>
       </c>
       <c r="G75" s="45" t="s">
         <v>384</v>
       </c>
-      <c r="H75" s="155"/>
-      <c r="I75" s="150"/>
+      <c r="H75" s="257"/>
+      <c r="I75" s="188"/>
       <c r="J75" s="53"/>
       <c r="K75" s="36"/>
       <c r="L75" s="36"/>
       <c r="M75" s="61"/>
     </row>
     <row r="76" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B76" s="212"/>
-      <c r="C76" s="185"/>
-      <c r="D76" s="147"/>
-      <c r="E76" s="143"/>
+      <c r="B76" s="201"/>
+      <c r="C76" s="254"/>
+      <c r="D76" s="255"/>
+      <c r="E76" s="168"/>
       <c r="F76" s="78" t="s">
         <v>491</v>
       </c>
       <c r="G76" s="45" t="s">
         <v>229</v>
       </c>
-      <c r="H76" s="155"/>
-      <c r="I76" s="139"/>
+      <c r="H76" s="257"/>
+      <c r="I76" s="189"/>
       <c r="J76" s="53"/>
       <c r="K76" s="36"/>
       <c r="L76" s="36"/>
       <c r="M76" s="61"/>
     </row>
     <row r="77" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B77" s="212"/>
-      <c r="C77" s="187" t="s">
+      <c r="B77" s="201"/>
+      <c r="C77" s="216" t="s">
         <v>184</v>
       </c>
-      <c r="D77" s="144">
+      <c r="D77" s="227">
         <v>20</v>
       </c>
-      <c r="E77" s="142" t="s">
+      <c r="E77" s="166" t="s">
         <v>449</v>
       </c>
       <c r="F77" s="77" t="s">
@@ -7518,10 +7518,10 @@
       <c r="G77" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="H77" s="159" t="s">
+      <c r="H77" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="I77" s="160" t="s">
+      <c r="I77" s="220" t="s">
         <v>427</v>
       </c>
       <c r="J77" s="22"/>
@@ -7530,102 +7530,102 @@
       <c r="M77" s="23"/>
     </row>
     <row r="78" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B78" s="212"/>
-      <c r="C78" s="187"/>
-      <c r="D78" s="146"/>
-      <c r="E78" s="149"/>
+      <c r="B78" s="201"/>
+      <c r="C78" s="216"/>
+      <c r="D78" s="228"/>
+      <c r="E78" s="167"/>
       <c r="F78" s="77" t="s">
         <v>105</v>
       </c>
       <c r="G78" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="H78" s="159"/>
-      <c r="I78" s="160"/>
+      <c r="H78" s="230"/>
+      <c r="I78" s="220"/>
       <c r="J78" s="22"/>
       <c r="K78" s="22"/>
       <c r="L78" s="22"/>
       <c r="M78" s="23"/>
     </row>
     <row r="79" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B79" s="212"/>
-      <c r="C79" s="187"/>
-      <c r="D79" s="146"/>
-      <c r="E79" s="149"/>
+      <c r="B79" s="201"/>
+      <c r="C79" s="216"/>
+      <c r="D79" s="228"/>
+      <c r="E79" s="167"/>
       <c r="F79" s="77" t="s">
         <v>408</v>
       </c>
       <c r="G79" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="H79" s="159"/>
-      <c r="I79" s="160"/>
+      <c r="H79" s="230"/>
+      <c r="I79" s="220"/>
       <c r="J79" s="22"/>
       <c r="K79" s="22"/>
       <c r="L79" s="22"/>
       <c r="M79" s="23"/>
     </row>
     <row r="80" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B80" s="212"/>
-      <c r="C80" s="187"/>
-      <c r="D80" s="146"/>
-      <c r="E80" s="149"/>
+      <c r="B80" s="201"/>
+      <c r="C80" s="216"/>
+      <c r="D80" s="228"/>
+      <c r="E80" s="167"/>
       <c r="F80" s="77" t="s">
         <v>492</v>
       </c>
       <c r="G80" s="54" t="s">
         <v>175</v>
       </c>
-      <c r="H80" s="159"/>
-      <c r="I80" s="160"/>
+      <c r="H80" s="230"/>
+      <c r="I80" s="220"/>
       <c r="J80" s="22"/>
       <c r="K80" s="22"/>
       <c r="L80" s="22"/>
       <c r="M80" s="23"/>
     </row>
     <row r="81" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B81" s="212"/>
-      <c r="C81" s="187"/>
-      <c r="D81" s="146"/>
-      <c r="E81" s="149"/>
+      <c r="B81" s="201"/>
+      <c r="C81" s="216"/>
+      <c r="D81" s="228"/>
+      <c r="E81" s="167"/>
       <c r="F81" s="77" t="s">
         <v>493</v>
       </c>
       <c r="G81" s="54" t="s">
         <v>96</v>
       </c>
-      <c r="H81" s="159"/>
-      <c r="I81" s="160"/>
+      <c r="H81" s="230"/>
+      <c r="I81" s="220"/>
       <c r="J81" s="22"/>
       <c r="K81" s="22"/>
       <c r="L81" s="22"/>
       <c r="M81" s="23"/>
     </row>
     <row r="82" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B82" s="212"/>
-      <c r="C82" s="187"/>
-      <c r="D82" s="145"/>
-      <c r="E82" s="143"/>
+      <c r="B82" s="201"/>
+      <c r="C82" s="216"/>
+      <c r="D82" s="229"/>
+      <c r="E82" s="168"/>
       <c r="F82" s="77" t="s">
         <v>494</v>
       </c>
       <c r="G82" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="H82" s="159"/>
-      <c r="I82" s="138"/>
+      <c r="H82" s="230"/>
+      <c r="I82" s="187"/>
       <c r="J82" s="22"/>
       <c r="K82" s="22"/>
       <c r="L82" s="22"/>
       <c r="M82" s="23"/>
     </row>
     <row r="83" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B83" s="212"/>
-      <c r="C83" s="187"/>
-      <c r="D83" s="144">
+      <c r="B83" s="201"/>
+      <c r="C83" s="216"/>
+      <c r="D83" s="227">
         <v>21</v>
       </c>
-      <c r="E83" s="142" t="s">
+      <c r="E83" s="166" t="s">
         <v>207</v>
       </c>
       <c r="F83" s="79" t="s">
@@ -7634,42 +7634,42 @@
       <c r="G83" s="45" t="s">
         <v>208</v>
       </c>
-      <c r="H83" s="140" t="s">
+      <c r="H83" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="I83" s="138"/>
+      <c r="I83" s="187"/>
       <c r="J83" s="22"/>
       <c r="K83" s="22"/>
       <c r="L83" s="22"/>
       <c r="M83" s="23"/>
     </row>
     <row r="84" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B84" s="212"/>
-      <c r="C84" s="187"/>
-      <c r="D84" s="145"/>
-      <c r="E84" s="149"/>
+      <c r="B84" s="201"/>
+      <c r="C84" s="216"/>
+      <c r="D84" s="229"/>
+      <c r="E84" s="167"/>
       <c r="F84" s="79" t="s">
         <v>106</v>
       </c>
       <c r="G84" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="H84" s="141"/>
-      <c r="I84" s="139"/>
+      <c r="H84" s="171"/>
+      <c r="I84" s="189"/>
       <c r="J84" s="22"/>
       <c r="K84" s="22"/>
       <c r="L84" s="22"/>
       <c r="M84" s="23"/>
     </row>
     <row r="85" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B85" s="212"/>
-      <c r="C85" s="186" t="s">
+      <c r="B85" s="201"/>
+      <c r="C85" s="256" t="s">
         <v>213</v>
       </c>
-      <c r="D85" s="144">
+      <c r="D85" s="227">
         <v>22</v>
       </c>
-      <c r="E85" s="142" t="s">
+      <c r="E85" s="166" t="s">
         <v>211</v>
       </c>
       <c r="F85" s="77" t="s">
@@ -7678,10 +7678,10 @@
       <c r="G85" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="H85" s="140" t="s">
+      <c r="H85" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="I85" s="171" t="s">
+      <c r="I85" s="232" t="s">
         <v>436</v>
       </c>
       <c r="J85" s="22"/>
@@ -7690,86 +7690,86 @@
       <c r="M85" s="23"/>
     </row>
     <row r="86" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B86" s="212"/>
-      <c r="C86" s="186"/>
-      <c r="D86" s="146"/>
-      <c r="E86" s="149"/>
+      <c r="B86" s="201"/>
+      <c r="C86" s="256"/>
+      <c r="D86" s="228"/>
+      <c r="E86" s="167"/>
       <c r="F86" s="77" t="s">
         <v>127</v>
       </c>
       <c r="G86" s="54" t="s">
         <v>468</v>
       </c>
-      <c r="H86" s="151"/>
-      <c r="I86" s="172"/>
+      <c r="H86" s="170"/>
+      <c r="I86" s="261"/>
       <c r="J86" s="22"/>
       <c r="K86" s="22"/>
       <c r="L86" s="22"/>
       <c r="M86" s="23"/>
     </row>
     <row r="87" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B87" s="212"/>
-      <c r="C87" s="186"/>
-      <c r="D87" s="146"/>
-      <c r="E87" s="149"/>
+      <c r="B87" s="201"/>
+      <c r="C87" s="256"/>
+      <c r="D87" s="228"/>
+      <c r="E87" s="167"/>
       <c r="F87" s="77" t="s">
         <v>495</v>
       </c>
       <c r="G87" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="H87" s="151"/>
-      <c r="I87" s="172"/>
+      <c r="H87" s="170"/>
+      <c r="I87" s="261"/>
       <c r="J87" s="22"/>
       <c r="K87" s="22"/>
       <c r="L87" s="22"/>
       <c r="M87" s="23"/>
     </row>
     <row r="88" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B88" s="212"/>
-      <c r="C88" s="186"/>
-      <c r="D88" s="146"/>
-      <c r="E88" s="149"/>
+      <c r="B88" s="201"/>
+      <c r="C88" s="256"/>
+      <c r="D88" s="228"/>
+      <c r="E88" s="167"/>
       <c r="F88" s="77" t="s">
         <v>496</v>
       </c>
       <c r="G88" s="54" t="s">
         <v>469</v>
       </c>
-      <c r="H88" s="151"/>
-      <c r="I88" s="172"/>
+      <c r="H88" s="170"/>
+      <c r="I88" s="261"/>
       <c r="J88" s="22"/>
       <c r="K88" s="22"/>
       <c r="L88" s="22"/>
       <c r="M88" s="23"/>
     </row>
     <row r="89" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B89" s="212"/>
-      <c r="C89" s="186"/>
-      <c r="D89" s="145"/>
-      <c r="E89" s="143"/>
+      <c r="B89" s="201"/>
+      <c r="C89" s="256"/>
+      <c r="D89" s="229"/>
+      <c r="E89" s="168"/>
       <c r="F89" s="77" t="s">
         <v>497</v>
       </c>
       <c r="G89" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="H89" s="141"/>
-      <c r="I89" s="173"/>
+      <c r="H89" s="171"/>
+      <c r="I89" s="262"/>
       <c r="J89" s="22"/>
       <c r="K89" s="22"/>
       <c r="L89" s="22"/>
       <c r="M89" s="23"/>
     </row>
     <row r="90" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B90" s="212"/>
-      <c r="C90" s="196" t="s">
+      <c r="B90" s="201"/>
+      <c r="C90" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="D90" s="144">
+      <c r="D90" s="227">
         <v>23</v>
       </c>
-      <c r="E90" s="142" t="s">
+      <c r="E90" s="166" t="s">
         <v>259</v>
       </c>
       <c r="F90" s="77" t="s">
@@ -7778,76 +7778,76 @@
       <c r="G90" s="54" t="s">
         <v>264</v>
       </c>
-      <c r="H90" s="140" t="s">
+      <c r="H90" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="I90" s="231"/>
+      <c r="I90" s="224"/>
       <c r="J90" s="22"/>
       <c r="K90" s="22"/>
       <c r="L90" s="22"/>
       <c r="M90" s="23"/>
     </row>
     <row r="91" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B91" s="212"/>
-      <c r="C91" s="196"/>
-      <c r="D91" s="146"/>
-      <c r="E91" s="149"/>
+      <c r="B91" s="201"/>
+      <c r="C91" s="217"/>
+      <c r="D91" s="228"/>
+      <c r="E91" s="167"/>
       <c r="F91" s="77" t="s">
         <v>129</v>
       </c>
       <c r="G91" s="54" t="s">
         <v>265</v>
       </c>
-      <c r="H91" s="151"/>
-      <c r="I91" s="232"/>
+      <c r="H91" s="170"/>
+      <c r="I91" s="225"/>
       <c r="J91" s="22"/>
       <c r="K91" s="22"/>
       <c r="L91" s="22"/>
       <c r="M91" s="23"/>
     </row>
     <row r="92" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B92" s="212"/>
-      <c r="C92" s="196"/>
-      <c r="D92" s="146"/>
-      <c r="E92" s="149"/>
+      <c r="B92" s="201"/>
+      <c r="C92" s="217"/>
+      <c r="D92" s="228"/>
+      <c r="E92" s="167"/>
       <c r="F92" s="77" t="s">
         <v>158</v>
       </c>
       <c r="G92" s="54" t="s">
         <v>260</v>
       </c>
-      <c r="H92" s="151"/>
-      <c r="I92" s="232"/>
+      <c r="H92" s="170"/>
+      <c r="I92" s="225"/>
       <c r="J92" s="22"/>
       <c r="K92" s="22"/>
       <c r="L92" s="22"/>
       <c r="M92" s="23"/>
     </row>
     <row r="93" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B93" s="212"/>
-      <c r="C93" s="196"/>
-      <c r="D93" s="145"/>
-      <c r="E93" s="149"/>
+      <c r="B93" s="201"/>
+      <c r="C93" s="217"/>
+      <c r="D93" s="229"/>
+      <c r="E93" s="167"/>
       <c r="F93" s="77" t="s">
         <v>162</v>
       </c>
       <c r="G93" s="54" t="s">
         <v>463</v>
       </c>
-      <c r="H93" s="141"/>
-      <c r="I93" s="233"/>
+      <c r="H93" s="171"/>
+      <c r="I93" s="226"/>
       <c r="J93" s="22"/>
       <c r="K93" s="22"/>
       <c r="L93" s="22"/>
       <c r="M93" s="23"/>
     </row>
     <row r="94" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B94" s="212"/>
-      <c r="C94" s="196"/>
-      <c r="D94" s="144">
+      <c r="B94" s="201"/>
+      <c r="C94" s="217"/>
+      <c r="D94" s="227">
         <v>24</v>
       </c>
-      <c r="E94" s="128" t="s">
+      <c r="E94" s="124" t="s">
         <v>269</v>
       </c>
       <c r="F94" s="77" t="s">
@@ -7856,78 +7856,78 @@
       <c r="G94" s="54" t="s">
         <v>266</v>
       </c>
-      <c r="H94" s="140" t="s">
+      <c r="H94" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="I94" s="228"/>
+      <c r="I94" s="221"/>
       <c r="J94" s="22"/>
       <c r="K94" s="22"/>
       <c r="L94" s="22"/>
       <c r="M94" s="23"/>
     </row>
     <row r="95" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B95" s="212"/>
-      <c r="C95" s="196"/>
-      <c r="D95" s="146"/>
-      <c r="E95" s="129"/>
+      <c r="B95" s="201"/>
+      <c r="C95" s="217"/>
+      <c r="D95" s="228"/>
+      <c r="E95" s="125"/>
       <c r="F95" s="77" t="s">
         <v>170</v>
       </c>
       <c r="G95" s="54" t="s">
         <v>261</v>
       </c>
-      <c r="H95" s="151"/>
-      <c r="I95" s="229"/>
+      <c r="H95" s="170"/>
+      <c r="I95" s="222"/>
       <c r="J95" s="22"/>
       <c r="K95" s="22"/>
       <c r="L95" s="22"/>
       <c r="M95" s="23"/>
     </row>
     <row r="96" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B96" s="212"/>
-      <c r="C96" s="196"/>
-      <c r="D96" s="146"/>
-      <c r="E96" s="129"/>
+      <c r="B96" s="201"/>
+      <c r="C96" s="217"/>
+      <c r="D96" s="228"/>
+      <c r="E96" s="125"/>
       <c r="F96" s="77" t="s">
         <v>171</v>
       </c>
       <c r="G96" s="54" t="s">
         <v>262</v>
       </c>
-      <c r="H96" s="151"/>
-      <c r="I96" s="229"/>
+      <c r="H96" s="170"/>
+      <c r="I96" s="222"/>
       <c r="J96" s="22"/>
       <c r="K96" s="22"/>
       <c r="L96" s="22"/>
       <c r="M96" s="23"/>
     </row>
     <row r="97" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B97" s="212"/>
-      <c r="C97" s="196"/>
-      <c r="D97" s="145"/>
-      <c r="E97" s="130"/>
+      <c r="B97" s="201"/>
+      <c r="C97" s="217"/>
+      <c r="D97" s="229"/>
+      <c r="E97" s="126"/>
       <c r="F97" s="77" t="s">
         <v>409</v>
       </c>
       <c r="G97" s="54" t="s">
         <v>268</v>
       </c>
-      <c r="H97" s="141"/>
-      <c r="I97" s="230"/>
+      <c r="H97" s="171"/>
+      <c r="I97" s="223"/>
       <c r="J97" s="22"/>
       <c r="K97" s="22"/>
       <c r="L97" s="22"/>
       <c r="M97" s="23"/>
     </row>
     <row r="98" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B98" s="212"/>
-      <c r="C98" s="226" t="s">
+      <c r="B98" s="201"/>
+      <c r="C98" s="218" t="s">
         <v>3</v>
       </c>
-      <c r="D98" s="144">
+      <c r="D98" s="227">
         <v>25</v>
       </c>
-      <c r="E98" s="142" t="s">
+      <c r="E98" s="166" t="s">
         <v>270</v>
       </c>
       <c r="F98" s="77" t="s">
@@ -7936,40 +7936,40 @@
       <c r="G98" s="54" t="s">
         <v>276</v>
       </c>
-      <c r="H98" s="140" t="s">
+      <c r="H98" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="I98" s="138"/>
+      <c r="I98" s="187"/>
       <c r="J98" s="52"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="60"/>
     </row>
     <row r="99" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B99" s="212"/>
-      <c r="C99" s="226"/>
-      <c r="D99" s="145"/>
-      <c r="E99" s="149"/>
+      <c r="B99" s="201"/>
+      <c r="C99" s="218"/>
+      <c r="D99" s="229"/>
+      <c r="E99" s="167"/>
       <c r="F99" s="77" t="s">
         <v>176</v>
       </c>
       <c r="G99" s="54" t="s">
         <v>271</v>
       </c>
-      <c r="H99" s="141"/>
-      <c r="I99" s="139"/>
+      <c r="H99" s="171"/>
+      <c r="I99" s="189"/>
       <c r="J99" s="52"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="48"/>
     </row>
     <row r="100" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B100" s="212"/>
-      <c r="C100" s="226"/>
-      <c r="D100" s="144">
+      <c r="B100" s="201"/>
+      <c r="C100" s="218"/>
+      <c r="D100" s="227">
         <v>26</v>
       </c>
-      <c r="E100" s="142" t="s">
+      <c r="E100" s="166" t="s">
         <v>274</v>
       </c>
       <c r="F100" s="77" t="s">
@@ -7978,58 +7978,58 @@
       <c r="G100" s="54" t="s">
         <v>275</v>
       </c>
-      <c r="H100" s="140" t="s">
+      <c r="H100" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="I100" s="138"/>
+      <c r="I100" s="187"/>
       <c r="J100" s="52"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="48"/>
     </row>
     <row r="101" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B101" s="212"/>
-      <c r="C101" s="226"/>
-      <c r="D101" s="146"/>
-      <c r="E101" s="149"/>
+      <c r="B101" s="201"/>
+      <c r="C101" s="218"/>
+      <c r="D101" s="228"/>
+      <c r="E101" s="167"/>
       <c r="F101" s="77" t="s">
         <v>182</v>
       </c>
       <c r="G101" s="54" t="s">
         <v>272</v>
       </c>
-      <c r="H101" s="151"/>
-      <c r="I101" s="150"/>
+      <c r="H101" s="170"/>
+      <c r="I101" s="188"/>
       <c r="J101" s="52"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="60"/>
     </row>
     <row r="102" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B102" s="212"/>
-      <c r="C102" s="226"/>
-      <c r="D102" s="145"/>
-      <c r="E102" s="143"/>
+      <c r="B102" s="201"/>
+      <c r="C102" s="218"/>
+      <c r="D102" s="229"/>
+      <c r="E102" s="168"/>
       <c r="F102" s="77" t="s">
         <v>183</v>
       </c>
       <c r="G102" s="54" t="s">
         <v>273</v>
       </c>
-      <c r="H102" s="141"/>
-      <c r="I102" s="139"/>
+      <c r="H102" s="171"/>
+      <c r="I102" s="189"/>
       <c r="J102" s="52"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="48"/>
     </row>
     <row r="103" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B103" s="212"/>
-      <c r="C103" s="226"/>
-      <c r="D103" s="144">
+      <c r="B103" s="201"/>
+      <c r="C103" s="218"/>
+      <c r="D103" s="227">
         <v>27</v>
       </c>
-      <c r="E103" s="142" t="s">
+      <c r="E103" s="166" t="s">
         <v>281</v>
       </c>
       <c r="F103" s="77" t="s">
@@ -8038,58 +8038,58 @@
       <c r="G103" s="54" t="s">
         <v>283</v>
       </c>
-      <c r="H103" s="140" t="s">
+      <c r="H103" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="I103" s="138"/>
+      <c r="I103" s="187"/>
       <c r="J103" s="52"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
       <c r="M103" s="48"/>
     </row>
     <row r="104" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B104" s="212"/>
-      <c r="C104" s="226"/>
-      <c r="D104" s="146"/>
-      <c r="E104" s="149"/>
+      <c r="B104" s="201"/>
+      <c r="C104" s="218"/>
+      <c r="D104" s="228"/>
+      <c r="E104" s="167"/>
       <c r="F104" s="77" t="s">
         <v>286</v>
       </c>
       <c r="G104" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="H104" s="151"/>
-      <c r="I104" s="150"/>
+      <c r="H104" s="170"/>
+      <c r="I104" s="188"/>
       <c r="J104" s="52"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
       <c r="M104" s="48"/>
     </row>
     <row r="105" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B105" s="212"/>
-      <c r="C105" s="226"/>
-      <c r="D105" s="145"/>
-      <c r="E105" s="143"/>
+      <c r="B105" s="201"/>
+      <c r="C105" s="218"/>
+      <c r="D105" s="229"/>
+      <c r="E105" s="168"/>
       <c r="F105" s="77" t="s">
         <v>287</v>
       </c>
       <c r="G105" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="H105" s="141"/>
-      <c r="I105" s="139"/>
+      <c r="H105" s="171"/>
+      <c r="I105" s="189"/>
       <c r="J105" s="52"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
       <c r="M105" s="60"/>
     </row>
     <row r="106" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B106" s="212"/>
-      <c r="C106" s="226"/>
-      <c r="D106" s="144">
+      <c r="B106" s="201"/>
+      <c r="C106" s="218"/>
+      <c r="D106" s="227">
         <v>28</v>
       </c>
-      <c r="E106" s="142" t="s">
+      <c r="E106" s="166" t="s">
         <v>278</v>
       </c>
       <c r="F106" s="77" t="s">
@@ -8098,10 +8098,10 @@
       <c r="G106" s="54" t="s">
         <v>280</v>
       </c>
-      <c r="H106" s="140" t="s">
+      <c r="H106" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="I106" s="138" t="s">
+      <c r="I106" s="187" t="s">
         <v>37</v>
       </c>
       <c r="J106" s="52"/>
@@ -8110,48 +8110,48 @@
       <c r="M106" s="48"/>
     </row>
     <row r="107" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B107" s="212"/>
-      <c r="C107" s="226"/>
-      <c r="D107" s="146"/>
-      <c r="E107" s="149"/>
+      <c r="B107" s="201"/>
+      <c r="C107" s="218"/>
+      <c r="D107" s="228"/>
+      <c r="E107" s="167"/>
       <c r="F107" s="77" t="s">
         <v>289</v>
       </c>
       <c r="G107" s="54" t="s">
         <v>284</v>
       </c>
-      <c r="H107" s="151"/>
-      <c r="I107" s="150"/>
+      <c r="H107" s="170"/>
+      <c r="I107" s="188"/>
       <c r="J107" s="52"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
       <c r="M107" s="48"/>
     </row>
     <row r="108" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B108" s="212"/>
-      <c r="C108" s="226"/>
-      <c r="D108" s="145"/>
-      <c r="E108" s="143"/>
+      <c r="B108" s="201"/>
+      <c r="C108" s="218"/>
+      <c r="D108" s="229"/>
+      <c r="E108" s="168"/>
       <c r="F108" s="77" t="s">
         <v>290</v>
       </c>
       <c r="G108" s="54" t="s">
         <v>279</v>
       </c>
-      <c r="H108" s="141"/>
-      <c r="I108" s="139"/>
+      <c r="H108" s="171"/>
+      <c r="I108" s="189"/>
       <c r="J108" s="52"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
       <c r="M108" s="48"/>
     </row>
     <row r="109" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B109" s="212"/>
-      <c r="C109" s="226"/>
-      <c r="D109" s="161">
+      <c r="B109" s="201"/>
+      <c r="C109" s="218"/>
+      <c r="D109" s="253">
         <v>29</v>
       </c>
-      <c r="E109" s="148" t="s">
+      <c r="E109" s="252" t="s">
         <v>337</v>
       </c>
       <c r="F109" s="77" t="s">
@@ -8160,44 +8160,44 @@
       <c r="G109" s="54" t="s">
         <v>338</v>
       </c>
-      <c r="H109" s="159" t="s">
+      <c r="H109" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="I109" s="160"/>
+      <c r="I109" s="220"/>
       <c r="J109" s="52"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
       <c r="M109" s="48"/>
     </row>
     <row r="110" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B110" s="213"/>
-      <c r="C110" s="227"/>
-      <c r="D110" s="146"/>
-      <c r="E110" s="149"/>
+      <c r="B110" s="202"/>
+      <c r="C110" s="219"/>
+      <c r="D110" s="228"/>
+      <c r="E110" s="167"/>
       <c r="F110" s="77" t="s">
         <v>292</v>
       </c>
       <c r="G110" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="H110" s="151"/>
-      <c r="I110" s="150"/>
+      <c r="H110" s="170"/>
+      <c r="I110" s="188"/>
       <c r="J110" s="67"/>
       <c r="K110" s="56"/>
       <c r="L110" s="56"/>
       <c r="M110" s="62"/>
     </row>
     <row r="111" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B111" s="234" t="s">
+      <c r="B111" s="160" t="s">
         <v>471</v>
       </c>
-      <c r="C111" s="198" t="s">
+      <c r="C111" s="238" t="s">
         <v>45</v>
       </c>
-      <c r="D111" s="144">
+      <c r="D111" s="227">
         <v>30</v>
       </c>
-      <c r="E111" s="142" t="s">
+      <c r="E111" s="166" t="s">
         <v>71</v>
       </c>
       <c r="F111" s="77" t="s">
@@ -8206,10 +8206,10 @@
       <c r="G111" s="41" t="s">
         <v>457</v>
       </c>
-      <c r="H111" s="140" t="s">
+      <c r="H111" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="I111" s="138" t="s">
+      <c r="I111" s="187" t="s">
         <v>39</v>
       </c>
       <c r="J111" s="22"/>
@@ -8218,50 +8218,50 @@
       <c r="M111" s="23"/>
     </row>
     <row r="112" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B112" s="235"/>
-      <c r="C112" s="199"/>
-      <c r="D112" s="146"/>
-      <c r="E112" s="149"/>
+      <c r="B112" s="161"/>
+      <c r="C112" s="239"/>
+      <c r="D112" s="228"/>
+      <c r="E112" s="167"/>
       <c r="F112" s="77" t="s">
         <v>410</v>
       </c>
       <c r="G112" s="41" t="s">
         <v>458</v>
       </c>
-      <c r="H112" s="151"/>
-      <c r="I112" s="150"/>
+      <c r="H112" s="170"/>
+      <c r="I112" s="188"/>
       <c r="J112" s="22"/>
       <c r="K112" s="22"/>
       <c r="L112" s="22"/>
       <c r="M112" s="23"/>
     </row>
     <row r="113" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B113" s="235"/>
-      <c r="C113" s="199"/>
-      <c r="D113" s="145"/>
-      <c r="E113" s="143"/>
+      <c r="B113" s="161"/>
+      <c r="C113" s="239"/>
+      <c r="D113" s="229"/>
+      <c r="E113" s="168"/>
       <c r="F113" s="77" t="s">
         <v>411</v>
       </c>
       <c r="G113" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="H113" s="141"/>
-      <c r="I113" s="139"/>
+      <c r="H113" s="171"/>
+      <c r="I113" s="189"/>
       <c r="J113" s="22"/>
       <c r="K113" s="22"/>
       <c r="L113" s="22"/>
       <c r="M113" s="23"/>
     </row>
     <row r="114" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B114" s="235"/>
-      <c r="C114" s="188" t="s">
+      <c r="B114" s="161"/>
+      <c r="C114" s="244" t="s">
         <v>80</v>
       </c>
-      <c r="D114" s="144">
+      <c r="D114" s="227">
         <v>31</v>
       </c>
-      <c r="E114" s="142" t="s">
+      <c r="E114" s="166" t="s">
         <v>349</v>
       </c>
       <c r="F114" s="77" t="s">
@@ -8270,10 +8270,10 @@
       <c r="G114" s="41" t="s">
         <v>141</v>
       </c>
-      <c r="H114" s="140" t="s">
+      <c r="H114" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="I114" s="138" t="s">
+      <c r="I114" s="187" t="s">
         <v>431</v>
       </c>
       <c r="J114" s="22"/>
@@ -8282,86 +8282,86 @@
       <c r="M114" s="23"/>
     </row>
     <row r="115" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B115" s="235"/>
-      <c r="C115" s="188"/>
-      <c r="D115" s="146"/>
-      <c r="E115" s="149"/>
+      <c r="B115" s="161"/>
+      <c r="C115" s="244"/>
+      <c r="D115" s="228"/>
+      <c r="E115" s="167"/>
       <c r="F115" s="77" t="s">
         <v>498</v>
       </c>
       <c r="G115" s="41" t="s">
         <v>459</v>
       </c>
-      <c r="H115" s="151"/>
-      <c r="I115" s="150"/>
+      <c r="H115" s="170"/>
+      <c r="I115" s="188"/>
       <c r="J115" s="22"/>
       <c r="K115" s="22"/>
       <c r="L115" s="22"/>
       <c r="M115" s="23"/>
     </row>
     <row r="116" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B116" s="235"/>
-      <c r="C116" s="188"/>
-      <c r="D116" s="146"/>
-      <c r="E116" s="149"/>
+      <c r="B116" s="161"/>
+      <c r="C116" s="244"/>
+      <c r="D116" s="228"/>
+      <c r="E116" s="167"/>
       <c r="F116" s="77" t="s">
         <v>499</v>
       </c>
       <c r="G116" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="H116" s="151"/>
-      <c r="I116" s="150"/>
+      <c r="H116" s="170"/>
+      <c r="I116" s="188"/>
       <c r="J116" s="22"/>
       <c r="K116" s="22"/>
       <c r="L116" s="22"/>
       <c r="M116" s="23"/>
     </row>
     <row r="117" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B117" s="235"/>
-      <c r="C117" s="188"/>
-      <c r="D117" s="146"/>
-      <c r="E117" s="149"/>
+      <c r="B117" s="161"/>
+      <c r="C117" s="244"/>
+      <c r="D117" s="228"/>
+      <c r="E117" s="167"/>
       <c r="F117" s="77" t="s">
         <v>500</v>
       </c>
       <c r="G117" s="41" t="s">
         <v>460</v>
       </c>
-      <c r="H117" s="151"/>
-      <c r="I117" s="150"/>
+      <c r="H117" s="170"/>
+      <c r="I117" s="188"/>
       <c r="J117" s="22"/>
       <c r="K117" s="22"/>
       <c r="L117" s="22"/>
       <c r="M117" s="23"/>
     </row>
     <row r="118" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B118" s="235"/>
-      <c r="C118" s="188"/>
-      <c r="D118" s="145"/>
-      <c r="E118" s="143"/>
+      <c r="B118" s="161"/>
+      <c r="C118" s="244"/>
+      <c r="D118" s="229"/>
+      <c r="E118" s="168"/>
       <c r="F118" s="77" t="s">
         <v>501</v>
       </c>
       <c r="G118" s="41" t="s">
         <v>526</v>
       </c>
-      <c r="H118" s="141"/>
-      <c r="I118" s="139"/>
+      <c r="H118" s="171"/>
+      <c r="I118" s="189"/>
       <c r="J118" s="22"/>
       <c r="K118" s="22"/>
       <c r="L118" s="22"/>
       <c r="M118" s="23"/>
     </row>
     <row r="119" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B119" s="235"/>
-      <c r="C119" s="195" t="s">
+      <c r="B119" s="161"/>
+      <c r="C119" s="214" t="s">
         <v>43</v>
       </c>
-      <c r="D119" s="144">
+      <c r="D119" s="227">
         <v>32</v>
       </c>
-      <c r="E119" s="142" t="s">
+      <c r="E119" s="166" t="s">
         <v>101</v>
       </c>
       <c r="F119" s="77" t="s">
@@ -8370,10 +8370,10 @@
       <c r="G119" s="54" t="s">
         <v>90</v>
       </c>
-      <c r="H119" s="140" t="s">
+      <c r="H119" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="I119" s="138" t="s">
+      <c r="I119" s="187" t="s">
         <v>358</v>
       </c>
       <c r="J119" s="22"/>
@@ -8382,32 +8382,32 @@
       <c r="M119" s="23"/>
     </row>
     <row r="120" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B120" s="235"/>
-      <c r="C120" s="195"/>
-      <c r="D120" s="145"/>
-      <c r="E120" s="143"/>
+      <c r="B120" s="161"/>
+      <c r="C120" s="214"/>
+      <c r="D120" s="229"/>
+      <c r="E120" s="168"/>
       <c r="F120" s="77" t="s">
         <v>296</v>
       </c>
       <c r="G120" s="54" t="s">
         <v>444</v>
       </c>
-      <c r="H120" s="141"/>
-      <c r="I120" s="139"/>
+      <c r="H120" s="171"/>
+      <c r="I120" s="189"/>
       <c r="J120" s="22"/>
       <c r="K120" s="22"/>
       <c r="L120" s="22"/>
       <c r="M120" s="23"/>
     </row>
     <row r="121" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B121" s="235"/>
-      <c r="C121" s="187" t="s">
+      <c r="B121" s="161"/>
+      <c r="C121" s="216" t="s">
         <v>30</v>
       </c>
-      <c r="D121" s="144">
+      <c r="D121" s="227">
         <v>33</v>
       </c>
-      <c r="E121" s="142" t="s">
+      <c r="E121" s="166" t="s">
         <v>202</v>
       </c>
       <c r="F121" s="77" t="s">
@@ -8416,10 +8416,10 @@
       <c r="G121" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="H121" s="159" t="s">
+      <c r="H121" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="I121" s="208" t="s">
+      <c r="I121" s="231" t="s">
         <v>426</v>
       </c>
       <c r="J121" s="22"/>
@@ -8428,68 +8428,68 @@
       <c r="M121" s="23"/>
     </row>
     <row r="122" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B122" s="235"/>
-      <c r="C122" s="187"/>
-      <c r="D122" s="146"/>
-      <c r="E122" s="149"/>
+      <c r="B122" s="161"/>
+      <c r="C122" s="216"/>
+      <c r="D122" s="228"/>
+      <c r="E122" s="167"/>
       <c r="F122" s="77" t="s">
         <v>298</v>
       </c>
       <c r="G122" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="H122" s="159"/>
-      <c r="I122" s="208"/>
+      <c r="H122" s="230"/>
+      <c r="I122" s="231"/>
       <c r="J122" s="22"/>
       <c r="K122" s="22"/>
       <c r="L122" s="22"/>
       <c r="M122" s="23"/>
     </row>
     <row r="123" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B123" s="235"/>
-      <c r="C123" s="187"/>
-      <c r="D123" s="146"/>
-      <c r="E123" s="149"/>
+      <c r="B123" s="161"/>
+      <c r="C123" s="216"/>
+      <c r="D123" s="228"/>
+      <c r="E123" s="167"/>
       <c r="F123" s="77" t="s">
         <v>299</v>
       </c>
       <c r="G123" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="H123" s="159"/>
-      <c r="I123" s="208"/>
+      <c r="H123" s="230"/>
+      <c r="I123" s="231"/>
       <c r="J123" s="22"/>
       <c r="K123" s="22"/>
       <c r="L123" s="22"/>
       <c r="M123" s="23"/>
     </row>
     <row r="124" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B124" s="235"/>
-      <c r="C124" s="187"/>
-      <c r="D124" s="146"/>
-      <c r="E124" s="149"/>
+      <c r="B124" s="161"/>
+      <c r="C124" s="216"/>
+      <c r="D124" s="228"/>
+      <c r="E124" s="167"/>
       <c r="F124" s="77" t="s">
         <v>300</v>
       </c>
       <c r="G124" s="54" t="s">
         <v>199</v>
       </c>
-      <c r="H124" s="159"/>
-      <c r="I124" s="208"/>
+      <c r="H124" s="230"/>
+      <c r="I124" s="231"/>
       <c r="J124" s="22"/>
       <c r="K124" s="22"/>
       <c r="L124" s="22"/>
       <c r="M124" s="23"/>
     </row>
     <row r="125" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B125" s="235"/>
-      <c r="C125" s="244" t="s">
+      <c r="B125" s="161"/>
+      <c r="C125" s="179" t="s">
         <v>231</v>
       </c>
-      <c r="D125" s="144">
+      <c r="D125" s="227">
         <v>34</v>
       </c>
-      <c r="E125" s="142" t="s">
+      <c r="E125" s="166" t="s">
         <v>232</v>
       </c>
       <c r="F125" s="77" t="s">
@@ -8498,10 +8498,10 @@
       <c r="G125" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="H125" s="140" t="s">
+      <c r="H125" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="I125" s="138" t="s">
+      <c r="I125" s="187" t="s">
         <v>419</v>
       </c>
       <c r="J125" s="22"/>
@@ -8510,66 +8510,66 @@
       <c r="M125" s="23"/>
     </row>
     <row r="126" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B126" s="235"/>
-      <c r="C126" s="244"/>
-      <c r="D126" s="146"/>
-      <c r="E126" s="149"/>
+      <c r="B126" s="161"/>
+      <c r="C126" s="179"/>
+      <c r="D126" s="228"/>
+      <c r="E126" s="167"/>
       <c r="F126" s="77" t="s">
         <v>302</v>
       </c>
       <c r="G126" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="H126" s="151"/>
-      <c r="I126" s="150"/>
+      <c r="H126" s="170"/>
+      <c r="I126" s="188"/>
       <c r="J126" s="22"/>
       <c r="K126" s="22"/>
       <c r="L126" s="22"/>
       <c r="M126" s="23"/>
     </row>
     <row r="127" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B127" s="235"/>
-      <c r="C127" s="244"/>
-      <c r="D127" s="146"/>
-      <c r="E127" s="149"/>
+      <c r="B127" s="161"/>
+      <c r="C127" s="179"/>
+      <c r="D127" s="228"/>
+      <c r="E127" s="167"/>
       <c r="F127" s="77" t="s">
         <v>303</v>
       </c>
       <c r="G127" s="54" t="s">
         <v>441</v>
       </c>
-      <c r="H127" s="151"/>
-      <c r="I127" s="150"/>
+      <c r="H127" s="170"/>
+      <c r="I127" s="188"/>
       <c r="J127" s="22"/>
       <c r="K127" s="22"/>
       <c r="L127" s="22"/>
       <c r="M127" s="23"/>
     </row>
     <row r="128" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B128" s="235"/>
-      <c r="C128" s="244"/>
-      <c r="D128" s="145"/>
-      <c r="E128" s="143"/>
+      <c r="B128" s="161"/>
+      <c r="C128" s="179"/>
+      <c r="D128" s="229"/>
+      <c r="E128" s="168"/>
       <c r="F128" s="77" t="s">
         <v>304</v>
       </c>
       <c r="G128" s="54" t="s">
         <v>233</v>
       </c>
-      <c r="H128" s="141"/>
-      <c r="I128" s="139"/>
+      <c r="H128" s="171"/>
+      <c r="I128" s="189"/>
       <c r="J128" s="22"/>
       <c r="K128" s="22"/>
       <c r="L128" s="22"/>
       <c r="M128" s="23"/>
     </row>
     <row r="129" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B129" s="235"/>
-      <c r="C129" s="244"/>
-      <c r="D129" s="144">
+      <c r="B129" s="161"/>
+      <c r="C129" s="179"/>
+      <c r="D129" s="227">
         <v>35</v>
       </c>
-      <c r="E129" s="142" t="s">
+      <c r="E129" s="166" t="s">
         <v>235</v>
       </c>
       <c r="F129" s="77" t="s">
@@ -8578,10 +8578,10 @@
       <c r="G129" s="54" t="s">
         <v>247</v>
       </c>
-      <c r="H129" s="140" t="s">
+      <c r="H129" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="I129" s="138" t="s">
+      <c r="I129" s="187" t="s">
         <v>420</v>
       </c>
       <c r="J129" s="22"/>
@@ -8590,66 +8590,66 @@
       <c r="M129" s="23"/>
     </row>
     <row r="130" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B130" s="235"/>
-      <c r="C130" s="244"/>
-      <c r="D130" s="146"/>
-      <c r="E130" s="149"/>
+      <c r="B130" s="161"/>
+      <c r="C130" s="179"/>
+      <c r="D130" s="228"/>
+      <c r="E130" s="167"/>
       <c r="F130" s="77" t="s">
         <v>306</v>
       </c>
       <c r="G130" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="H130" s="151"/>
-      <c r="I130" s="150"/>
+      <c r="H130" s="170"/>
+      <c r="I130" s="188"/>
       <c r="J130" s="22"/>
       <c r="K130" s="22"/>
       <c r="L130" s="22"/>
       <c r="M130" s="23"/>
     </row>
     <row r="131" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B131" s="235"/>
-      <c r="C131" s="244"/>
-      <c r="D131" s="146"/>
-      <c r="E131" s="149"/>
+      <c r="B131" s="161"/>
+      <c r="C131" s="179"/>
+      <c r="D131" s="228"/>
+      <c r="E131" s="167"/>
       <c r="F131" s="77" t="s">
         <v>506</v>
       </c>
       <c r="G131" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="H131" s="151"/>
-      <c r="I131" s="150"/>
+      <c r="H131" s="170"/>
+      <c r="I131" s="188"/>
       <c r="J131" s="22"/>
       <c r="K131" s="22"/>
       <c r="L131" s="22"/>
       <c r="M131" s="23"/>
     </row>
     <row r="132" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B132" s="235"/>
-      <c r="C132" s="244"/>
-      <c r="D132" s="145"/>
-      <c r="E132" s="143"/>
+      <c r="B132" s="161"/>
+      <c r="C132" s="179"/>
+      <c r="D132" s="229"/>
+      <c r="E132" s="168"/>
       <c r="F132" s="77" t="s">
         <v>507</v>
       </c>
       <c r="G132" s="54" t="s">
         <v>237</v>
       </c>
-      <c r="H132" s="141"/>
-      <c r="I132" s="139"/>
+      <c r="H132" s="171"/>
+      <c r="I132" s="189"/>
       <c r="J132" s="22"/>
       <c r="K132" s="22"/>
       <c r="L132" s="22"/>
       <c r="M132" s="23"/>
     </row>
     <row r="133" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B133" s="235"/>
-      <c r="C133" s="244"/>
-      <c r="D133" s="144">
+      <c r="B133" s="161"/>
+      <c r="C133" s="179"/>
+      <c r="D133" s="227">
         <v>36</v>
       </c>
-      <c r="E133" s="142" t="s">
+      <c r="E133" s="166" t="s">
         <v>239</v>
       </c>
       <c r="F133" s="77" t="s">
@@ -8658,10 +8658,10 @@
       <c r="G133" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="H133" s="140" t="s">
+      <c r="H133" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="I133" s="138" t="s">
+      <c r="I133" s="187" t="s">
         <v>421</v>
       </c>
       <c r="J133" s="22"/>
@@ -8670,66 +8670,66 @@
       <c r="M133" s="23"/>
     </row>
     <row r="134" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B134" s="235"/>
-      <c r="C134" s="244"/>
-      <c r="D134" s="146"/>
-      <c r="E134" s="149"/>
+      <c r="B134" s="161"/>
+      <c r="C134" s="179"/>
+      <c r="D134" s="228"/>
+      <c r="E134" s="167"/>
       <c r="F134" s="77" t="s">
         <v>308</v>
       </c>
       <c r="G134" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="H134" s="151"/>
-      <c r="I134" s="150"/>
+      <c r="H134" s="170"/>
+      <c r="I134" s="188"/>
       <c r="J134" s="22"/>
       <c r="K134" s="22"/>
       <c r="L134" s="22"/>
       <c r="M134" s="23"/>
     </row>
     <row r="135" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B135" s="235"/>
-      <c r="C135" s="244"/>
-      <c r="D135" s="146"/>
-      <c r="E135" s="149"/>
+      <c r="B135" s="161"/>
+      <c r="C135" s="179"/>
+      <c r="D135" s="228"/>
+      <c r="E135" s="167"/>
       <c r="F135" s="77" t="s">
         <v>309</v>
       </c>
       <c r="G135" s="54" t="s">
         <v>251</v>
       </c>
-      <c r="H135" s="151"/>
-      <c r="I135" s="150"/>
+      <c r="H135" s="170"/>
+      <c r="I135" s="188"/>
       <c r="J135" s="22"/>
       <c r="K135" s="22"/>
       <c r="L135" s="22"/>
       <c r="M135" s="23"/>
     </row>
     <row r="136" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B136" s="235"/>
-      <c r="C136" s="244"/>
-      <c r="D136" s="145"/>
-      <c r="E136" s="143"/>
+      <c r="B136" s="161"/>
+      <c r="C136" s="179"/>
+      <c r="D136" s="229"/>
+      <c r="E136" s="168"/>
       <c r="F136" s="77" t="s">
         <v>310</v>
       </c>
       <c r="G136" s="54" t="s">
         <v>241</v>
       </c>
-      <c r="H136" s="141"/>
-      <c r="I136" s="139"/>
+      <c r="H136" s="171"/>
+      <c r="I136" s="189"/>
       <c r="J136" s="22"/>
       <c r="K136" s="22"/>
       <c r="L136" s="22"/>
       <c r="M136" s="23"/>
     </row>
     <row r="137" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B137" s="235"/>
-      <c r="C137" s="244"/>
-      <c r="D137" s="144">
+      <c r="B137" s="161"/>
+      <c r="C137" s="179"/>
+      <c r="D137" s="227">
         <v>37</v>
       </c>
-      <c r="E137" s="142" t="s">
+      <c r="E137" s="166" t="s">
         <v>242</v>
       </c>
       <c r="F137" s="77" t="s">
@@ -8738,10 +8738,10 @@
       <c r="G137" s="54" t="s">
         <v>245</v>
       </c>
-      <c r="H137" s="140" t="s">
+      <c r="H137" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="I137" s="138" t="s">
+      <c r="I137" s="187" t="s">
         <v>422</v>
       </c>
       <c r="J137" s="22"/>
@@ -8750,30 +8750,30 @@
       <c r="M137" s="23"/>
     </row>
     <row r="138" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B138" s="235"/>
-      <c r="C138" s="244"/>
-      <c r="D138" s="145"/>
-      <c r="E138" s="143"/>
+      <c r="B138" s="161"/>
+      <c r="C138" s="179"/>
+      <c r="D138" s="229"/>
+      <c r="E138" s="168"/>
       <c r="F138" s="77" t="s">
         <v>508</v>
       </c>
       <c r="G138" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="H138" s="141"/>
-      <c r="I138" s="139"/>
+      <c r="H138" s="171"/>
+      <c r="I138" s="189"/>
       <c r="J138" s="22"/>
       <c r="K138" s="22"/>
       <c r="L138" s="22"/>
       <c r="M138" s="23"/>
     </row>
     <row r="139" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B139" s="235"/>
-      <c r="C139" s="244"/>
-      <c r="D139" s="144">
+      <c r="B139" s="161"/>
+      <c r="C139" s="179"/>
+      <c r="D139" s="227">
         <v>38</v>
       </c>
-      <c r="E139" s="142" t="s">
+      <c r="E139" s="166" t="s">
         <v>248</v>
       </c>
       <c r="F139" s="77" t="s">
@@ -8782,10 +8782,10 @@
       <c r="G139" s="54" t="s">
         <v>249</v>
       </c>
-      <c r="H139" s="140" t="s">
+      <c r="H139" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="I139" s="138" t="s">
+      <c r="I139" s="187" t="s">
         <v>423</v>
       </c>
       <c r="J139" s="22"/>
@@ -8794,32 +8794,32 @@
       <c r="M139" s="23"/>
     </row>
     <row r="140" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B140" s="235"/>
-      <c r="C140" s="244"/>
-      <c r="D140" s="145"/>
-      <c r="E140" s="143"/>
+      <c r="B140" s="161"/>
+      <c r="C140" s="179"/>
+      <c r="D140" s="229"/>
+      <c r="E140" s="168"/>
       <c r="F140" s="77" t="s">
         <v>313</v>
       </c>
       <c r="G140" s="54" t="s">
         <v>243</v>
       </c>
-      <c r="H140" s="141"/>
-      <c r="I140" s="139"/>
+      <c r="H140" s="171"/>
+      <c r="I140" s="189"/>
       <c r="J140" s="22"/>
       <c r="K140" s="22"/>
       <c r="L140" s="22"/>
       <c r="M140" s="23"/>
     </row>
     <row r="141" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B141" s="235"/>
-      <c r="C141" s="196" t="s">
+      <c r="B141" s="161"/>
+      <c r="C141" s="217" t="s">
         <v>29</v>
       </c>
-      <c r="D141" s="144">
+      <c r="D141" s="227">
         <v>39</v>
       </c>
-      <c r="E141" s="142" t="s">
+      <c r="E141" s="166" t="s">
         <v>269</v>
       </c>
       <c r="F141" s="77" t="s">
@@ -8828,38 +8828,38 @@
       <c r="G141" s="54" t="s">
         <v>267</v>
       </c>
-      <c r="H141" s="140" t="s">
+      <c r="H141" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="I141" s="138"/>
+      <c r="I141" s="187"/>
       <c r="J141" s="22"/>
       <c r="K141" s="22"/>
       <c r="L141" s="22"/>
       <c r="M141" s="23"/>
     </row>
     <row r="142" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="236"/>
-      <c r="C142" s="197"/>
-      <c r="D142" s="145"/>
-      <c r="E142" s="143"/>
+      <c r="B142" s="162"/>
+      <c r="C142" s="251"/>
+      <c r="D142" s="229"/>
+      <c r="E142" s="168"/>
       <c r="F142" s="77" t="s">
         <v>315</v>
       </c>
       <c r="G142" s="54" t="s">
         <v>263</v>
       </c>
-      <c r="H142" s="141"/>
-      <c r="I142" s="139"/>
+      <c r="H142" s="171"/>
+      <c r="I142" s="189"/>
       <c r="J142" s="22"/>
       <c r="K142" s="22"/>
       <c r="L142" s="22"/>
       <c r="M142" s="23"/>
     </row>
     <row r="143" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B143" s="237" t="s">
+      <c r="B143" s="172" t="s">
         <v>472</v>
       </c>
-      <c r="C143" s="121" t="s">
+      <c r="C143" s="130" t="s">
         <v>44</v>
       </c>
       <c r="D143" s="73">
@@ -8886,12 +8886,12 @@
       <c r="M143" s="23"/>
     </row>
     <row r="144" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B144" s="238"/>
-      <c r="C144" s="122"/>
-      <c r="D144" s="182">
+      <c r="B144" s="173"/>
+      <c r="C144" s="131"/>
+      <c r="D144" s="163">
         <v>41</v>
       </c>
-      <c r="E144" s="142" t="s">
+      <c r="E144" s="166" t="s">
         <v>445</v>
       </c>
       <c r="F144" s="77" t="s">
@@ -8900,7 +8900,7 @@
       <c r="G144" s="54" t="s">
         <v>447</v>
       </c>
-      <c r="H144" s="140" t="s">
+      <c r="H144" s="169" t="s">
         <v>40</v>
       </c>
       <c r="I144" s="54"/>
@@ -8910,17 +8910,17 @@
       <c r="M144" s="23"/>
     </row>
     <row r="145" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B145" s="238"/>
-      <c r="C145" s="123"/>
-      <c r="D145" s="183"/>
-      <c r="E145" s="143"/>
+      <c r="B145" s="173"/>
+      <c r="C145" s="132"/>
+      <c r="D145" s="165"/>
+      <c r="E145" s="168"/>
       <c r="F145" s="77" t="s">
         <v>318</v>
       </c>
       <c r="G145" s="54" t="s">
         <v>446</v>
       </c>
-      <c r="H145" s="141"/>
+      <c r="H145" s="171"/>
       <c r="I145" s="45"/>
       <c r="J145" s="22"/>
       <c r="K145" s="22"/>
@@ -8928,8 +8928,8 @@
       <c r="M145" s="23"/>
     </row>
     <row r="146" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B146" s="238"/>
-      <c r="C146" s="245" t="s">
+      <c r="B146" s="173"/>
+      <c r="C146" s="180" t="s">
         <v>45</v>
       </c>
       <c r="D146" s="73">
@@ -8956,12 +8956,12 @@
       <c r="M146" s="23"/>
     </row>
     <row r="147" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B147" s="238"/>
-      <c r="C147" s="246"/>
-      <c r="D147" s="182">
+      <c r="B147" s="173"/>
+      <c r="C147" s="181"/>
+      <c r="D147" s="163">
         <v>43</v>
       </c>
-      <c r="E147" s="142" t="s">
+      <c r="E147" s="166" t="s">
         <v>255</v>
       </c>
       <c r="F147" s="77" t="s">
@@ -8970,7 +8970,7 @@
       <c r="G147" s="54" t="s">
         <v>137</v>
       </c>
-      <c r="H147" s="140" t="s">
+      <c r="H147" s="169" t="s">
         <v>108</v>
       </c>
       <c r="I147" s="54" t="s">
@@ -8981,18 +8981,18 @@
       <c r="L147" s="22"/>
       <c r="M147" s="23"/>
     </row>
-    <row r="148" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B148" s="238"/>
-      <c r="C148" s="246"/>
-      <c r="D148" s="203"/>
-      <c r="E148" s="149"/>
+    <row r="148" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B148" s="173"/>
+      <c r="C148" s="181"/>
+      <c r="D148" s="164"/>
+      <c r="E148" s="167"/>
       <c r="F148" s="77" t="s">
         <v>321</v>
       </c>
       <c r="G148" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="H148" s="151"/>
+      <c r="H148" s="170"/>
       <c r="I148" s="54" t="s">
         <v>347</v>
       </c>
@@ -9002,17 +9002,17 @@
       <c r="M148" s="23"/>
     </row>
     <row r="149" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B149" s="238"/>
-      <c r="C149" s="246"/>
-      <c r="D149" s="203"/>
-      <c r="E149" s="149"/>
+      <c r="B149" s="173"/>
+      <c r="C149" s="181"/>
+      <c r="D149" s="164"/>
+      <c r="E149" s="167"/>
       <c r="F149" s="77" t="s">
         <v>509</v>
       </c>
       <c r="G149" s="54" t="s">
         <v>139</v>
       </c>
-      <c r="H149" s="151"/>
+      <c r="H149" s="170"/>
       <c r="I149" s="54" t="s">
         <v>348</v>
       </c>
@@ -9022,17 +9022,17 @@
       <c r="M149" s="23"/>
     </row>
     <row r="150" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B150" s="238"/>
-      <c r="C150" s="247"/>
-      <c r="D150" s="183"/>
-      <c r="E150" s="143"/>
+      <c r="B150" s="173"/>
+      <c r="C150" s="182"/>
+      <c r="D150" s="165"/>
+      <c r="E150" s="168"/>
       <c r="F150" s="77" t="s">
         <v>510</v>
       </c>
       <c r="G150" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="H150" s="141"/>
+      <c r="H150" s="171"/>
       <c r="I150" s="54" t="s">
         <v>425</v>
       </c>
@@ -9042,7 +9042,7 @@
       <c r="M150" s="23"/>
     </row>
     <row r="151" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B151" s="238"/>
+      <c r="B151" s="173"/>
       <c r="C151" s="71" t="s">
         <v>80</v>
       </c>
@@ -9070,14 +9070,14 @@
       <c r="M151" s="23"/>
     </row>
     <row r="152" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B152" s="238"/>
-      <c r="C152" s="200" t="s">
+      <c r="B152" s="173"/>
+      <c r="C152" s="235" t="s">
         <v>43</v>
       </c>
-      <c r="D152" s="179">
+      <c r="D152" s="241">
         <v>45</v>
       </c>
-      <c r="E152" s="142" t="s">
+      <c r="E152" s="166" t="s">
         <v>178</v>
       </c>
       <c r="F152" s="77" t="s">
@@ -9086,10 +9086,10 @@
       <c r="G152" s="54" t="s">
         <v>191</v>
       </c>
-      <c r="H152" s="205" t="s">
+      <c r="H152" s="184" t="s">
         <v>108</v>
       </c>
-      <c r="I152" s="138" t="s">
+      <c r="I152" s="187" t="s">
         <v>360</v>
       </c>
       <c r="J152" s="53"/>
@@ -9098,68 +9098,68 @@
       <c r="M152" s="61"/>
     </row>
     <row r="153" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B153" s="238"/>
-      <c r="C153" s="201"/>
-      <c r="D153" s="180"/>
-      <c r="E153" s="149"/>
+      <c r="B153" s="173"/>
+      <c r="C153" s="236"/>
+      <c r="D153" s="242"/>
+      <c r="E153" s="167"/>
       <c r="F153" s="77" t="s">
         <v>324</v>
       </c>
       <c r="G153" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="H153" s="206"/>
-      <c r="I153" s="150"/>
+      <c r="H153" s="185"/>
+      <c r="I153" s="188"/>
       <c r="J153" s="53"/>
       <c r="K153" s="36"/>
       <c r="L153" s="36"/>
       <c r="M153" s="61"/>
     </row>
     <row r="154" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B154" s="238"/>
-      <c r="C154" s="201"/>
-      <c r="D154" s="180"/>
-      <c r="E154" s="149"/>
+      <c r="B154" s="173"/>
+      <c r="C154" s="236"/>
+      <c r="D154" s="242"/>
+      <c r="E154" s="167"/>
       <c r="F154" s="77" t="s">
         <v>325</v>
       </c>
       <c r="G154" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="H154" s="206"/>
-      <c r="I154" s="150"/>
+      <c r="H154" s="185"/>
+      <c r="I154" s="188"/>
       <c r="J154" s="53"/>
       <c r="K154" s="36"/>
       <c r="L154" s="36"/>
       <c r="M154" s="61"/>
     </row>
     <row r="155" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B155" s="238"/>
-      <c r="C155" s="202"/>
-      <c r="D155" s="181"/>
-      <c r="E155" s="143"/>
+      <c r="B155" s="173"/>
+      <c r="C155" s="237"/>
+      <c r="D155" s="243"/>
+      <c r="E155" s="168"/>
       <c r="F155" s="77" t="s">
         <v>326</v>
       </c>
       <c r="G155" s="54" t="s">
         <v>179</v>
       </c>
-      <c r="H155" s="207"/>
-      <c r="I155" s="139"/>
+      <c r="H155" s="186"/>
+      <c r="I155" s="189"/>
       <c r="J155" s="53"/>
       <c r="K155" s="36"/>
       <c r="L155" s="36"/>
       <c r="M155" s="61"/>
     </row>
     <row r="156" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B156" s="238"/>
-      <c r="C156" s="251" t="s">
+      <c r="B156" s="173"/>
+      <c r="C156" s="198" t="s">
         <v>399</v>
       </c>
-      <c r="D156" s="182">
+      <c r="D156" s="163">
         <v>46</v>
       </c>
-      <c r="E156" s="142" t="s">
+      <c r="E156" s="166" t="s">
         <v>201</v>
       </c>
       <c r="F156" s="79" t="s">
@@ -9168,10 +9168,10 @@
       <c r="G156" s="45" t="s">
         <v>203</v>
       </c>
-      <c r="H156" s="140" t="s">
+      <c r="H156" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="I156" s="171" t="s">
+      <c r="I156" s="232" t="s">
         <v>437</v>
       </c>
       <c r="J156" s="22"/>
@@ -9180,32 +9180,32 @@
       <c r="M156" s="23"/>
     </row>
     <row r="157" spans="2:13" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="238"/>
-      <c r="C157" s="252"/>
-      <c r="D157" s="183"/>
-      <c r="E157" s="143"/>
+      <c r="B157" s="173"/>
+      <c r="C157" s="199"/>
+      <c r="D157" s="165"/>
+      <c r="E157" s="168"/>
       <c r="F157" s="79" t="s">
         <v>328</v>
       </c>
       <c r="G157" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="H157" s="141"/>
-      <c r="I157" s="204"/>
+      <c r="H157" s="171"/>
+      <c r="I157" s="240"/>
       <c r="J157" s="22"/>
       <c r="K157" s="22"/>
       <c r="L157" s="22"/>
       <c r="M157" s="23"/>
     </row>
     <row r="158" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B158" s="238"/>
-      <c r="C158" s="192" t="s">
+      <c r="B158" s="173"/>
+      <c r="C158" s="248" t="s">
         <v>386</v>
       </c>
-      <c r="D158" s="179">
+      <c r="D158" s="241">
         <v>47</v>
       </c>
-      <c r="E158" s="142" t="s">
+      <c r="E158" s="166" t="s">
         <v>375</v>
       </c>
       <c r="F158" s="77" t="s">
@@ -9214,10 +9214,10 @@
       <c r="G158" s="54" t="s">
         <v>376</v>
       </c>
-      <c r="H158" s="205" t="s">
+      <c r="H158" s="184" t="s">
         <v>108</v>
       </c>
-      <c r="I158" s="138" t="s">
+      <c r="I158" s="187" t="s">
         <v>378</v>
       </c>
       <c r="J158" s="53"/>
@@ -9226,86 +9226,86 @@
       <c r="M158" s="61"/>
     </row>
     <row r="159" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B159" s="238"/>
-      <c r="C159" s="193"/>
-      <c r="D159" s="180"/>
-      <c r="E159" s="149"/>
+      <c r="B159" s="173"/>
+      <c r="C159" s="249"/>
+      <c r="D159" s="242"/>
+      <c r="E159" s="167"/>
       <c r="F159" s="77" t="s">
         <v>330</v>
       </c>
       <c r="G159" s="54" t="s">
         <v>374</v>
       </c>
-      <c r="H159" s="206"/>
-      <c r="I159" s="150"/>
+      <c r="H159" s="185"/>
+      <c r="I159" s="188"/>
       <c r="J159" s="53"/>
       <c r="K159" s="36"/>
       <c r="L159" s="36"/>
       <c r="M159" s="61"/>
     </row>
     <row r="160" spans="2:13" ht="38.25" x14ac:dyDescent="0.2">
-      <c r="B160" s="238"/>
-      <c r="C160" s="193"/>
-      <c r="D160" s="180"/>
-      <c r="E160" s="149"/>
+      <c r="B160" s="173"/>
+      <c r="C160" s="249"/>
+      <c r="D160" s="242"/>
+      <c r="E160" s="167"/>
       <c r="F160" s="77" t="s">
         <v>331</v>
       </c>
       <c r="G160" s="54" t="s">
         <v>462</v>
       </c>
-      <c r="H160" s="206"/>
-      <c r="I160" s="150"/>
+      <c r="H160" s="185"/>
+      <c r="I160" s="188"/>
       <c r="J160" s="53"/>
       <c r="K160" s="36"/>
       <c r="L160" s="36"/>
       <c r="M160" s="61"/>
     </row>
     <row r="161" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B161" s="238"/>
-      <c r="C161" s="193"/>
-      <c r="D161" s="180"/>
-      <c r="E161" s="149"/>
+      <c r="B161" s="173"/>
+      <c r="C161" s="249"/>
+      <c r="D161" s="242"/>
+      <c r="E161" s="167"/>
       <c r="F161" s="77" t="s">
         <v>393</v>
       </c>
       <c r="G161" s="54" t="s">
         <v>385</v>
       </c>
-      <c r="H161" s="206"/>
-      <c r="I161" s="150"/>
+      <c r="H161" s="185"/>
+      <c r="I161" s="188"/>
       <c r="J161" s="53"/>
       <c r="K161" s="36"/>
       <c r="L161" s="36"/>
       <c r="M161" s="61"/>
     </row>
     <row r="162" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B162" s="238"/>
-      <c r="C162" s="194"/>
-      <c r="D162" s="181"/>
-      <c r="E162" s="143"/>
+      <c r="B162" s="173"/>
+      <c r="C162" s="250"/>
+      <c r="D162" s="243"/>
+      <c r="E162" s="168"/>
       <c r="F162" s="77" t="s">
         <v>511</v>
       </c>
       <c r="G162" s="54" t="s">
         <v>377</v>
       </c>
-      <c r="H162" s="207"/>
-      <c r="I162" s="139"/>
+      <c r="H162" s="186"/>
+      <c r="I162" s="189"/>
       <c r="J162" s="53"/>
       <c r="K162" s="36"/>
       <c r="L162" s="36"/>
       <c r="M162" s="61"/>
     </row>
     <row r="163" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B163" s="238"/>
-      <c r="C163" s="189" t="s">
+      <c r="B163" s="173"/>
+      <c r="C163" s="245" t="s">
         <v>29</v>
       </c>
-      <c r="D163" s="182">
+      <c r="D163" s="163">
         <v>48</v>
       </c>
-      <c r="E163" s="142" t="s">
+      <c r="E163" s="166" t="s">
         <v>269</v>
       </c>
       <c r="F163" s="77" t="s">
@@ -9314,62 +9314,62 @@
       <c r="G163" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="H163" s="140" t="s">
+      <c r="H163" s="169" t="s">
         <v>40</v>
       </c>
-      <c r="I163" s="138"/>
+      <c r="I163" s="187"/>
       <c r="J163" s="22"/>
       <c r="K163" s="22"/>
       <c r="L163" s="22"/>
       <c r="M163" s="23"/>
     </row>
     <row r="164" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B164" s="238"/>
-      <c r="C164" s="190"/>
-      <c r="D164" s="203"/>
-      <c r="E164" s="149"/>
+      <c r="B164" s="173"/>
+      <c r="C164" s="246"/>
+      <c r="D164" s="164"/>
+      <c r="E164" s="167"/>
       <c r="F164" s="77" t="s">
         <v>333</v>
       </c>
       <c r="G164" s="54" t="s">
         <v>336</v>
       </c>
-      <c r="H164" s="151"/>
-      <c r="I164" s="150"/>
+      <c r="H164" s="170"/>
+      <c r="I164" s="188"/>
       <c r="J164" s="22"/>
       <c r="K164" s="22"/>
       <c r="L164" s="22"/>
       <c r="M164" s="23"/>
     </row>
     <row r="165" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B165" s="239"/>
-      <c r="C165" s="191"/>
-      <c r="D165" s="183"/>
-      <c r="E165" s="143"/>
+      <c r="B165" s="174"/>
+      <c r="C165" s="247"/>
+      <c r="D165" s="165"/>
+      <c r="E165" s="168"/>
       <c r="F165" s="77" t="s">
         <v>412</v>
       </c>
       <c r="G165" s="54" t="s">
         <v>470</v>
       </c>
-      <c r="H165" s="141"/>
-      <c r="I165" s="139"/>
+      <c r="H165" s="171"/>
+      <c r="I165" s="189"/>
       <c r="J165" s="22"/>
       <c r="K165" s="22"/>
       <c r="L165" s="22"/>
       <c r="M165" s="23"/>
     </row>
     <row r="166" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B166" s="240">
+      <c r="B166" s="175">
         <v>3</v>
       </c>
-      <c r="C166" s="198" t="s">
+      <c r="C166" s="238" t="s">
         <v>45</v>
       </c>
-      <c r="D166" s="144">
+      <c r="D166" s="227">
         <v>49</v>
       </c>
-      <c r="E166" s="156" t="s">
+      <c r="E166" s="190" t="s">
         <v>350</v>
       </c>
       <c r="F166" s="77" t="s">
@@ -9378,7 +9378,7 @@
       <c r="G166" s="54" t="s">
         <v>351</v>
       </c>
-      <c r="H166" s="140" t="s">
+      <c r="H166" s="169" t="s">
         <v>108</v>
       </c>
       <c r="I166" s="45"/>
@@ -9388,17 +9388,17 @@
       <c r="M166" s="23"/>
     </row>
     <row r="167" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B167" s="241"/>
-      <c r="C167" s="199"/>
-      <c r="D167" s="146"/>
-      <c r="E167" s="157"/>
+      <c r="B167" s="176"/>
+      <c r="C167" s="239"/>
+      <c r="D167" s="228"/>
+      <c r="E167" s="191"/>
       <c r="F167" s="77" t="s">
         <v>335</v>
       </c>
       <c r="G167" s="54" t="s">
         <v>453</v>
       </c>
-      <c r="H167" s="151"/>
+      <c r="H167" s="170"/>
       <c r="I167" s="45"/>
       <c r="J167" s="22"/>
       <c r="K167" s="22"/>
@@ -9406,17 +9406,17 @@
       <c r="M167" s="23"/>
     </row>
     <row r="168" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B168" s="241"/>
-      <c r="C168" s="199"/>
-      <c r="D168" s="146"/>
-      <c r="E168" s="157"/>
+      <c r="B168" s="176"/>
+      <c r="C168" s="239"/>
+      <c r="D168" s="228"/>
+      <c r="E168" s="191"/>
       <c r="F168" s="77" t="s">
         <v>502</v>
       </c>
       <c r="G168" s="54" t="s">
         <v>380</v>
       </c>
-      <c r="H168" s="151"/>
+      <c r="H168" s="170"/>
       <c r="I168" s="45"/>
       <c r="J168" s="22"/>
       <c r="K168" s="22"/>
@@ -9424,17 +9424,17 @@
       <c r="M168" s="23"/>
     </row>
     <row r="169" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B169" s="241"/>
-      <c r="C169" s="199"/>
-      <c r="D169" s="146"/>
-      <c r="E169" s="157"/>
+      <c r="B169" s="176"/>
+      <c r="C169" s="239"/>
+      <c r="D169" s="228"/>
+      <c r="E169" s="191"/>
       <c r="F169" s="77" t="s">
         <v>503</v>
       </c>
       <c r="G169" s="54" t="s">
         <v>381</v>
       </c>
-      <c r="H169" s="151"/>
+      <c r="H169" s="170"/>
       <c r="I169" s="45"/>
       <c r="J169" s="22"/>
       <c r="K169" s="22"/>
@@ -9442,17 +9442,17 @@
       <c r="M169" s="23"/>
     </row>
     <row r="170" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B170" s="241"/>
-      <c r="C170" s="199"/>
-      <c r="D170" s="146"/>
-      <c r="E170" s="157"/>
+      <c r="B170" s="176"/>
+      <c r="C170" s="239"/>
+      <c r="D170" s="228"/>
+      <c r="E170" s="191"/>
       <c r="F170" s="77" t="s">
         <v>504</v>
       </c>
       <c r="G170" s="54" t="s">
         <v>454</v>
       </c>
-      <c r="H170" s="151"/>
+      <c r="H170" s="170"/>
       <c r="I170" s="45"/>
       <c r="J170" s="22"/>
       <c r="K170" s="22"/>
@@ -9460,17 +9460,17 @@
       <c r="M170" s="23"/>
     </row>
     <row r="171" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B171" s="241"/>
-      <c r="C171" s="199"/>
-      <c r="D171" s="145"/>
-      <c r="E171" s="158"/>
+      <c r="B171" s="176"/>
+      <c r="C171" s="239"/>
+      <c r="D171" s="229"/>
+      <c r="E171" s="192"/>
       <c r="F171" s="77" t="s">
         <v>505</v>
       </c>
       <c r="G171" s="54" t="s">
         <v>455</v>
       </c>
-      <c r="H171" s="141"/>
+      <c r="H171" s="171"/>
       <c r="I171" s="45"/>
       <c r="J171" s="22"/>
       <c r="K171" s="22"/>
@@ -9478,7 +9478,7 @@
       <c r="M171" s="23"/>
     </row>
     <row r="172" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B172" s="241"/>
+      <c r="B172" s="176"/>
       <c r="C172" s="72" t="s">
         <v>184</v>
       </c>
@@ -9504,14 +9504,14 @@
       <c r="M172" s="23"/>
     </row>
     <row r="173" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B173" s="241"/>
-      <c r="C173" s="248" t="s">
+      <c r="B173" s="176"/>
+      <c r="C173" s="183" t="s">
         <v>214</v>
       </c>
-      <c r="D173" s="144">
+      <c r="D173" s="227">
         <v>51</v>
       </c>
-      <c r="E173" s="142" t="s">
+      <c r="E173" s="166" t="s">
         <v>258</v>
       </c>
       <c r="F173" s="77" t="s">
@@ -9520,40 +9520,40 @@
       <c r="G173" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="H173" s="140" t="s">
+      <c r="H173" s="169" t="s">
         <v>108</v>
       </c>
-      <c r="I173" s="138"/>
+      <c r="I173" s="187"/>
       <c r="J173" s="22"/>
       <c r="K173" s="22"/>
       <c r="L173" s="22"/>
       <c r="M173" s="23"/>
     </row>
     <row r="174" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B174" s="241"/>
-      <c r="C174" s="248"/>
-      <c r="D174" s="145"/>
-      <c r="E174" s="143"/>
+      <c r="B174" s="176"/>
+      <c r="C174" s="183"/>
+      <c r="D174" s="229"/>
+      <c r="E174" s="168"/>
       <c r="F174" s="77" t="s">
         <v>395</v>
       </c>
       <c r="G174" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="H174" s="141"/>
-      <c r="I174" s="139"/>
+      <c r="H174" s="171"/>
+      <c r="I174" s="189"/>
       <c r="J174" s="22"/>
       <c r="K174" s="22"/>
       <c r="L174" s="22"/>
       <c r="M174" s="23"/>
     </row>
     <row r="175" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B175" s="241"/>
-      <c r="C175" s="248"/>
-      <c r="D175" s="144">
+      <c r="B175" s="176"/>
+      <c r="C175" s="183"/>
+      <c r="D175" s="227">
         <v>52</v>
       </c>
-      <c r="E175" s="142" t="s">
+      <c r="E175" s="166" t="s">
         <v>217</v>
       </c>
       <c r="F175" s="77" t="s">
@@ -9562,108 +9562,108 @@
       <c r="G175" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="H175" s="140" t="s">
+      <c r="H175" s="169" t="s">
         <v>108</v>
       </c>
-      <c r="I175" s="138"/>
+      <c r="I175" s="187"/>
       <c r="J175" s="22"/>
       <c r="K175" s="22"/>
       <c r="L175" s="22"/>
       <c r="M175" s="23"/>
     </row>
     <row r="176" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B176" s="241"/>
-      <c r="C176" s="248"/>
-      <c r="D176" s="146"/>
-      <c r="E176" s="149"/>
+      <c r="B176" s="176"/>
+      <c r="C176" s="183"/>
+      <c r="D176" s="228"/>
+      <c r="E176" s="167"/>
       <c r="F176" s="77" t="s">
         <v>397</v>
       </c>
       <c r="G176" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="H176" s="151"/>
-      <c r="I176" s="150"/>
+      <c r="H176" s="170"/>
+      <c r="I176" s="188"/>
       <c r="J176" s="22"/>
       <c r="K176" s="22"/>
       <c r="L176" s="22"/>
       <c r="M176" s="23"/>
     </row>
     <row r="177" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B177" s="241"/>
-      <c r="C177" s="248"/>
-      <c r="D177" s="146"/>
-      <c r="E177" s="149"/>
+      <c r="B177" s="176"/>
+      <c r="C177" s="183"/>
+      <c r="D177" s="228"/>
+      <c r="E177" s="167"/>
       <c r="F177" s="77" t="s">
         <v>413</v>
       </c>
       <c r="G177" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="H177" s="151"/>
-      <c r="I177" s="150"/>
+      <c r="H177" s="170"/>
+      <c r="I177" s="188"/>
       <c r="J177" s="22"/>
       <c r="K177" s="22"/>
       <c r="L177" s="22"/>
       <c r="M177" s="23"/>
     </row>
     <row r="178" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B178" s="241"/>
-      <c r="C178" s="248"/>
-      <c r="D178" s="146"/>
-      <c r="E178" s="149"/>
+      <c r="B178" s="176"/>
+      <c r="C178" s="183"/>
+      <c r="D178" s="228"/>
+      <c r="E178" s="167"/>
       <c r="F178" s="77" t="s">
         <v>512</v>
       </c>
       <c r="G178" s="54" t="s">
         <v>461</v>
       </c>
-      <c r="H178" s="151"/>
-      <c r="I178" s="150"/>
+      <c r="H178" s="170"/>
+      <c r="I178" s="188"/>
       <c r="J178" s="22"/>
       <c r="K178" s="22"/>
       <c r="L178" s="22"/>
       <c r="M178" s="23"/>
     </row>
     <row r="179" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B179" s="241"/>
-      <c r="C179" s="248"/>
-      <c r="D179" s="146"/>
-      <c r="E179" s="149"/>
+      <c r="B179" s="176"/>
+      <c r="C179" s="183"/>
+      <c r="D179" s="228"/>
+      <c r="E179" s="167"/>
       <c r="F179" s="77" t="s">
         <v>513</v>
       </c>
       <c r="G179" s="54" t="s">
         <v>364</v>
       </c>
-      <c r="H179" s="151"/>
-      <c r="I179" s="150"/>
+      <c r="H179" s="170"/>
+      <c r="I179" s="188"/>
       <c r="J179" s="22"/>
       <c r="K179" s="22"/>
       <c r="L179" s="22"/>
       <c r="M179" s="23"/>
     </row>
     <row r="180" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B180" s="241"/>
-      <c r="C180" s="248"/>
-      <c r="D180" s="145"/>
-      <c r="E180" s="143"/>
+      <c r="B180" s="176"/>
+      <c r="C180" s="183"/>
+      <c r="D180" s="229"/>
+      <c r="E180" s="168"/>
       <c r="F180" s="77" t="s">
         <v>514</v>
       </c>
       <c r="G180" s="54" t="s">
         <v>363</v>
       </c>
-      <c r="H180" s="141"/>
-      <c r="I180" s="139"/>
+      <c r="H180" s="171"/>
+      <c r="I180" s="189"/>
       <c r="J180" s="22"/>
       <c r="K180" s="22"/>
       <c r="L180" s="22"/>
       <c r="M180" s="23"/>
     </row>
     <row r="181" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B181" s="241"/>
-      <c r="C181" s="248"/>
+      <c r="B181" s="176"/>
+      <c r="C181" s="183"/>
       <c r="D181" s="75">
         <v>53</v>
       </c>
@@ -9685,13 +9685,13 @@
       <c r="L181" s="22"/>
       <c r="M181" s="23"/>
     </row>
-    <row r="182" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B182" s="241"/>
-      <c r="C182" s="248"/>
-      <c r="D182" s="144">
+    <row r="182" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="B182" s="176"/>
+      <c r="C182" s="183"/>
+      <c r="D182" s="227">
         <v>54</v>
       </c>
-      <c r="E182" s="142" t="s">
+      <c r="E182" s="166" t="s">
         <v>224</v>
       </c>
       <c r="F182" s="77" t="s">
@@ -9700,78 +9700,78 @@
       <c r="G182" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="H182" s="140" t="s">
+      <c r="H182" s="169" t="s">
         <v>108</v>
       </c>
-      <c r="I182" s="138"/>
+      <c r="I182" s="187"/>
       <c r="J182" s="22"/>
       <c r="K182" s="22"/>
       <c r="L182" s="22"/>
       <c r="M182" s="23"/>
     </row>
     <row r="183" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B183" s="241"/>
-      <c r="C183" s="248"/>
-      <c r="D183" s="146"/>
-      <c r="E183" s="149"/>
+      <c r="B183" s="176"/>
+      <c r="C183" s="183"/>
+      <c r="D183" s="228"/>
+      <c r="E183" s="167"/>
       <c r="F183" s="77" t="s">
         <v>516</v>
       </c>
       <c r="G183" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="H183" s="151"/>
-      <c r="I183" s="150"/>
+      <c r="H183" s="170"/>
+      <c r="I183" s="188"/>
       <c r="J183" s="22"/>
       <c r="K183" s="22"/>
       <c r="L183" s="22"/>
       <c r="M183" s="23"/>
     </row>
     <row r="184" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B184" s="241"/>
-      <c r="C184" s="248"/>
-      <c r="D184" s="146"/>
-      <c r="E184" s="149"/>
+      <c r="B184" s="176"/>
+      <c r="C184" s="183"/>
+      <c r="D184" s="228"/>
+      <c r="E184" s="167"/>
       <c r="F184" s="77" t="s">
         <v>517</v>
       </c>
       <c r="G184" s="54" t="s">
         <v>227</v>
       </c>
-      <c r="H184" s="151"/>
-      <c r="I184" s="150"/>
+      <c r="H184" s="170"/>
+      <c r="I184" s="188"/>
       <c r="J184" s="22"/>
       <c r="K184" s="22"/>
       <c r="L184" s="22"/>
       <c r="M184" s="23"/>
     </row>
     <row r="185" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B185" s="241"/>
-      <c r="C185" s="248"/>
-      <c r="D185" s="145"/>
-      <c r="E185" s="143"/>
+      <c r="B185" s="176"/>
+      <c r="C185" s="183"/>
+      <c r="D185" s="229"/>
+      <c r="E185" s="168"/>
       <c r="F185" s="77" t="s">
         <v>518</v>
       </c>
       <c r="G185" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="H185" s="141"/>
-      <c r="I185" s="139"/>
+      <c r="H185" s="171"/>
+      <c r="I185" s="189"/>
       <c r="J185" s="22"/>
       <c r="K185" s="22"/>
       <c r="L185" s="22"/>
       <c r="M185" s="23"/>
     </row>
     <row r="186" spans="2:13" ht="15" x14ac:dyDescent="0.2">
-      <c r="B186" s="241"/>
-      <c r="C186" s="249" t="s">
+      <c r="B186" s="176"/>
+      <c r="C186" s="193" t="s">
         <v>391</v>
       </c>
-      <c r="D186" s="177">
+      <c r="D186" s="195">
         <v>55</v>
       </c>
-      <c r="E186" s="156" t="s">
+      <c r="E186" s="190" t="s">
         <v>382</v>
       </c>
       <c r="F186" s="77" t="s">
@@ -9780,10 +9780,10 @@
       <c r="G186" s="54" t="s">
         <v>383</v>
       </c>
-      <c r="H186" s="205" t="s">
+      <c r="H186" s="184" t="s">
         <v>108</v>
       </c>
-      <c r="I186" s="171" t="s">
+      <c r="I186" s="232" t="s">
         <v>424</v>
       </c>
       <c r="J186" s="53"/>
@@ -9792,114 +9792,315 @@
       <c r="M186" s="61"/>
     </row>
     <row r="187" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B187" s="241"/>
-      <c r="C187" s="249"/>
-      <c r="D187" s="178"/>
-      <c r="E187" s="157"/>
+      <c r="B187" s="176"/>
+      <c r="C187" s="193"/>
+      <c r="D187" s="196"/>
+      <c r="E187" s="191"/>
       <c r="F187" s="77" t="s">
         <v>520</v>
       </c>
       <c r="G187" s="54" t="s">
         <v>387</v>
       </c>
-      <c r="H187" s="206"/>
-      <c r="I187" s="209"/>
+      <c r="H187" s="185"/>
+      <c r="I187" s="233"/>
       <c r="J187" s="53"/>
       <c r="K187" s="36"/>
       <c r="L187" s="36"/>
       <c r="M187" s="61"/>
     </row>
     <row r="188" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B188" s="241"/>
-      <c r="C188" s="249"/>
-      <c r="D188" s="178"/>
-      <c r="E188" s="157"/>
+      <c r="B188" s="176"/>
+      <c r="C188" s="193"/>
+      <c r="D188" s="196"/>
+      <c r="E188" s="191"/>
       <c r="F188" s="77" t="s">
         <v>521</v>
       </c>
       <c r="G188" s="54" t="s">
         <v>388</v>
       </c>
-      <c r="H188" s="206"/>
-      <c r="I188" s="209"/>
+      <c r="H188" s="185"/>
+      <c r="I188" s="233"/>
       <c r="J188" s="53"/>
       <c r="K188" s="36"/>
       <c r="L188" s="36"/>
       <c r="M188" s="61"/>
     </row>
     <row r="189" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B189" s="241"/>
-      <c r="C189" s="249"/>
-      <c r="D189" s="178"/>
-      <c r="E189" s="157"/>
+      <c r="B189" s="176"/>
+      <c r="C189" s="193"/>
+      <c r="D189" s="196"/>
+      <c r="E189" s="191"/>
       <c r="F189" s="77" t="s">
         <v>522</v>
       </c>
       <c r="G189" s="54" t="s">
         <v>389</v>
       </c>
-      <c r="H189" s="206"/>
-      <c r="I189" s="209"/>
+      <c r="H189" s="185"/>
+      <c r="I189" s="233"/>
       <c r="J189" s="53"/>
       <c r="K189" s="36"/>
       <c r="L189" s="36"/>
       <c r="M189" s="61"/>
     </row>
     <row r="190" spans="2:13" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="B190" s="241"/>
-      <c r="C190" s="249"/>
-      <c r="D190" s="178"/>
-      <c r="E190" s="157"/>
+      <c r="B190" s="176"/>
+      <c r="C190" s="193"/>
+      <c r="D190" s="196"/>
+      <c r="E190" s="191"/>
       <c r="F190" s="77" t="s">
         <v>523</v>
       </c>
       <c r="G190" s="54" t="s">
         <v>390</v>
       </c>
-      <c r="H190" s="206"/>
-      <c r="I190" s="209"/>
+      <c r="H190" s="185"/>
+      <c r="I190" s="233"/>
       <c r="J190" s="53"/>
       <c r="K190" s="36"/>
       <c r="L190" s="36"/>
       <c r="M190" s="61"/>
     </row>
     <row r="191" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="242"/>
-      <c r="C191" s="250"/>
-      <c r="D191" s="184"/>
-      <c r="E191" s="158"/>
+      <c r="B191" s="177"/>
+      <c r="C191" s="194"/>
+      <c r="D191" s="197"/>
+      <c r="E191" s="192"/>
       <c r="F191" s="77" t="s">
         <v>524</v>
       </c>
       <c r="G191" s="54" t="s">
         <v>392</v>
       </c>
-      <c r="H191" s="207"/>
-      <c r="I191" s="210"/>
+      <c r="H191" s="186"/>
+      <c r="I191" s="234"/>
       <c r="J191" s="53"/>
       <c r="K191" s="36"/>
       <c r="L191" s="36"/>
       <c r="M191" s="61"/>
     </row>
     <row r="192" spans="2:13" ht="41.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="243" t="s">
+      <c r="B192" s="178" t="s">
         <v>16</v>
       </c>
-      <c r="C192" s="131"/>
-      <c r="D192" s="132"/>
-      <c r="E192" s="132"/>
-      <c r="F192" s="132"/>
-      <c r="G192" s="132"/>
-      <c r="H192" s="132"/>
-      <c r="I192" s="132"/>
-      <c r="J192" s="132"/>
-      <c r="K192" s="132"/>
-      <c r="L192" s="132"/>
-      <c r="M192" s="133"/>
+      <c r="C192" s="127"/>
+      <c r="D192" s="128"/>
+      <c r="E192" s="128"/>
+      <c r="F192" s="128"/>
+      <c r="G192" s="128"/>
+      <c r="H192" s="128"/>
+      <c r="I192" s="128"/>
+      <c r="J192" s="128"/>
+      <c r="K192" s="128"/>
+      <c r="L192" s="128"/>
+      <c r="M192" s="129"/>
     </row>
   </sheetData>
   <autoFilter ref="B8:M192" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="225">
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="D19:D21"/>
+    <mergeCell ref="D26:D28"/>
+    <mergeCell ref="E26:E28"/>
+    <mergeCell ref="D40:D42"/>
+    <mergeCell ref="E29:E32"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="H19:H21"/>
+    <mergeCell ref="I22:I25"/>
+    <mergeCell ref="H22:H25"/>
+    <mergeCell ref="E19:E21"/>
+    <mergeCell ref="H26:H28"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="E22:E25"/>
+    <mergeCell ref="D22:D25"/>
+    <mergeCell ref="D29:D32"/>
+    <mergeCell ref="H29:H32"/>
+    <mergeCell ref="I43:I44"/>
+    <mergeCell ref="I40:I42"/>
+    <mergeCell ref="H36:H39"/>
+    <mergeCell ref="H40:H42"/>
+    <mergeCell ref="I29:I32"/>
+    <mergeCell ref="I36:I39"/>
+    <mergeCell ref="H33:H35"/>
+    <mergeCell ref="I33:I35"/>
+    <mergeCell ref="H43:H44"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="H9:H11"/>
+    <mergeCell ref="I9:I11"/>
+    <mergeCell ref="D3:K5"/>
+    <mergeCell ref="J7:M7"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="I83:I84"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="E54:E59"/>
+    <mergeCell ref="E51:E53"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="H125:H128"/>
+    <mergeCell ref="H129:H132"/>
+    <mergeCell ref="H133:H136"/>
+    <mergeCell ref="I109:I110"/>
+    <mergeCell ref="I85:I89"/>
+    <mergeCell ref="H111:H113"/>
+    <mergeCell ref="H114:H118"/>
+    <mergeCell ref="H119:H120"/>
+    <mergeCell ref="H85:H89"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="H90:H93"/>
+    <mergeCell ref="I45:I50"/>
+    <mergeCell ref="H45:H50"/>
+    <mergeCell ref="H77:H82"/>
+    <mergeCell ref="H70:H76"/>
+    <mergeCell ref="H54:H59"/>
+    <mergeCell ref="H60:H66"/>
+    <mergeCell ref="H67:H69"/>
+    <mergeCell ref="I51:I53"/>
+    <mergeCell ref="I54:I59"/>
+    <mergeCell ref="I60:I66"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="I70:I76"/>
+    <mergeCell ref="H51:H53"/>
+    <mergeCell ref="D51:D53"/>
+    <mergeCell ref="E36:E39"/>
+    <mergeCell ref="D36:D39"/>
+    <mergeCell ref="E152:E155"/>
+    <mergeCell ref="D152:D155"/>
+    <mergeCell ref="D119:D120"/>
+    <mergeCell ref="E119:E120"/>
+    <mergeCell ref="E141:E142"/>
+    <mergeCell ref="D144:D145"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="D67:D69"/>
+    <mergeCell ref="E67:E69"/>
+    <mergeCell ref="E60:E66"/>
+    <mergeCell ref="D60:D66"/>
+    <mergeCell ref="D45:D50"/>
+    <mergeCell ref="E45:E50"/>
+    <mergeCell ref="D100:D102"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="E40:E42"/>
+    <mergeCell ref="D141:D142"/>
+    <mergeCell ref="D54:D59"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="E133:E136"/>
+    <mergeCell ref="C70:C76"/>
+    <mergeCell ref="D70:D76"/>
+    <mergeCell ref="E70:E76"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="D83:D84"/>
+    <mergeCell ref="D94:D97"/>
+    <mergeCell ref="D77:D82"/>
+    <mergeCell ref="E77:E82"/>
+    <mergeCell ref="D106:D108"/>
+    <mergeCell ref="E103:E105"/>
+    <mergeCell ref="D103:D105"/>
+    <mergeCell ref="C85:C89"/>
+    <mergeCell ref="D85:D89"/>
+    <mergeCell ref="E85:E89"/>
+    <mergeCell ref="E90:E93"/>
+    <mergeCell ref="E94:E97"/>
+    <mergeCell ref="D133:D136"/>
+    <mergeCell ref="E139:E140"/>
+    <mergeCell ref="E137:E138"/>
+    <mergeCell ref="D137:D138"/>
+    <mergeCell ref="D139:D140"/>
+    <mergeCell ref="H137:H138"/>
+    <mergeCell ref="H139:H140"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="H94:H97"/>
+    <mergeCell ref="C121:C124"/>
+    <mergeCell ref="D121:D124"/>
+    <mergeCell ref="E121:E124"/>
+    <mergeCell ref="H141:H142"/>
+    <mergeCell ref="C114:C118"/>
+    <mergeCell ref="D114:D118"/>
+    <mergeCell ref="E114:E118"/>
+    <mergeCell ref="E100:E102"/>
+    <mergeCell ref="C163:C165"/>
+    <mergeCell ref="E125:E128"/>
+    <mergeCell ref="D125:D128"/>
+    <mergeCell ref="E129:E132"/>
+    <mergeCell ref="D129:D132"/>
+    <mergeCell ref="C158:C162"/>
+    <mergeCell ref="E158:E162"/>
+    <mergeCell ref="C119:C120"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="C111:C113"/>
+    <mergeCell ref="D111:D113"/>
+    <mergeCell ref="E111:E113"/>
+    <mergeCell ref="H100:H102"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="D175:D180"/>
+    <mergeCell ref="D182:D185"/>
+    <mergeCell ref="C152:C155"/>
+    <mergeCell ref="C166:C171"/>
+    <mergeCell ref="D166:D171"/>
+    <mergeCell ref="E166:E171"/>
+    <mergeCell ref="D163:D165"/>
+    <mergeCell ref="I152:I155"/>
+    <mergeCell ref="I156:I157"/>
+    <mergeCell ref="H156:H157"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="D158:D162"/>
+    <mergeCell ref="E182:E185"/>
+    <mergeCell ref="E163:E165"/>
+    <mergeCell ref="E175:E180"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="H163:H165"/>
+    <mergeCell ref="H186:H191"/>
+    <mergeCell ref="H109:H110"/>
+    <mergeCell ref="H166:H171"/>
+    <mergeCell ref="I125:I128"/>
+    <mergeCell ref="I129:I132"/>
+    <mergeCell ref="I133:I136"/>
+    <mergeCell ref="I137:I138"/>
+    <mergeCell ref="I139:I140"/>
+    <mergeCell ref="I163:I165"/>
+    <mergeCell ref="H175:H180"/>
+    <mergeCell ref="H182:H185"/>
+    <mergeCell ref="H121:H124"/>
+    <mergeCell ref="I121:I124"/>
+    <mergeCell ref="I186:I191"/>
+    <mergeCell ref="I173:I174"/>
+    <mergeCell ref="I175:I180"/>
+    <mergeCell ref="I182:I185"/>
+    <mergeCell ref="B9:B110"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="B7:I7"/>
+    <mergeCell ref="B3:C5"/>
+    <mergeCell ref="B6:I6"/>
+    <mergeCell ref="C9:C28"/>
+    <mergeCell ref="C29:C35"/>
+    <mergeCell ref="C36:C44"/>
+    <mergeCell ref="C45:C53"/>
+    <mergeCell ref="C54:C69"/>
+    <mergeCell ref="C77:C84"/>
+    <mergeCell ref="C90:C97"/>
+    <mergeCell ref="C98:C110"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="H103:H105"/>
+    <mergeCell ref="H106:H108"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="I100:I102"/>
+    <mergeCell ref="I94:I97"/>
+    <mergeCell ref="I103:I105"/>
+    <mergeCell ref="I106:I108"/>
+    <mergeCell ref="I77:I82"/>
+    <mergeCell ref="I90:I93"/>
+    <mergeCell ref="D90:D93"/>
     <mergeCell ref="B111:B142"/>
     <mergeCell ref="D147:D150"/>
     <mergeCell ref="E147:E150"/>
@@ -9924,207 +10125,6 @@
     <mergeCell ref="D186:D191"/>
     <mergeCell ref="C156:C157"/>
     <mergeCell ref="D156:D157"/>
-    <mergeCell ref="B9:B110"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B7:I7"/>
-    <mergeCell ref="B3:C5"/>
-    <mergeCell ref="B6:I6"/>
-    <mergeCell ref="C9:C28"/>
-    <mergeCell ref="C29:C35"/>
-    <mergeCell ref="C36:C44"/>
-    <mergeCell ref="C45:C53"/>
-    <mergeCell ref="C54:C69"/>
-    <mergeCell ref="C77:C84"/>
-    <mergeCell ref="C90:C97"/>
-    <mergeCell ref="C98:C110"/>
-    <mergeCell ref="I26:I28"/>
-    <mergeCell ref="H103:H105"/>
-    <mergeCell ref="H106:H108"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="I100:I102"/>
-    <mergeCell ref="I94:I97"/>
-    <mergeCell ref="I103:I105"/>
-    <mergeCell ref="I106:I108"/>
-    <mergeCell ref="I77:I82"/>
-    <mergeCell ref="I90:I93"/>
-    <mergeCell ref="D90:D93"/>
-    <mergeCell ref="H186:H191"/>
-    <mergeCell ref="H109:H110"/>
-    <mergeCell ref="H166:H171"/>
-    <mergeCell ref="I125:I128"/>
-    <mergeCell ref="I129:I132"/>
-    <mergeCell ref="I133:I136"/>
-    <mergeCell ref="I137:I138"/>
-    <mergeCell ref="I139:I140"/>
-    <mergeCell ref="I163:I165"/>
-    <mergeCell ref="H175:H180"/>
-    <mergeCell ref="H182:H185"/>
-    <mergeCell ref="H121:H124"/>
-    <mergeCell ref="I121:I124"/>
-    <mergeCell ref="I186:I191"/>
-    <mergeCell ref="I173:I174"/>
-    <mergeCell ref="I175:I180"/>
-    <mergeCell ref="I182:I185"/>
-    <mergeCell ref="D175:D180"/>
-    <mergeCell ref="D182:D185"/>
-    <mergeCell ref="C152:C155"/>
-    <mergeCell ref="C166:C171"/>
-    <mergeCell ref="D166:D171"/>
-    <mergeCell ref="E166:E171"/>
-    <mergeCell ref="D163:D165"/>
-    <mergeCell ref="I152:I155"/>
-    <mergeCell ref="I156:I157"/>
-    <mergeCell ref="H156:H157"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="D158:D162"/>
-    <mergeCell ref="E182:E185"/>
-    <mergeCell ref="E163:E165"/>
-    <mergeCell ref="E175:E180"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="H173:H174"/>
-    <mergeCell ref="H163:H165"/>
-    <mergeCell ref="C121:C124"/>
-    <mergeCell ref="D121:D124"/>
-    <mergeCell ref="E121:E124"/>
-    <mergeCell ref="H141:H142"/>
-    <mergeCell ref="C114:C118"/>
-    <mergeCell ref="D114:D118"/>
-    <mergeCell ref="E114:E118"/>
-    <mergeCell ref="E100:E102"/>
-    <mergeCell ref="C163:C165"/>
-    <mergeCell ref="E125:E128"/>
-    <mergeCell ref="D125:D128"/>
-    <mergeCell ref="E129:E132"/>
-    <mergeCell ref="D129:D132"/>
-    <mergeCell ref="C158:C162"/>
-    <mergeCell ref="E158:E162"/>
-    <mergeCell ref="C119:C120"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="C111:C113"/>
-    <mergeCell ref="D111:D113"/>
-    <mergeCell ref="E111:E113"/>
-    <mergeCell ref="H100:H102"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="D133:D136"/>
-    <mergeCell ref="E139:E140"/>
-    <mergeCell ref="E137:E138"/>
-    <mergeCell ref="D137:D138"/>
-    <mergeCell ref="D139:D140"/>
-    <mergeCell ref="H137:H138"/>
-    <mergeCell ref="H139:H140"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="H94:H97"/>
-    <mergeCell ref="C70:C76"/>
-    <mergeCell ref="D70:D76"/>
-    <mergeCell ref="E70:E76"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="D83:D84"/>
-    <mergeCell ref="D94:D97"/>
-    <mergeCell ref="D77:D82"/>
-    <mergeCell ref="E77:E82"/>
-    <mergeCell ref="D106:D108"/>
-    <mergeCell ref="E103:E105"/>
-    <mergeCell ref="D103:D105"/>
-    <mergeCell ref="C85:C89"/>
-    <mergeCell ref="D85:D89"/>
-    <mergeCell ref="E85:E89"/>
-    <mergeCell ref="E90:E93"/>
-    <mergeCell ref="E94:E97"/>
-    <mergeCell ref="D51:D53"/>
-    <mergeCell ref="E36:E39"/>
-    <mergeCell ref="D36:D39"/>
-    <mergeCell ref="E152:E155"/>
-    <mergeCell ref="D152:D155"/>
-    <mergeCell ref="D119:D120"/>
-    <mergeCell ref="E119:E120"/>
-    <mergeCell ref="E141:E142"/>
-    <mergeCell ref="D144:D145"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="D67:D69"/>
-    <mergeCell ref="E67:E69"/>
-    <mergeCell ref="E60:E66"/>
-    <mergeCell ref="D60:D66"/>
-    <mergeCell ref="D45:D50"/>
-    <mergeCell ref="E45:E50"/>
-    <mergeCell ref="D100:D102"/>
-    <mergeCell ref="E106:E108"/>
-    <mergeCell ref="E40:E42"/>
-    <mergeCell ref="D141:D142"/>
-    <mergeCell ref="D54:D59"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="E133:E136"/>
-    <mergeCell ref="I45:I50"/>
-    <mergeCell ref="H45:H50"/>
-    <mergeCell ref="H77:H82"/>
-    <mergeCell ref="H70:H76"/>
-    <mergeCell ref="H54:H59"/>
-    <mergeCell ref="H60:H66"/>
-    <mergeCell ref="H67:H69"/>
-    <mergeCell ref="I51:I53"/>
-    <mergeCell ref="I54:I59"/>
-    <mergeCell ref="I60:I66"/>
-    <mergeCell ref="I67:I69"/>
-    <mergeCell ref="I70:I76"/>
-    <mergeCell ref="H51:H53"/>
-    <mergeCell ref="I83:I84"/>
-    <mergeCell ref="H83:H84"/>
-    <mergeCell ref="E54:E59"/>
-    <mergeCell ref="E51:E53"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="H125:H128"/>
-    <mergeCell ref="H129:H132"/>
-    <mergeCell ref="H133:H136"/>
-    <mergeCell ref="I109:I110"/>
-    <mergeCell ref="I85:I89"/>
-    <mergeCell ref="H111:H113"/>
-    <mergeCell ref="H114:H118"/>
-    <mergeCell ref="H119:H120"/>
-    <mergeCell ref="H85:H89"/>
-    <mergeCell ref="I98:I99"/>
-    <mergeCell ref="H90:H93"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="D9:D11"/>
-    <mergeCell ref="E9:E11"/>
-    <mergeCell ref="H9:H11"/>
-    <mergeCell ref="I9:I11"/>
-    <mergeCell ref="D3:K5"/>
-    <mergeCell ref="J7:M7"/>
-    <mergeCell ref="H12:H14"/>
-    <mergeCell ref="I12:I14"/>
-    <mergeCell ref="I43:I44"/>
-    <mergeCell ref="I40:I42"/>
-    <mergeCell ref="H36:H39"/>
-    <mergeCell ref="H40:H42"/>
-    <mergeCell ref="I29:I32"/>
-    <mergeCell ref="I36:I39"/>
-    <mergeCell ref="H33:H35"/>
-    <mergeCell ref="I33:I35"/>
-    <mergeCell ref="H43:H44"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="D19:D21"/>
-    <mergeCell ref="D26:D28"/>
-    <mergeCell ref="E26:E28"/>
-    <mergeCell ref="D40:D42"/>
-    <mergeCell ref="E29:E32"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="H19:H21"/>
-    <mergeCell ref="I22:I25"/>
-    <mergeCell ref="H22:H25"/>
-    <mergeCell ref="E19:E21"/>
-    <mergeCell ref="H26:H28"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="E33:E35"/>
-    <mergeCell ref="E22:E25"/>
-    <mergeCell ref="D22:D25"/>
-    <mergeCell ref="D29:D32"/>
-    <mergeCell ref="H29:H32"/>
   </mergeCells>
   <conditionalFormatting sqref="H9:H191">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
